--- a/file/tg_articles.xlsx
+++ b/file/tg_articles.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="22188" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="TgArticle" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TgArticle!$A$1:$M$90</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="599">
   <si>
     <t>URL</t>
   </si>
@@ -68,988 +71,1770 @@
     <t>publish_time</t>
   </si>
   <si>
-    <t>https://t.me/kuakeyun/95425</t>
+    <t>https://t.me/yunpanshare/81770</t>
+  </si>
+  <si>
+    <t>网盘资源收藏(夸克)</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>《337晨读》小学语文同步辅导资料 (部编版)</t>
+  </si>
+  <si>
+    <t>"337晨读法"强调的是朗读而不是背诵，背诵只不过是附属产物，要让孩子享受阅读的过程，养成一个坚持阅读的好习惯。孩子在没有压力的情况下，抑扬顿挫地读出文字内容，去体会和理解文字传递的观点、含义和情感，最后达到理解基础上成诵的结果。</t>
+  </si>
+  <si>
+    <t>小学,语文,阅读,337晨读</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/cf1a25b0122c</t>
+  </si>
+  <si>
+    <t>329MB</t>
+  </si>
+  <si>
+    <t>2024-10-12T04:50:09+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/XiangxiuNB/27950</t>
+  </si>
+  <si>
+    <t>肯德基 4K影视发布频道🍟</t>
+  </si>
+  <si>
+    <t>《黑神话：悟空》Blender 模型</t>
+  </si>
+  <si>
+    <t>包括 PSK 文件、纹理、材质和骨骼等，不仅精准复刻了游戏中角色与装备的精髓，更在细节处理上达到了极致，使得角色显得更加生动逼真。可用于渲染效果测试或学习。</t>
+  </si>
+  <si>
+    <t>黑神话悟空,Blender,建模,模板</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e2c13a436f93</t>
+  </si>
+  <si>
+    <t>1.8GB</t>
+  </si>
+  <si>
+    <t>2024-09-03T07:02:41+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/95879</t>
   </si>
   <si>
     <t>夸克云盘盘</t>
   </si>
   <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>《大师文学课》[全10册]</t>
-  </si>
-  <si>
-    <t>套装内包括《文字的故事》《阅读的故事》《重读：在咖啡馆遇见14个作家》《许子东现代文学课》《重读20世纪中国小说》《博尔赫斯谈话录》《留白：秋水堂文化随笔》《正本清源说红楼》《白先勇细说红楼梦》《唐诗宋词解 ：诗为心声，词乃情物》。百科全书式的文字通识读本，更新你我的认知视野。
+    <t>《语文极简学习法》语文高分的秘密</t>
+  </si>
+  <si>
+    <t>作者立足“学霸”和命题人思维，简约、高效、科学地阐释了语文学习的底层逻辑与实用策略，为渴望提升语文成绩的广大学生提供了一把短时高效的金钥匙，开启了一条事半功倍的“极简”语文成功之路。
 提供PDF、azw3、mobi、epub格式。</t>
   </si>
   <si>
-    <t>文学,阅读,图书</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/2dd8c2d93f23</t>
-  </si>
-  <si>
-    <t>85MB</t>
-  </si>
-  <si>
-    <t>2024-10-11T00:42:34+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95430</t>
-  </si>
-  <si>
-    <t>《黄冈名卷》小学语文同步小阅读 (2024年秋）</t>
-  </si>
-  <si>
-    <t>系列由单元、期中期末卷、专项核心整合，三大部分有机组成，全方位，多角度为学生梳理学习思路，巩固所学，提高学习成绩，培养学习能力。</t>
-  </si>
-  <si>
-    <t>小学,语文,阅读</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/12080d37159e</t>
-  </si>
-  <si>
-    <t>81.6MB</t>
-  </si>
-  <si>
-    <t>2024-10-11T01:16:30+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81191</t>
-  </si>
-  <si>
-    <t>网盘资源收藏(夸克)</t>
-  </si>
-  <si>
-    <t>《身体从未忘记：心理创伤疗愈中的大脑、心智和身体》 心理创伤疗愈经典畅销丛书</t>
-  </si>
-  <si>
-    <t>《身体从未忘记：心理创伤疗愈中的大脑、心智和身体》是心理创伤疗愈领域的经典畅销之作。该书深入探讨了心理创伤对大脑、心智及身体的影响，揭示了创伤记忆的生物学基础及疗愈机制。书中通过科学分析与临床案例，提供了有效的创伤治疗方法，为心理创伤患者及专业人士提供了宝贵的指导与启示。</t>
-  </si>
-  <si>
-    <t>书籍,经典,疗愈,丛书,心理,身体从未忘记</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/61eb10b73d5f</t>
-  </si>
-  <si>
-    <t>12.0MB</t>
-  </si>
-  <si>
-    <t>2024-10-10T17:19:25+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81189</t>
-  </si>
-  <si>
-    <t>《思维与陷阱》 揭示致命的认知缺陷</t>
-  </si>
-  <si>
-    <t>《思维与陷阱》一书，深入剖析了人类思维中常见的认知缺陷与偏见，揭示了这些缺陷如何影响我们的决策与判断。书中通过丰富案例与科学分析，展示了认知陷阱的多样性与普遍性，提供了识别与避免这些陷阱的方法，有助于读者提升思维清晰度与决策准确性，是认知心理学领域的经典之作。</t>
-  </si>
-  <si>
-    <t>书籍,思维,认知,思维与陷阱</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1d46928573b5</t>
-  </si>
-  <si>
-    <t>4.8MB</t>
-  </si>
-  <si>
-    <t>2024-10-10T17:02:37+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95277</t>
-  </si>
-  <si>
-    <t>《新零售：低价高效的数据赋能之路》 商业简史5分钟商学院作者 得到讲师吴晓波罗振宇推荐</t>
-  </si>
-  <si>
-    <t>《新零售：低价高效的数据赋能之路》一书，深入探讨了新零售的核心价值与实现路径。作者结合前沿理论与实战案例，详细阐述了数据在新零售中的关键作用，如何通过数据赋能实现低价高效的经营模式。该书得到了商业简史作者、得到讲师吴晓波及罗振宇的推荐，是新零售领域不可多得的经典之作，为零售企业转型升级提供了宝贵的参考。</t>
+    <t>语文,图书</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9aa60eef6d5f</t>
+  </si>
+  <si>
+    <t>22.5MB</t>
+  </si>
+  <si>
+    <t>2024-10-12T00:36:57+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/95743</t>
+  </si>
+  <si>
+    <t>0基础，0粉丝，抖音带货100万</t>
+  </si>
+  <si>
+    <t>零基础，零粉丝起步，通过精准定位、优质内容创作及高效互动，巧妙结合热门趋势与产品特色，利用抖音平台流量机制，短时间内吸引大量关注，实现带货百万佳绩。这要求极高的市场洞察力、内容创新力及执行力。</t>
+  </si>
+  <si>
+    <t>带货,抖音</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d443724d6420</t>
+  </si>
+  <si>
+    <t>264.2MB</t>
+  </si>
+  <si>
+    <t>2024-10-11T11:03:41+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/zh_vip/2472</t>
+  </si>
+  <si>
+    <t>VIP资源共享</t>
+  </si>
+  <si>
+    <t>11天腰臀腿塑形课 健身减肥塑形</t>
+  </si>
+  <si>
+    <t>健身养生</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2941f6cfd23b</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>2024-10-07T00:35:00+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/95869</t>
+  </si>
+  <si>
+    <t>168套别墅设计CAD图纸</t>
+  </si>
+  <si>
+    <t>168套别墅设计CAD图纸是一套全面且多样化的别墅设计资源，涵盖了各种风格（如欧式、中式、现代等）和类型（如独栋、双拼、联排等）的别墅设计施工图。这些图纸以DWG格式提供，便于使用CAD软件进行查看和编辑。图纸内容详尽，包括别墅的平面布局、立面设计、结构细节等，为设计师和建筑爱好者提供了丰富的设计灵感和参考。</t>
+  </si>
+  <si>
+    <t>书籍,别墅,设计,CAD,图纸</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b5e2d55c04f2</t>
+  </si>
+  <si>
+    <t>365.4MB</t>
+  </si>
+  <si>
+    <t>2024-10-11T18:27:27+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/95876</t>
+  </si>
+  <si>
+    <t>38天成为销售高手蜕变营课</t>
+  </si>
+  <si>
+    <t>38天成为销售高手蜕变营课程旨在通过密集训练快速提升销售技能。课程涵盖市场分析、客户心理、谈判技巧等核心内容，结合实战演练和案例分析，帮助学员深入理解销售流程，提升沟通与闭单能力，快速从销售新手成长为销售高手。</t>
+  </si>
+  <si>
+    <t>职场关系</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a74c68a4a49f</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>2024-10-11T23:40:00+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/71913</t>
+  </si>
+  <si>
+    <t>AdGuard v4.7.41广告拦截程序，广告内容拦截跟踪器，去广告大杀器</t>
+  </si>
+  <si>
+    <t>AdGuard，最受欢迎的广告拦截程序，堪称去广告大杀器。Adguard安卓版无需ROOT权限，可拦截所有应用和浏览器的广告。具有广告内容拦截跟踪器（包括：广告拦截过滤器、社交过滤器、隐私过滤器、安全过滤器、自定义过滤器）、DNS过滤、HTTPS过滤、节省应用流量数据管理及隐身模式保护个人隐私功能。</t>
+  </si>
+  <si>
+    <t>Android,广告拦截,AdGuard</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/aace02c0d18e</t>
+  </si>
+  <si>
+    <t>939.6MB</t>
+  </si>
+  <si>
+    <t>2024-09-20T12:19:14+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/72094</t>
+  </si>
+  <si>
+    <t>ADM v14.0.37多线程下载工具，百度无限速，专业直装版</t>
+  </si>
+  <si>
+    <t>ADM是一款功能强大的多线程下载工具，专为追求高效下载体验的用户设计。该版本具备百度网盘无限速下载的专业特性，无需额外设置即可享受满速下载服务，极大地提升了下载效率。作为专业直装版，ADM提供了丰富的下载管理和优化功能，如界面定制、文件夹选择、自动操作、错误恢复等，确保用户能够轻松管理下载任务并享受稳定可靠的下载体验。</t>
+  </si>
+  <si>
+    <t>Android,下载,工具,多线程,ADM</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2c88ec205bd5</t>
+  </si>
+  <si>
+    <t>564.7MB</t>
+  </si>
+  <si>
+    <t>2024-09-20T16:00:17+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/73185</t>
+  </si>
+  <si>
+    <t>Adobe Photoshop Express v15.8.220安卓PS神器，拍摄、编辑、分享，解锁高级版</t>
+  </si>
+  <si>
+    <t>Adobe Photoshop Express Pro 是全球闻名的 Adobe 公司开发的一款移动设备上的图画处理软件，Photoshop Express Pro 集拍摄、编辑、分享于一体，具有多种专业的图片编辑处理功用，自带几十种特效滤镜效果，支持 Raw 文件及无缝编辑 TIFF 图画，是款专业实用的安卓渠道图片处理美化工具。当之无愧的安卓 PS 神器。</t>
+  </si>
+  <si>
+    <t>Android,Photoshop,安卓,拍摄,解锁,高级,Adobe</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/44fdba37cc8c</t>
+  </si>
+  <si>
+    <t>8.2GB</t>
+  </si>
+  <si>
+    <t>2024-09-23T02:42:16+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/95863</t>
+  </si>
+  <si>
+    <t>AI商业实战掘金课：零基础小白也能轻松上手创收</t>
+  </si>
+  <si>
+    <t>AI商业实战掘金课是一门专为零基础小白设计的创收课程。该课程通过系统化的教学，帮助学员掌握AI技术在商业领域的应用，包括数据分析、机器学习模型搭建、智能推荐系统等。通过实战案例，学员能够轻松上手，将AI技术转化为实际商业价值，实现个人的收入增长。</t>
+  </si>
+  <si>
+    <t>AI,零基础,商业</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/21e800de185f</t>
+  </si>
+  <si>
+    <t>592.4MB</t>
+  </si>
+  <si>
+    <t>2024-10-11T17:26:27+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/82615</t>
+  </si>
+  <si>
+    <t>Avast Cleanup - 清理工具 v24.18.0</t>
+  </si>
+  <si>
+    <t>Avast Cleanup是一款智能工具，一键释放空间，优化性能，延长电池寿命，确保设备始终快速、清洁、高效。</t>
+  </si>
+  <si>
+    <t>破解,绿色,Android,软件</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/abef1db4c343</t>
+  </si>
+  <si>
+    <t>2024-09-16T09:46:12+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/84774</t>
+  </si>
+  <si>
+    <t>B612v13.3.20B612咔叽相机，功能强大的拍照神器，解锁会员订阅版</t>
+  </si>
+  <si>
+    <t>B612咔叽相机是一款功能强大的拍照神器，它拥有智能美颜技术，能为用户打造超自然的美颜效果和靓丽脸型。同时，提供超过3000种动态贴纸、奇妙AR滤镜和百款品质滤镜，让每一张照片都充满创意与个性。此外，B612还支持GIF表情包制作、炫酷拼图等功能，满足用户多样化的拍照和美化需求。无论是自拍还是记录生活，B612咔叽相机都是不可多得的好帮手。</t>
+  </si>
+  <si>
+    <t>Android,会员,解锁,拍照</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/63df1f899514</t>
+  </si>
+  <si>
+    <t>4.0GB</t>
+  </si>
+  <si>
+    <t>2024-09-20T12:37:30+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/95851</t>
+  </si>
+  <si>
+    <t>Battery Guru v2.3.9电池大师，手机电池优化软件，解锁付费版</t>
+  </si>
+  <si>
+    <t>BatteryGuru电池大师app是一款专为安卓手机用户打造的手机电池优化软件。软件可以查看手机的电池使用情况、健康状况、电池温度，后台应用的耗电情况，帮助大家更好地使用手机。</t>
+  </si>
+  <si>
+    <t>Android,电池,优化</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/939163970090</t>
+  </si>
+  <si>
+    <t>284.6MB</t>
+  </si>
+  <si>
+    <t>2024-10-11T17:05:20+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/85965</t>
+  </si>
+  <si>
+    <t>Duolingo - 多邻国高效学外语 v5.168.3</t>
+  </si>
+  <si>
+    <t>多邻国是一款非常有名的手机外语学习工具软件，大家可以通过这款软件来学习众多门的外语，零基础一样也可以轻松上手，为你带来更多的优质学习享受。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9b2247b26755</t>
+  </si>
+  <si>
+    <t>2024-09-22T21:47:09+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/79686</t>
+  </si>
+  <si>
+    <t>Easy Notes v1.2.64.0906全新易用的记事本软件，解锁专业版</t>
+  </si>
+  <si>
+    <t>一款适用于Android 的全新易用的记事本、笔记本、备忘录、彩色便利贴、提醒事项、加密笔记、记事应用程序。有了这个简单的记事本应用程序，您可以使用彩色背景和清单创建快速笔记，以帮助您轻松组织任务和生活。您也可以使用此笔记记录者将照片或音频添加到笔记中。</t>
+  </si>
+  <si>
+    <t>Android,笔记,备忘,专业版,解锁</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9cc7db155916</t>
+  </si>
+  <si>
+    <t>2024-09-11T07:32:40+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/82721</t>
+  </si>
+  <si>
+    <t>ES文件浏览器 v4.4.2.7手机文件管理工具，解锁会员高级版</t>
+  </si>
+  <si>
+    <t>ES文件浏览器是一款功能强大的手机文件管理工具，解锁会员高级版，用户可以享受无广告干扰的使用体验，并获得更多高级功能。支持全面的文件管理操作，包括文件浏览、复制、移动、重命名、删除等，同时内置了压缩/解压、文本编辑、图片查看等实用工具。它还支持云存储服务绑定，方便用户管理云端文件。</t>
+  </si>
+  <si>
+    <t>Android,文件管理,解锁,工具</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fd8665988112</t>
+  </si>
+  <si>
+    <t>1.4GB</t>
+  </si>
+  <si>
+    <t>2024-09-16T13:57:36+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/85393</t>
+  </si>
+  <si>
+    <t>iLovePDF - PDF编辑器和阅读器 v3.8.7</t>
+  </si>
+  <si>
+    <t>iLovePDF 将文档管理整合到一个地方，因此你可以通过你的Android智能手机和平板电脑进行完全无纸化的工作。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/34e0c38de13d</t>
+  </si>
+  <si>
+    <t>2024-09-21T16:55:53+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/85966</t>
+  </si>
+  <si>
+    <t>Node Video - 专业视频编辑器 v6.55.1</t>
+  </si>
+  <si>
+    <t>Node Video 是最强大的手机视频编辑应用程序之一。凭借许多革命性的功能，您可以创造出您从未想象过的惊人效果！</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/959d82b62bd2</t>
+  </si>
+  <si>
+    <t>2024-09-22T21:55:15+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/85967</t>
+  </si>
+  <si>
+    <t>Photo Editor v10.7最强照片编辑器，P图神器，解锁高级版</t>
+  </si>
+  <si>
+    <t>Photo Editor v10.4，顶级照片编辑利器，集专业P图功能与创意工具于一身。解锁高级版后，尽享无限滤镜、高级编辑选项及独家特效，轻松打造专业级美图。无论是人像美化、风景修饰还是创意合成，一键操作，瞬间提升照片质感，让你的每一张作品都令人惊艳。</t>
+  </si>
+  <si>
+    <t>Android,P图,编辑,解锁,高级</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/51f34ab7c345</t>
+  </si>
+  <si>
+    <t>54.6MB</t>
+  </si>
+  <si>
+    <t>2024-09-22T21:59:05+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/79135</t>
+  </si>
+  <si>
+    <t>PhotoDirector - 动态相片编辑 &amp; AI 照片编修 v19.6.0</t>
+  </si>
+  <si>
+    <t>PhotoDirector - 相片大师：动态相片编辑 &amp; AI 照片编修，最佳照片编辑器，全方位相片编辑功能，提升、美化照片，简单步骤让相片动起来！</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9f784b02c62a</t>
+  </si>
+  <si>
+    <t>2024-09-10T07:09:44+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/72605</t>
+  </si>
+  <si>
+    <t>PhotoRoom - 编辑照片和背景 v5.3.5</t>
+  </si>
+  <si>
+    <t>无需再成为摄影师或设计专家：有了Photoroom，您可以在几秒钟内将您的照片变成专业品质的图像。我们的魔法？该应用程序可以自动裁剪图片中的人物和物体。</t>
+  </si>
+  <si>
+    <t>破解,绿色,Android,软件,PhotoRoom</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c5c80ec5aca6</t>
+  </si>
+  <si>
+    <t>2024-09-21T22:59:33+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/79486</t>
+  </si>
+  <si>
+    <t>Pixelcut - AI照片编辑器 v0.8.6</t>
+  </si>
+  <si>
+    <t>Pixelcut 照片编辑器和图形设计师可帮助您在几秒钟内创建令人惊叹的图像。 Pixelcut 是一款一体化编辑器，它使用 AI 帮助您轻松创建图像。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3e6c49de3357</t>
+  </si>
+  <si>
+    <t>2024-09-10T17:24:36+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/85971</t>
+  </si>
+  <si>
+    <t>Pixiv v6.124.0汇聚了超多二次元原创及同人绘画作品投稿的平台</t>
+  </si>
+  <si>
+    <t>Pixiv是一个主要由日本艺术家所组成的虚拟社群应用，主体为 pixiv 插画艺术特化的社交网络服务网站。主要分享新兴的日本同人画、插画作品。每个参与者都有自己的主页并可以对作品评价打分。Pixiv 的特色在于作者会在里面放入分辨率很高的大图。不光有日本知名插画家，中国、韩国、美国……等国家的绘画高手也聚会于此互相交流。就算不懂日语，光是看画收集图片也是一种很令人高兴的事！</t>
+  </si>
+  <si>
+    <t>Android,绘画</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/bd44e8392c37</t>
+  </si>
+  <si>
+    <t>778.1MB</t>
+  </si>
+  <si>
+    <t>2024-09-23T00:16:12+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/79133</t>
+  </si>
+  <si>
+    <t>Polarr - 泼辣修图 v6.9.11</t>
+  </si>
+  <si>
+    <t>探索由全球泼辣创作者创作的数百万款泼辣滤镜，你也可以与朋友分享自己创建的滤镜。泼辣滤镜不是简单的静态滤镜，它除了可以编辑光效和色彩外，还可以包含自定义图层 、面部美化以及智能识别对象。泼辣滤镜同时可以应用于视频，只需下载泼辣24即可一键将泼辣滤镜应用于视频。使用泼辣滤镜，轻松传播你的个人美学。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f8cece44eb9f</t>
+  </si>
+  <si>
+    <t>2024-09-10T07:06:38+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/XiangxiuNB/29189</t>
+  </si>
+  <si>
+    <t>SD Maid SE v1.2.6安卓系统清理利器，一键释放存储空间</t>
+  </si>
+  <si>
+    <t>SD Maid SE 是一款强大的 Android 设备系统清理工具，能够帮助用户清理手机中不需要的文件和数据，提升设备性能并节省存储空间。它具备垃圾清理、文件浏览器、应用管理、系统清理和 SD 卡分析等功能。软件内置的功能强大的文件浏览器可以方便地浏览、复制、移动和删除文件。应用管理功能允许用户批量卸载、备份和还原应用程序，甚至禁用冻结应用程序。系统级清理功能可以清除系统日志、崩溃日志和错误报告。此外，SD Maid SE 提供了高度自定义的清理规则，确保不会误删重要文件。大部分功能无需 ROOT 权限即可使用，非常安全可靠。</t>
+  </si>
+  <si>
+    <t>SDMaid</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e4592a3caed4</t>
+  </si>
+  <si>
+    <t>7.8M</t>
+  </si>
+  <si>
+    <t>2024-09-17T08:13:21+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/70950</t>
+  </si>
+  <si>
+    <t>Snaptube - 视频下载器 v7.26.1.72672401</t>
+  </si>
+  <si>
+    <t>Snaptube是一款有着强大功能的可以直接下载视频，音乐，MV等资源的软件， 该软件中资源丰富，用户在这里是可以直接使用资源的，也可以免费下载。载任何音乐视频直接作为MP3格式文件，下载速度可观，轻松获得喜欢的音频资源，操作便捷简单，快速掌握软件使用技巧，资源高清优质，想要观看的影片一触即达，可以轻松下载。</t>
+  </si>
+  <si>
+    <t>破解,绿色,Android,软件,Snaptube</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6185a9e48ea5</t>
+  </si>
+  <si>
+    <t>2024-09-18T17:53:20+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/85408</t>
+  </si>
+  <si>
+    <t>VivaCut – 专业视频剪辑 v3.8.6</t>
+  </si>
+  <si>
+    <t>VivaCut是一款官方的专业视频剪辑软件， 拥有丰富、专业的视频剪辑工具和好莱坞级的视频编辑体验。 无论您是想制作好莱坞大片级电影，或是仅仅和朋友、家人一起分享回忆，Viva Cut都是您的最佳选择。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/90953bd6dd25</t>
+  </si>
+  <si>
+    <t>2024-09-21T23:11:25+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/70004</t>
+  </si>
+  <si>
+    <t>VLLO v10.7.8视频编辑器，背景颜色，转换效果，移动贴纸等，解锁付费版</t>
+  </si>
+  <si>
+    <t>VLLO是一款功能强大的视频编辑器，，用户可尽情享受其丰富功能支持自定义视频背景颜色，轻松调整至心仪色调；提供多种转换效果，如渐隐、推开等，让视频过渡自然流畅；还允许用户自由移动贴纸，实现个性化装饰。VLLO还支持视频剪辑、添加字幕、背景音乐等高级功能，满足用户专业创作需求，是视频制作爱好者的理想选择。</t>
+  </si>
+  <si>
+    <t>Android,视频,编辑,解锁,VLLO</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b3312aa72c97</t>
+  </si>
+  <si>
+    <t>2024-09-16T15:04:28+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/85395</t>
+  </si>
+  <si>
+    <t>Xodo佐道 – PDF阅读器&amp;编辑器 v9.4.3</t>
+  </si>
+  <si>
+    <t>佐道PDF阅读器（Xodo PDF Reader）是一个集PDF阅读和编辑功能于一身的全能PDF应用。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b56ce0bf084c</t>
+  </si>
+  <si>
+    <t>2024-09-21T17:00:41+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/70944</t>
+  </si>
+  <si>
+    <t>X-plore - 文件管理器 v4.39.02</t>
+  </si>
+  <si>
+    <t>这是一个双窗格资源管理器，同时显示两个文件夹，并且将文件复制等常见操作从一个窗格完成到另一个窗格。X-plore 在树视图中显示文件夹层次结构，以便清晰定位并快速切换到其他位置。</t>
+  </si>
+  <si>
+    <t>破解,绿色,Android,软件,X</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fd80cfd9f912</t>
+  </si>
+  <si>
+    <t>2024-09-18T17:18:32+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/95858</t>
+  </si>
+  <si>
+    <t>📈200套专业财务表格</t>
+  </si>
+  <si>
+    <t>📈200套专业财务表格，专为财务工作者精心设计，覆盖预算管理、成本控制、财务分析、税务筹划等多个财务领域。表格模板内容详尽，逻辑清晰，易于操作，能够有效提升财务工作效率，确保数据准确无误，助力企业实现精细化财务管理。</t>
+  </si>
+  <si>
+    <t>模板,财务,表格,Excel</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b5efa719365d</t>
+  </si>
+  <si>
+    <t>5.2MB</t>
+  </si>
+  <si>
+    <t>2024-10-11T17:13:55+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/71695</t>
+  </si>
+  <si>
+    <t>博树 v31.3.3Busuu语言学习，让语言学习变得更有趣，解锁高级版</t>
+  </si>
+  <si>
+    <t>博树 Busuu语言学习应用，将语言学习转化为趣味互动体验。通过丰富课程、个性化学习路径，让掌握新语言变得轻松高效。获得更多学习资源与深度评估，加速语言技能提升，让语言学习之旅更加精彩纷呈。</t>
+  </si>
+  <si>
+    <t>Android,外语,语言,博树</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/69509d606ae2</t>
+  </si>
+  <si>
+    <t>1.1GB</t>
+  </si>
+  <si>
+    <t>2024-09-20T05:59:54+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/82343</t>
+  </si>
+  <si>
+    <t>博学谷Android在线就业班</t>
+  </si>
+  <si>
+    <t>博学谷Android在线就业班是专为Android开发者设计的高质量课程，涵盖Android开发核心技术及实战项目，通过系统学习和实战演练，提升学员的Android开发能力并实现高薪就业。确保学员能够掌握扎实的知识和技能，快速适应市场需求，实现职业腾飞。</t>
+  </si>
+  <si>
+    <t>Android,就业班</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/db92588298fa</t>
+  </si>
+  <si>
+    <t>28.7GB</t>
+  </si>
+  <si>
+    <t>2024-09-15T16:27:26+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/81675</t>
+  </si>
+  <si>
+    <t>产品经理学习工作资料最全合集2024年各大机构最新版合集</t>
+  </si>
+  <si>
+    <t>专为产品经理量身打造，汇集了各大知名机构的最新课程和资料，涵盖了产品管理的各个方面，包括产品设计、用户体验、市场分析、项目管理等。无论是初学者还是资深产品经理，都能在这套资料中找到适合自己的学习内容。通过系统的学习和实践，您将掌握最新的行业动态和实战技巧，提升职业竞争力。</t>
+  </si>
+  <si>
+    <t>产品经理,付费,合集</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f56462f328cd</t>
+  </si>
+  <si>
+    <t>73GB</t>
+  </si>
+  <si>
+    <t>2024-10-12T01:40:23+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/75679</t>
+  </si>
+  <si>
+    <t>陈超-Android音视频图像处理NDK专家班（FFmpeg、OpenGLES、OpenCV）</t>
+  </si>
+  <si>
+    <t>陈超-Android音视频图像处理NDK专家班，专注于FFmpeg、OpenGLES、OpenCV等核心技术，通过实战课程深入讲解音视频处理与图像处理的原理与应用。课程由经验丰富的专家授课，涵盖从基础到进阶的全面内容，培养学员在Android音视频图像处理领域的专业能力。</t>
+  </si>
+  <si>
+    <t>安卓,音视频,OpenGL,OpenCV</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/45b2af5a1889</t>
+  </si>
+  <si>
+    <t>5.6GB</t>
+  </si>
+  <si>
+    <t>2024-09-03T16:43:23+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/70569</t>
+  </si>
+  <si>
+    <t>滴答清单 TickTick v7.3.1.2解锁高级版 强大的待办事项管理工具</t>
+  </si>
+  <si>
+    <t>TickTick Pro 是一款强大的待办事项和任务管理应用，支持无缝云端同步。无论是计划行程、做备忘录、与家庭成员分享购物清单还是与同事协作，TickTick 都能帮助您轻松完成并保持生活轨迹。此版本已解锁高级功能，支持更多清单和任务数量、多个提醒以及多人协作。</t>
+  </si>
+  <si>
+    <t>TickTick,任务管理,Android,解锁高级版,日程管理,滴答清单</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/620c38221604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50M  </t>
+  </si>
+  <si>
+    <t>2024-09-18T05:20:18+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/95888</t>
+  </si>
+  <si>
+    <t>抖音发行人风口玩法，一单30，日入3000【揭秘】</t>
+  </si>
+  <si>
+    <t>大家好，相信大家都听说过抖音游戏发行人计划，但是一般做视频的收益都低的离谱，今天给带来的项目是“抖音发行人风口玩法，一单30，日入3000+”，这个项目不需要去花冤枉钱也是我自己实操过的项目，只要跟着做，都能够单个视频变现3000+，通过第三方合规渠道去变现赚取差价，月入过万很轻松，一部手机即可操作，懒人或者小白轻松上手.下面是教程和准备好的全套资料。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/dd6622567977</t>
+  </si>
+  <si>
+    <t>2024-10-12T01:13:06+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/XiangxiuNB/26080</t>
+  </si>
+  <si>
+    <t>儿童有声读物《晚安妈妈睡前故事》</t>
+  </si>
+  <si>
+    <t>儿童益智有声读物，用好听的故事和有趣的情节陪伴孩子，让他们每个夜晚都有甜蜜的收获。</t>
+  </si>
+  <si>
+    <t>儿童教育,睡前故事,有声读物</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/937c88bd1bd8</t>
+  </si>
+  <si>
+    <t>1.3GB</t>
+  </si>
+  <si>
+    <t>2024-08-12T03:13:57+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/70500</t>
+  </si>
+  <si>
+    <t>高考真题库3.0.0完全免费的历年高考真题库</t>
+  </si>
+  <si>
+    <t>高考真题库是一款提供历年高考真题的 app，完全免费，无任何广告，无需注册登录。软件支持科目和省份选择，提供详细的解析功能，并支持题目保存。无论是考生复习还是教师教学，都非常实用。丰富的题库资源帮助学生更好地准备高考，提升应试能力。</t>
+  </si>
+  <si>
+    <t>高考真题库,教育,Android,历年真题,免费使用</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/64c1f2ba67b0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41M  </t>
+  </si>
+  <si>
+    <t>2024-09-18T02:39:58+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/XiangxiuNB/26238</t>
+  </si>
+  <si>
+    <t>葛剑雄讲中国史</t>
+  </si>
+  <si>
+    <t>历史学家、复旦大学教授葛剑雄讲述中国历史的血脉精神，在兴衰、传承与变迁中，寻找中国历史的源与流。</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/49ba30adb884</t>
+  </si>
+  <si>
+    <t>6.6GB</t>
+  </si>
+  <si>
+    <t>2024-08-14T07:04:50+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/81238</t>
+  </si>
+  <si>
+    <t>共生地球 v1.1.18高清卫星、外部测量、户外钓鱼地图，国产版谷歌地图</t>
+  </si>
+  <si>
+    <t>共生地球app作为国产版谷歌地图，集高清卫星影像、外部测量、户外钓鱼地图于一体。它依托54颗“吉林一号”卫星星座，提供全球高清遥感图源，支持地形地貌3D展示，并融合无人机航拍与全景图像，打造沉浸式地球探索体验。丰富的地理探索工具助力测绘规划，同时实时跟踪全球热点，赋能农业、公益及环境监测，是一款功能强大的地理信息应用。</t>
+  </si>
+  <si>
+    <t>Android,地图,地球,高清</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c29866177721</t>
+  </si>
+  <si>
+    <t>64.3MB</t>
+  </si>
+  <si>
+    <t>2024-09-13T16:15:14+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/95865</t>
+  </si>
+  <si>
+    <t>古诗文网 v3.6.6发表及获取古诗文相关资料，官方更新版_去广告版</t>
+  </si>
+  <si>
+    <t>古诗文网是一款专为古诗文爱好者打造的应用。它提供了丰富的古诗文资源，涵盖了古代诗词、古文及文学名篇等，让用户能够便捷地发表及获取相关资料。应用界面简洁，无广告干扰，搜索功能强大，支持原文朗读及拼音显示，让用户享受纯净的阅读体验。</t>
+  </si>
+  <si>
+    <t>Android,新版,古诗文</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3ac80e5668c0</t>
+  </si>
+  <si>
+    <t>795.7MB</t>
+  </si>
+  <si>
+    <t>2024-10-11T17:27:58+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/XiangxiuNB/29716</t>
+  </si>
+  <si>
+    <t>国中法律通识 v1.1.3学习法律知识，内含各种合同模板</t>
+  </si>
+  <si>
+    <t>国中法律通识是一款专注于法律知识学习与应用的手机软件。它涵盖了丰富的法律内容，包括民法、刑法等多个领域的知识。提供大量专业课程，以生动的案例和清晰的讲解，帮助用户理解抽象的法律概念。软件还内置多种实用工具和常用法律模板，方便用户快速撰写法律文件或解决具体问题。注意：文书模板和计算功能仅供参考，实际使用时请根据具体情况调整，复杂法律问题需咨询专业律师。</t>
+  </si>
+  <si>
+    <t>国中法律通识</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a5e2d7639fc1</t>
+  </si>
+  <si>
+    <t>39M</t>
+  </si>
+  <si>
+    <t>2024-09-23T16:20:57+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/79740</t>
+  </si>
+  <si>
+    <t>海阔视界 v8.58安卓浏览器，连刷微博、看知乎，强大观影神器</t>
+  </si>
+  <si>
+    <t>海阔视界强大观影工具，不光除了可以追剧，甚至连刷微博以及看知乎等，整个资源的分类也是超级详细的，可以方便你随时去搜索，海量的影视资源可以随时播放，还有热点直播以及资讯等，看知乎也是非常方便的，有些功能需要你手动的去安装操作的。</t>
+  </si>
+  <si>
+    <t>Android,浏览器,观影</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fd98428ef498</t>
+  </si>
+  <si>
+    <t>2024-09-11T10:30:37+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/95890</t>
+  </si>
+  <si>
+    <t>黑马38天短视频实战训练营</t>
+  </si>
+  <si>
+    <t>价值999元的黑马38天短视频实战训练营。
+通过本课程可以帮助学员快速掌握短视频制作与运营技巧。课程涵盖创意策划、拍摄剪辑、内容营销等实用技能，通过实战演练与案例分析，助力学员在短视频领域脱颖而出，实现个人品牌与商业价值的提升。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/482cf92dd030</t>
+  </si>
+  <si>
+    <t>2024-10-12T01:18:48+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/58093</t>
+  </si>
+  <si>
+    <t>黑神话悟空 四十二项修改器 v1.0</t>
+  </si>
+  <si>
+    <t>修改器界面简洁、体积小巧、功能强大，致力于为玩家提供便捷的游戏体验。玩家可根据个人喜好和需求，轻松调整游戏内的数值设定。</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>书籍,简史,商学院,零售</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/134bec1b2009</t>
-  </si>
-  <si>
-    <t>4.9MB</t>
-  </si>
-  <si>
-    <t>2024-10-10T14:17:39+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95275</t>
-  </si>
-  <si>
-    <t>《新零售的未来》 零售连锁巨头的进化之道</t>
-  </si>
-  <si>
-    <t>《新零售的未来：零售连锁巨头的进化之道》一书，深入剖析了新零售的兴起背景、发展趋势及零售连锁巨头的转型策略。书中通过丰富案例，展示了新零售在技术创新、消费者体验、供应链优化等方面的实践成果，为零售企业提供了转型升级的实战指南，揭示了未来零售行业的竞争格局与进化方向。</t>
-  </si>
-  <si>
-    <t>书籍,零售,商业</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/67ab7ef18f69</t>
-  </si>
-  <si>
-    <t>59.7MB</t>
-  </si>
-  <si>
-    <t>2024-10-10T14:15:09+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95662</t>
-  </si>
-  <si>
-    <t>《中国简史 (有声版) 》民国大师吕思勉国史经典</t>
-  </si>
-  <si>
-    <t>《中国简史》是史学大家吕思勉先生撰写的一部中国通史，从传说与考古印证的中华民族的由来，到吕思勉先生所处时代的革命中的中国，系统梳理历史的发展变化，并聚焦婚姻、族制、政体、阶级等专题，讲述中国社会生活的方方面面。</t>
-  </si>
-  <si>
-    <t>历史,有声读物</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/702c3047af3c</t>
-  </si>
-  <si>
-    <t>333.7MB</t>
-  </si>
-  <si>
-    <t>2024-10-11T08:24:44+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81213</t>
-  </si>
-  <si>
-    <t>【AI赋能内容创作】构建思维框架，精通工具运用，开启智能写作与爆文秘诀</t>
-  </si>
-  <si>
-    <t>AI赋能内容创作：构建思维框架，精通工具运用，开启智能写作与爆文秘诀 夸克网盘资源下载</t>
-  </si>
-  <si>
-    <t>AI,内容创作,写作,AI赋能内容创作</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/67b546b8f3f2</t>
-  </si>
-  <si>
-    <t>2.2GB</t>
-  </si>
-  <si>
-    <t>2024-10-11T01:53:18+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81216</t>
-  </si>
-  <si>
-    <t>【必备】女性护肤课，养出逆龄好肌肤</t>
-  </si>
-  <si>
-    <t>女性必备护肤课，带你轻松养出逆龄好肌肤(完结)</t>
-  </si>
-  <si>
-    <t>护肤,女性,女性必备护肤课,必备</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/81103f8e9d4b</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>2024-10-11T01:55:42+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95659</t>
-  </si>
-  <si>
-    <t>【创作者流量扶持计划】官方任务长期可靠，当天做就能有收益</t>
-  </si>
-  <si>
-    <t>创作者参与官方特定的游戏任务，
-官方会给你推流，获取流量，获取流量收益，
-因为平台流量大，人群广，所以收益非常可观!</t>
-  </si>
-  <si>
-    <t>创作者,扶持计划,兼职副业,网赚项目</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/19cf1f456019</t>
-  </si>
-  <si>
-    <t>577.1MB</t>
-  </si>
-  <si>
-    <t>2024-10-11T08:22:41+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81321</t>
-  </si>
-  <si>
-    <t>【抖音快手】每天发发表情包就能日入几张</t>
-  </si>
-  <si>
-    <t>这个项目主要是我i们通过抖音快手视频发布表情包的视频，然后吸引用户去小程序获取，我们就是通过用户开会员或者看广告获得的佣金</t>
-  </si>
-  <si>
-    <t>抖音,快手,表情包,兼职副业,网赚项目,抖音快手</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8f166e0026fa</t>
-  </si>
-  <si>
-    <t>2.8GB</t>
-  </si>
-  <si>
-    <t>2024-10-11T05:18:19+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81397</t>
-  </si>
-  <si>
-    <t>【靠美食图片就能日入100+】独家分享变现思路+制作流程保姆级教学</t>
-  </si>
-  <si>
-    <t>小众赛道，目前各大视频平台争相开用视频激励，非常卷， 我接下来讲的还属于小众赛道，座的人还不多，就是美食点评，流程收益非常的好 非常简单，作品文案让AI帮我们生成，对新手很友好，可以批量多做几个号</t>
-  </si>
-  <si>
-    <t>美食图片,变现,教学,兼职副业,网赚项目,靠美食图片就能日入100</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/393da49015c0</t>
-  </si>
-  <si>
-    <t>6.5GB</t>
-  </si>
-  <si>
-    <t>2024-10-11T08:28:42+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81324</t>
-  </si>
-  <si>
-    <t>【蓝海赛道科普知识类视频】一分钟一条， 广告+带货双份收益，轻松日入300+</t>
-  </si>
-  <si>
-    <t>相对于搞笑、影视类的视频，知识科普视频现在做的人比较少，起号快，去重操作简单，只需要无脑搬运就行，手机、电脑都可以操作，而且因为有模板的加持，基本不会浪费太多时间。人嘛都有好奇、求知的心理。通过人们对未知事物的求知欲望吸引人观看，科普素材非常广，基本不用担心没有题材可以使用。包括科学知识、生活小妙招、历史科普、冷知识，都可以多种渠道变现，这个课程也给大家分享了详细的实操教程，小白也能轻松上手</t>
-  </si>
-  <si>
-    <t>蓝海赛道,科普,视频,带货,兼职副业,蓝海赛道科普知识类视频</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1d078fb6bc84</t>
-  </si>
-  <si>
-    <t>862.2MB</t>
-  </si>
-  <si>
-    <t>2024-10-11T05:29:49+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81209</t>
-  </si>
-  <si>
-    <t>【携程图文搬砖每条作品几十】作品剪辑+如何找素材+文案一体式教学</t>
-  </si>
-  <si>
-    <t>我们通过其他平台寻找热门爆款图文，把图文变成我们自己的原创，通过携程入口app发布，只要有播放就会有收益。</t>
-  </si>
-  <si>
-    <t>图文,搬砖,剪辑,兼职副业,网赚项目,携程图文搬砖每条作品几十</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6494479c63c7</t>
-  </si>
-  <si>
-    <t>132.6MB</t>
-  </si>
-  <si>
-    <t>2024-10-11T01:49:12+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95423</t>
-  </si>
-  <si>
-    <t>【站酷学习】PS软件系统教程 - 带源码课件</t>
-  </si>
-  <si>
-    <t>通过本课程老师的讲解和多案例的实操，你能够熟练掌握PS软件的工具操作、组合运用各种工具来实现【风景调色、人像修图、创意海报合成、文字个性化排版】等技能，真正做到能够运用PS将脑海中的【创意视觉化呈现】~</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/7ea88e76c4ae</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>2024-10-11T00:11:21+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/zh_vip/2486</t>
-  </si>
-  <si>
-    <t>VIP资源共享</t>
-  </si>
-  <si>
-    <t>2024年芊墨风人物团练课第1期</t>
-  </si>
-  <si>
-    <t>下载链接：</t>
-  </si>
-  <si>
-    <t>美工修图</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/7506cac977e8</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>2024-10-09T04:23:59+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95291</t>
-  </si>
-  <si>
-    <t>B站炮长-高薪剪辑师IP实战班（2期）</t>
-  </si>
-  <si>
-    <t>高薪剪辑师IP实战班（2期）是一个为期100天的剪辑师实操班，帮助学员从零开始，全面掌握拍摄、剪辑、AI工具使用及运营编导等技能，成为全能型视频制作人。课程内容丰富，涵盖拍摄准备、相机与手机摄影技巧、曝光对焦控制、短视频选题及后期AE技能等，助力学员实现高薪就业或创业梦想。</t>
-  </si>
-  <si>
-    <t>B站,剪辑,实战,IP</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4d73e4a999d9</t>
-  </si>
-  <si>
-    <t>10.0GB</t>
-  </si>
-  <si>
-    <t>2024-10-10T14:28:31+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95414</t>
-  </si>
-  <si>
-    <t>艾宾浩斯记忆遗忘曲线复习计划</t>
-  </si>
-  <si>
-    <t>艾宾浩斯视频介绍
-艾宾浩斯表格(智能电子版)
-艾宾浩斯表格(可编辑可打印)
-日周月计划表 一些好用的表格</t>
-  </si>
-  <si>
-    <t>记忆</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/446c5cc886db</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>2024-10-10T22:46:36+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/zh_vip/2496</t>
-  </si>
-  <si>
-    <t>鹅七生菜可爱Q版人物团练</t>
-  </si>
-  <si>
-    <t>鹅七生菜可爱Q版人物团练课程专为喜爱绘画的学员设计，教授如何绘制Q版可爱人物。课程内容包括人物比例、表情制作、色彩应用等，通过实际操作和老师指导，学员将能够独立完成多样化的Q版人物创作。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/04549c583318</t>
-  </si>
-  <si>
-    <t>2024-10-11T06:57:47+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95290</t>
-  </si>
-  <si>
-    <t>高中语文必背40首古诗文标准朗诵MP3</t>
-  </si>
-  <si>
-    <t>高中语文必背40首古诗文标准朗诵MP3是一套包含了高中阶段学生必须掌握的古诗文朗诵音频资源。这些音频由专业朗诵者录制，发音标准，情感充沛，有助于学生更好地理解和记忆古诗文。具体包含的篇目可能因版本和地区而有所不同，但通常包括如《劝学》、《逍遥游》、《赤壁赋》、《氓》、《蜀道难》、《登高》、《琵琶行》等经典篇目。</t>
-  </si>
-  <si>
-    <t>语文,高中,必背,古诗文,MP3</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d43678806674</t>
-  </si>
-  <si>
-    <t>88.5MB</t>
-  </si>
-  <si>
-    <t>2024-10-10T14:26:34+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/XiangxiuNB/32852</t>
-  </si>
-  <si>
-    <t>肯德基 4K影视发布频道🍟</t>
-  </si>
-  <si>
-    <t>韩江作品集</t>
-  </si>
-  <si>
-    <t>2024 诺贝尔文学奖得主韩江
-素食者
-失语者
-不做告别
-植物妻子
-白
-把晚餐放进抽屉</t>
-  </si>
-  <si>
-    <t>文学,诺贝尔,韩江,小说,韩江作品集</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/652f797975db</t>
-  </si>
-  <si>
-    <t>10M</t>
-  </si>
-  <si>
-    <t>2024-10-11T07:40:15+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81203</t>
-  </si>
-  <si>
-    <t>寂静岭2修改器</t>
-  </si>
-  <si>
-    <t>16项修改器</t>
-  </si>
-  <si>
-    <t>寂静岭2,修改器,寂静岭2修改器</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/73088d21cd73</t>
-  </si>
-  <si>
-    <t>878K</t>
-  </si>
-  <si>
-    <t>2024-10-11T01:07:43+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81210</t>
-  </si>
-  <si>
-    <t>剪映后期剪辑视频-零基础入门到精通</t>
-  </si>
-  <si>
-    <t>全书包含15章内容，第1章~第7章主要剪映APP的剪辑和调色功能及其应用方法，包括基础入门、视频剪辑、后期滤镜、添加文字和音频、相册效果、综合案例等内容；第8章~第15章则主要用剪映专业版，结合之前讲解的剪映功能，为读者介绍了视频剪辑思路和调色技巧。</t>
-  </si>
-  <si>
-    <t>剪映,剪辑,图书,剪映视频后期剪辑,剪映后期剪辑视频</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5b2b55030eba</t>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
-    <t>2024-10-11T01:50:47+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95644</t>
-  </si>
-  <si>
-    <t>绝版资源  迈克尔杰克逊演唱会超清合集</t>
-  </si>
-  <si>
-    <t>《绝版资源：迈克尔杰克逊演唱会超清合集》是一套珍贵的音乐视频资源，汇集了迈克尔·杰克逊自1980年代至2000年代的多场经典演唱会。这些演唱会经过高清修复，画质清晰，音效震撼，完美再现了这位流行音乐之王的巅峰时刻。每一场演出都充满了迈克尔·杰克逊标志性的舞步、动人的歌声和无与伦比的舞台魅力。对于音乐爱好者和迈克尔·杰克逊的粉丝来说，这套合集不仅是一次视觉和听觉的盛宴，更是一段不可多得的珍贵回忆。</t>
-  </si>
-  <si>
-    <t>迈克尔杰克逊,演唱会,合集,超清,绝版资源</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e9240de3ecf2</t>
-  </si>
-  <si>
-    <t>28.8GB</t>
-  </si>
-  <si>
-    <t>2024-10-11T08:02:58+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81323</t>
-  </si>
-  <si>
-    <t>快速上手，【小红书简单售卖PPT】当日变现1k，就靠它</t>
-  </si>
-  <si>
-    <t>大家好，今天给大家推荐一个全新的项目，轻松上手，ppt简单售卖，月入2w+，小白闭眼也要做。项目逻辑非常简单，注册一个小红书和抖音账号，利用平台优势，种草引流。发布免费ppt钩子，将精准粉丝引流到群聊私域，进一步引流到微信，顺利成交。简单易上手，首选!</t>
-  </si>
-  <si>
-    <t>小红书,PPT,副业,兼职,快速上手</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/2ad99253ac33</t>
-  </si>
-  <si>
-    <t>426.8MB</t>
-  </si>
-  <si>
-    <t>2024-10-11T05:24:16+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95424</t>
-  </si>
-  <si>
-    <t>乐魔AE游戏UI动效多风格培训</t>
-  </si>
-  <si>
-    <t>乐魔AE游戏UI动效多风格培训课程专为游戏设计师和动效师设计，教授使用Adobe After Effects制作游戏UI动效的技巧。课程涵盖多种风格的动效设计，通过实际案例分析和操作练习，提升学员的创意表达和技术实现能力。</t>
-  </si>
-  <si>
-    <t>其他教程</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/86432a7ebfc1</t>
-  </si>
-  <si>
-    <t>2024-10-11T00:18:34+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/XiangxiuNB/32788</t>
-  </si>
-  <si>
-    <t>狸清照老照片修复增强</t>
-  </si>
-  <si>
-    <t>先进的AI图像生成技术，狸清照让您的回忆不再模糊。无论是发黄的老照片，旧设备拍摄的旧照片，或是网络传播的低分辨率画质图片，狸清照都可以轻松修复，一键还原为现在高清图片！此外，狸清照还是一款AI驱动的黑白照片上色器，可以为您的黑白照片一键上色，使它们看起来更惊艳。快来下载享受前沿AI图像技术带来的便利和乐趣！功能：•修复模糊的老照片，转换为高清照片，还原你我当年的高清照片•一键智能为黑白照片上色，还原当时场景•增强使用旧相机或手机拍摄的旧照片，就像用新手机或相机进行拍摄•拯救压缩，损坏或低分辨率的旧照片，让照片恢复昔日的光彩</t>
-  </si>
-  <si>
-    <t>AI绘画上色老照片</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/9e8d37bc22fb</t>
-  </si>
-  <si>
-    <t>40MB</t>
-  </si>
-  <si>
-    <t>2024-10-11T02:05:26+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/XiangxiuNB/32815</t>
-  </si>
-  <si>
-    <t>李梦娇公基金榜3000题</t>
-  </si>
-  <si>
-    <t>事业单位公共基础学习资料，名师必刷题系列。按需学习。</t>
-  </si>
-  <si>
-    <t>公考,公基</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/eee657a1d0d1</t>
-  </si>
-  <si>
-    <t>2024-10-11T02:39:20+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81306</t>
-  </si>
-  <si>
-    <t>理性的边界 [人文社科] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>我们对世界了解得越多，对自己所不知道的东西就越清楚，发现可能之局限的方式，就是比可能走得更远！一本比肩《世界观》和《为什么》的科学哲学通识，探索科学的极限，挑战人类对宇宙、理性和自我的根深蒂固的信念。欧洲数学学会、得克萨斯大学哲学系、麦吉尔大学计算机系、伯尔尼大学哲学研究所推荐阅读！————————————————————————————————————————从亚里士多德、牛顿到爱因斯坦、玻尔，科学的每一次进步，都源自科学家对人类知识极限的不断探索，对客观、理性和自我的深刻问题的一次次挑战。有许多书解释了人类已知的科学，而这本书则聚焦于我们不知道的知识。...</t>
-  </si>
-  <si>
-    <t>人文社科,电子书,图书,pdf,epub,理性的边界</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/f70d7e48f8a7</t>
-  </si>
-  <si>
-    <t>2024-10-11T04:47:16+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/XiangxiuNB/32792</t>
-  </si>
-  <si>
-    <t>棉花音乐 v1.41.2｜支持百度_阿里云盘的多功能音乐播放器</t>
-  </si>
-  <si>
-    <t>棉花音乐是一款简洁的本地及网盘音乐播放器，支持本地歌曲、百度网盘、阿里云盘、WebDAV、Google Drive、OneDrive、Dropbox等网盘歌曲播放，支持 Plex、Emby、Jellyfin、Subsonic 媒体服务器。同时支持 Android、Windows、Mac、Linux 平台。主要功能包括播放历史记录、支持创建歌单、多样化的播放器主题等。安装后打开软件，选择所需播放的歌曲来源（本地或网盘），并开始播放。</t>
-  </si>
-  <si>
-    <t>棉花音乐,音乐播放器,Android,本地音乐,网盘歌曲</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8bb13ea670bd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13M  </t>
-  </si>
-  <si>
-    <t>2024-10-11T02:05:27+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95293</t>
-  </si>
-  <si>
-    <t>明朝那些事儿（图文增补版）（共九册） [套装合集] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>当年明月著的《明朝那些事儿》是迄今为止唯一全本白话正说明朝大历史，是新中国成立60多年来最畅销的史学读本。本书主要讲述的是从1344年到1644年这三百年间关于明朝的一些事情，以史料为基础，以年代和具体人物为主线，并加入了小说的笔法，对明朝十七帝和其他王公权贵和小人物的命运进行全景展示，尤其对官场政治、战争、帝王心术着墨最多，并加入对当时政治经济制度、人伦道德的演义。本书荣获“新浪图书风云榜”最佳图书、当当网“终身五星级最佳图书”，多次斩获“卓越亚马逊畅销书大奖”。★2009年读者最喜爱的24本书★2010年中国图书馆借阅量排行TOP10</t>
+    <t>PC游戏,黑神话悟空,辅助工具</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d3387edae35f</t>
+  </si>
+  <si>
+    <t>1MB</t>
+  </si>
+  <si>
+    <t>2024-08-22T08:11:46+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/81768</t>
+  </si>
+  <si>
+    <t>华为访谈录 [经济管理] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>华为是如何发展到今天的？任正非是一个怎样的人？关于这两个问题，有各种各样的来自各个方面的解答，唯独华为人自己的声音不是很多。华为公司顾问田涛在2013年至2019年6年时间内，对华为上至高层下至普通员工共几百人进行了访谈，《华为访谈录》是这些访谈的第一部结集成果。...</t>
+  </si>
+  <si>
+    <t>经济管理,电子书,图书,pdf,epub,华为访谈录</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/95ded78cfefc</t>
+  </si>
+  <si>
+    <t>2024-10-12T04:47:41+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/XiangxiuNB/32973</t>
+  </si>
+  <si>
+    <t>黄夫人《高考物理一轮复习视频课》</t>
+  </si>
+  <si>
+    <t>紧跟讲义，包括运动学、电学实验、曲线运动、万有引力等，十分适合高中物理成绩不好的同学学习。</t>
+  </si>
+  <si>
+    <t>高中,物理</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/638faa3c2d5f</t>
+  </si>
+  <si>
+    <t>13.8GB</t>
+  </si>
+  <si>
+    <t>2024-10-12T01:50:35+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/95853</t>
+  </si>
+  <si>
+    <t>极客时间-python进阶训练营</t>
+  </si>
+  <si>
+    <t>《极客时间-Python进阶训练营》是一个系统性的在线学习课程，帮助学员深入掌握Python编程语言。课程覆盖Python高级特性、数据结构、算法优化、并发编程、网络编程、Web开发等核心内容，通过实战项目与代码挑战，提升学员的编程能力和解决问题的能力，助力学员在Python开发领域取得更大的进步。</t>
+  </si>
+  <si>
+    <t>极客时间,python</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/271650559336</t>
+  </si>
+  <si>
+    <t>10.2GB</t>
+  </si>
+  <si>
+    <t>2024-10-11T17:07:17+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/95856</t>
+  </si>
+  <si>
+    <t>极客时间-彭婧田 - TensorFlow 快速入门与实战</t>
+  </si>
+  <si>
+    <t>《极客时间-彭婧田-TensorFlow快速入门与实战》是一门视频课程，由TensorFlow官方认证讲师彭婧田主讲。课程从TensorFlow基础入门，逐步深入到神经网络模型构建、模型训练与优化、实战项目应用等，帮助学员快速掌握TensorFlow框架，具备进行深度学习模型开发与应用的能力。</t>
+  </si>
+  <si>
+    <t>极客时间,TensorFlow,实战</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/aefc51c0cf8c</t>
+  </si>
+  <si>
+    <t>14.0GB</t>
+  </si>
+  <si>
+    <t>2024-10-11T17:12:02+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/85307</t>
+  </si>
+  <si>
+    <t>极客学院安卓Android全套视频教程+源码</t>
+  </si>
+  <si>
+    <t>极客学院安卓Android全套视频教程+源码是一套全面覆盖Android开发从基础到进阶的实战课程。通过系统视频讲解，结合丰富的项目实战案例，深入浅出地教授Android应用开发技术，包括UI设计、控件使用、Activity与Fragment管理、网络编程、数据存储、多媒体处理及性能优化等。附带完整源码，帮助学习者边学边练，快速掌握Android开发技能，实现从零到精通的飞跃。</t>
+  </si>
+  <si>
+    <t>安卓,开发,编程</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5dfb1da759d3</t>
+  </si>
+  <si>
+    <t>17.2GB</t>
+  </si>
+  <si>
+    <t>2024-09-21T14:09:41+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/67087</t>
+  </si>
+  <si>
+    <t>开发助手 v8.1.0快速调试应用开发助手，查看手机软硬件相关信息</t>
+  </si>
+  <si>
+    <t>开发助手是一个强大的Android开发工具，能够用来反编译其他应用、查看其他应用布局和控件信息、屏幕取色(颜色取样器)、查看Activity历史记录、查看应用Manifest、查看最近使用和最近安装的应用、提取任何应用Apk和So文件、查看开源项目、调试应用、查看手机软硬件信息等。</t>
+  </si>
+  <si>
+    <t>Android,开发,调试,硬件,开发助手</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ad0625f3d73a</t>
+  </si>
+  <si>
+    <t>98.6MB</t>
+  </si>
+  <si>
+    <t>2024-09-11T10:01:58+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/84352</t>
+  </si>
+  <si>
+    <t>拷贝漫画 v2.2.3免费阅读大量的漫画，手机看番神器，去广告版</t>
+  </si>
+  <si>
+    <t>一个漫画阅读器，允许用户免费阅读大量的漫画。它可以向网络上的用户复制大量的卡通资源。因此，用户可以在这里得到他们喜欢的漫画，甚至是那些非常冷门的漫画，也很容易得到。</t>
+  </si>
+  <si>
+    <t>Android,阅读,漫画</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c42b4c58898c</t>
+  </si>
+  <si>
+    <t>385.8MB</t>
+  </si>
+  <si>
+    <t>2024-09-19T19:04:03+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/73598</t>
+  </si>
+  <si>
+    <t>可乐下载器 v2.0.4一款好用的磁力解析下载工具，会员解锁版</t>
+  </si>
+  <si>
+    <t>可乐下载器是一款高效磁力解析下载利器，开放高级功能，支持多源下载，加速技术确保文件快速到手。界面简洁直观，操作流畅，轻松管理下载任务。满足用户各类资源下载需求，是磁力链接下载的不二之选。</t>
+  </si>
+  <si>
+    <t>Android,磁力,下载,工具,可乐下载器</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/bc73a3d441b4</t>
+  </si>
+  <si>
+    <t>48.2MB</t>
+  </si>
+  <si>
+    <t>2024-09-23T16:50:03+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/81776</t>
+  </si>
+  <si>
+    <t>口述历史开创者：唐德刚经典作品集.2（共6册） [套装合集] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>本套书是海内外公认的史学大家唐德刚经典作品的合集，包含《从晚清到民国》《书缘与人缘》《史学与红学》《胡适杂忆》《历史的三峡》六部作品。内容涉及中国近代史上的众多历史事件和人物，史料丰富，文笔洒脱，题材稀缺，弥足珍贵，是了解中国近代史绕不过去的经典。《从晚清到民国》：曲折动荡的长江三峡，是中国人的骄傲，也是中国自然史上的潮信地带。鸦片战争，揭开了十九世纪开始的中国两千年一遇的“社会文化大转型”现象的序幕。在史学大家唐德刚的慧眼中，“人文史观”一如“自然史观”，1840年的一场战争不仅掀起了中国社会政治形态的大变革，也使历史长河须历经百年的诡谲动荡，方能通过三峡进入壮阔的太平洋。...</t>
+  </si>
+  <si>
+    <t>套装合集,电子书,图书,pdf,epub,口述历史开创者</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b307c1310db8</t>
+  </si>
+  <si>
+    <t>2024-10-12T05:02:29+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/70433</t>
+  </si>
+  <si>
+    <t>酷漫熊 v1.0.2免费漫画神器，去广告纯净版</t>
+  </si>
+  <si>
+    <t>酷漫熊是一款免费的漫画阅读神器，提供去广告纯净版体验。汇聚海量热门漫画资源，界面简洁友好，加载迅速，阅读流畅。支持多种阅读模式与个性化设置，满足不同用户的阅读需求，是漫画爱好者的理想选择。</t>
+  </si>
+  <si>
+    <t>Android,漫画,纯净版,酷漫熊</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3b0aa45ee162</t>
+  </si>
+  <si>
+    <t>33.6MB</t>
+  </si>
+  <si>
+    <t>2024-09-17T15:33:57+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/XiangxiuNB/32986</t>
+  </si>
+  <si>
+    <t>快手汤老师英语课程合集</t>
+  </si>
+  <si>
+    <t>包括自然拼读、高级发音技巧、语法课精讲等内容，帮助你系统提升英语学习能力。</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c51e889b8f6e</t>
+  </si>
+  <si>
+    <t>124GB</t>
+  </si>
+  <si>
+    <t>2024-10-12T02:10:45+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/81242</t>
+  </si>
+  <si>
+    <t>快影 v6.61.0.661002快影强大的视频编辑功能软件，去广告去水印版</t>
+  </si>
+  <si>
+    <t>快影v6.54.0.654002是一款功能强大的视频编辑软件，专为追求高效与创意的视频制作者打造。去广告去水印版让用户享受纯净编辑体验，无干扰地发挥创意。软件提供丰富的剪辑工具、滤镜特效及字幕模板，支持多轨道编辑、智能剪辑等功能，让视频制作更加专业、便捷。无论是短视频还是长片，快影都能助您轻松打造精彩作品。</t>
+  </si>
+  <si>
+    <t>Android,编辑,软件,视频</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5d6ec6ad984c</t>
+  </si>
+  <si>
+    <t>2.1GB</t>
+  </si>
+  <si>
+    <t>2024-09-13T16:20:58+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/95859</t>
+  </si>
+  <si>
+    <t>厉老师1-6年级系统数学思维提升课</t>
+  </si>
+  <si>
+    <t>厉老师1-6年级系统数学思维提升课是一套全面而深入的数学课程，专为小学1至6年级的学生设计。厉老师凭借其丰富的教学经验和深厚的数学功底，将抽象的数学概念转化为生动有趣的实例，帮助学生轻松掌握数学知识。课程系统性强，从基础知识讲起，逐步引入更高级的数学概念，构建完整的数学思维体系。</t>
+  </si>
+  <si>
+    <t>数学,小学,提升</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3a8fd8ae2051</t>
+  </si>
+  <si>
+    <t>52.8GB</t>
+  </si>
+  <si>
+    <t>2024-10-11T17:15:01+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/XiangxiuNB/29717</t>
+  </si>
+  <si>
+    <t>聆韵听书1.0.7去广告版，免费听书，界面美观，资源丰富</t>
+  </si>
+  <si>
+    <t>聆韵听书是一款免费听书软件，提供众多丰富、优质的有声书资源，让你一键播放听小说，随时沉浸在精彩的故事中。软件收录了全网热门书源，涵盖相声评书、小说、音乐、儿童等分类，你想听的都能搜到。目前无广告，体验非常不错。</t>
+  </si>
+  <si>
+    <t>聆韵听书</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/df62b77cc8c8</t>
+  </si>
+  <si>
+    <t>28M</t>
+  </si>
+  <si>
+    <t>2024-09-23T16:21:00+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/95860</t>
+  </si>
+  <si>
+    <t>马士兵教育-PostgreSQL关系型数据库（分章节版）</t>
+  </si>
+  <si>
+    <t>马士兵教育-PostgreSQL关系型数据库（分章节版）是马士兵教育官网推出的课程，系统介绍了PostgreSQL这一功能强大的开源数据库系统。课程涵盖了PostgreSQL的特点、安装配置、基本操作、数据类型、图形化界面操作等内容，帮助学员快速掌握PostgreSQL的使用和开发技巧，提升数据库管理和应用能力。</t>
+  </si>
+  <si>
+    <t>数据库,PostgreSQL,编程</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d72e7a5ffe64</t>
+  </si>
+  <si>
+    <t>3.4GB</t>
+  </si>
+  <si>
+    <t>2024-10-11T17:22:06+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/66005</t>
+  </si>
+  <si>
+    <t>美图设计室 v6.5.10商业设计利器，海报、商品图处理，消除、智能抠图，解锁会员版</t>
+  </si>
+  <si>
+    <t>美图设计室作为商业设计的强大工具，集海报设计、商品图精修于一体，支持消除瑕疵与智能抠图功能，轻松打造专业级视觉效果。解锁会员版后，尽享无限创意素材与高级编辑权限，助力设计师高效完成创意作品。</t>
+  </si>
+  <si>
+    <t>Android,解锁,海报,会员,设计,商业,美图设计室</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/060ae2fe25f5</t>
+  </si>
+  <si>
+    <t>2.7GB</t>
+  </si>
+  <si>
+    <t>2024-09-09T06:43:08+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/zh_vip/2471</t>
+  </si>
+  <si>
+    <t>摩吉影像全能婚礼创作社区2.0</t>
+  </si>
+  <si>
+    <t>摄影剪辑</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/31b3228bd48c</t>
+  </si>
+  <si>
+    <t>2024-10-06T23:24:36+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/84403</t>
+  </si>
+  <si>
+    <t>墨迹天气 v9.0878.02提供穿衣和出行建议，去广告解锁会员版</t>
+  </si>
+  <si>
+    <t>墨迹天气app，精准预报为您量身打造穿衣与出行建议。实时天气数据，全面生活指数，让您轻松应对天气变化，出行无忧，生活更精彩。</t>
+  </si>
+  <si>
+    <t>Android,天气</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6f4eda5a9dfd</t>
+  </si>
+  <si>
+    <t>3.1GB</t>
+  </si>
+  <si>
+    <t>2024-09-20T02:05:54+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/81779</t>
+  </si>
+  <si>
+    <t>普通人快速逆袭的26堂必修课  《超级演说家》全国总冠军亲授</t>
+  </si>
+  <si>
+    <t>《普通人快速逆袭的26堂必修课》是由《超级演说家》全国总冠军刘媛媛亲授的一套实用课程。这套课程旨在帮助普通人通过系统的学习和实践，实现快速逆袭，取得人生的成功。
+刘媛媛以自身从农村考上北大、成为演讲冠军、创办公司的经历为例，分享了她在学习、演讲、职业发展等方面的宝贵经验。课程内容涵盖了学习方法、时间管理、演讲技巧、职业规划等多个方面，提供了具体的策略和实用的技巧，帮助学员提升个人能力，突破自我限制。</t>
+  </si>
+  <si>
+    <t>付费,逆袭,刘媛媛</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6864b5eb592a</t>
+  </si>
+  <si>
+    <t>2024-10-12T05:08:43+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96004</t>
+  </si>
+  <si>
+    <t>儒学新论 [人文社科] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>为黑龙江大学“龙江哲学研究丛书”一本。本书从人物研究、概念研究、比较研究、宏观研究四个方面展现儒学的发展与构成，展现儒学发展的契机和出路。1.人物研究：儒学是由不同时期的儒学人物建构的，对儒家的人物思想的把握对于理解儒学不可或缺。本研究以儒学人物为个案，将孔子、孟子、荀子、董仲舒、韩愈、二程、张载、朱熹、陆九渊、王守仁、王夫之、颜渊、戴震和康有为等儒家人物纳入研究视野。2.概念研究：儒家哲学具有自身的逻辑系统和话语结构，这些离不开概念、范畴。厘清基本概念、主要范畴对于理解儒学的哲学理念和基本主张是必要的，也是基础性的。诸多关于儒学问题的争议即缘于此，本研究旨在通过这方面的研究还原儒学的本义。...</t>
+  </si>
+  <si>
+    <t>人文社科,电子书,图书,pdf,epub</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/32659d43b83d</t>
+  </si>
+  <si>
+    <t>2024-10-12T04:31:24+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/61619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入梦AI变声器：免费AI实时变声器 </t>
+  </si>
+  <si>
+    <t>入梦AI变声器是一款免费的支持Windows、Android和iOS多平台的实时变声软件，专为游戏直播和聊天设计。软件提供超过250种高品质变声模型，允许用户随意切换男女声并自定义细致的参数调整，支持上传模型来定制专属你自己的声音。</t>
+  </si>
+  <si>
+    <t>软件,AI,AI变声器,免费AI实时变声,入梦AI变声器</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/95cd62a00209</t>
+  </si>
+  <si>
+    <t>6.3GB</t>
+  </si>
+  <si>
+    <t>2024-08-30T16:07:19+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/70096</t>
+  </si>
+  <si>
+    <t>扫描全能王 v6.72.5.2409050000智能扫描的领导者，解锁高级版</t>
+  </si>
+  <si>
+    <t>CamScanner，全球智能扫描的领导者。扫一扫是一款集文档扫描识别翻译、图片文字提取识别、PDF文档编辑、PDF加密、PDF转Word文档、文档防盗、电子签名等功能为一体的多功能智能扫描软件。 OCR识别，自动扫描，自动修边，图片美化，高清扫描，扫描文档一键转换成Word/Excel/PPT等格式，通过文档共享协同，多设备同步查看平台，支持全球无线打印、传真。</t>
+  </si>
+  <si>
+    <t>Android,扫描全能王,全能,解锁,高级</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/862602210831</t>
+  </si>
+  <si>
+    <t>5.0GB</t>
+  </si>
+  <si>
+    <t>2024-09-17T01:57:17+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/95885</t>
+  </si>
+  <si>
+    <t>视频号人性玩法，让你起号，广告双份收入，副业好选择【揭秘】</t>
+  </si>
+  <si>
+    <t>解锁视频号新玩法，探索人性共鸣的奥秘!在这里，不仅让你的视频号快速起号，还能轻松实现广告双份收入，副业之路从此畅通无阻!我们教你如何精准捕捉观众情感，打造引人入胜的内容，让每一次发布都成为引爆流量的火花。无需复杂技巧，只需深入理解人性，你就能在这个视频时代脱颖而出，成为广告商争相合作的热门KOL。别让机会擦肩而过，加入我们，一起开启视频号的人性化盈利之旅，让副业比主业更闪耀!</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2a52d9f5753d</t>
+  </si>
+  <si>
+    <t>2024-10-12T01:08:53+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/70427</t>
+  </si>
+  <si>
+    <t>速度下载 v1.0.8聚合解析下载支持短视频解析下载，去广告纯净版</t>
+  </si>
+  <si>
+    <t>速度下载App提供了56种资源下载，包括了各种磁力、直链、种子、网盘、无损音乐、壁纸、短视频，甚至还提供了视频剪辑等等，功能完全超乎想象。</t>
+  </si>
+  <si>
+    <t>Android,聚合解析,下载,速度下载</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3b252c045535</t>
+  </si>
+  <si>
+    <t>289.2MB</t>
+  </si>
+  <si>
+    <t>2024-09-17T14:58:01+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/95889</t>
+  </si>
+  <si>
+    <t>淘宝无人直播最新玩法，九月测试十月外放，不出镜零粉丝零保证金，24小时无值守，新手1-3天必见收益【揭秘】</t>
+  </si>
+  <si>
+    <t>淘宝无人直播躺赚项目10月份正式外放，团队经过九月份一个月的测试更新，推出了最新玩法
+优点：
+1、无需真人出镜，即可开启无人直播，大幅度节省成本时间；
+2、最新玩法基本上可以无违规，无封号；
+3、无粉丝要求，无需保证金，真正零门槛创业；
+4、新手开播1-3天必见收益。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3564c99e191c</t>
+  </si>
+  <si>
+    <t>2024-10-12T01:14:56+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/95862</t>
+  </si>
+  <si>
+    <t>王慧志硬笔书法课程</t>
+  </si>
+  <si>
+    <t>王慧志的硬笔书法课程是一套针对硬笔书法学习的系统教程。该课程由王慧志老师主讲，他不仅是华南师范大学《硬笔书法》的主讲老师，还是中国硬笔书法协会的会员，具备丰富的书法教学经验和深厚的书法功底。  在课程中，王慧志老师从基础的握笔姿势、基本笔画讲起，深入剖析了八大基本笔画的写法，并通过即时书写的方式，在镜头前清晰、直观地为观众展示笔画的形状、节奏和角度，使学习者能够直观地理解和掌握硬笔书法的精髓。</t>
+  </si>
+  <si>
+    <t>硬笔,书法</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/76e3917afd93</t>
+  </si>
+  <si>
+    <t>26.1GB</t>
+  </si>
+  <si>
+    <t>2024-10-11T17:25:34+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/70102</t>
+  </si>
+  <si>
+    <t>网易有道词典 v10.1.4免费的全能翻译软件，去广告解锁会员版</t>
+  </si>
+  <si>
+    <t>网易有道词典是一款免费的全能翻译软件，功能强大。支持超过109种语言翻译，满足多种场景需求。软件内置多部权威词典，词库丰富，查词快又准。同时，支持拍照翻译、语音翻译、对话翻译等多种输入方式，让翻译更加便捷。网易有道词典还具备离线翻译功能，没有网络也能轻松查询。此次版本更新还带来了首页改版和AI升级，新增了20+AI功能，如全科答疑、写作神器、论文润色等，让用户体验更加清爽和智能。</t>
+  </si>
+  <si>
+    <t>Android,网易,词典,网易有道词典</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5d9886be59aa</t>
+  </si>
+  <si>
+    <t>111.5MB</t>
+  </si>
+  <si>
+    <t>2024-09-17T02:08:20+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/73596</t>
+  </si>
+  <si>
+    <t>微鲤万年历 v9.2.9原“中华万年历日历”，去广告解锁高级版</t>
+  </si>
+  <si>
+    <t>旧貌换新颜，中华万年历品牌全新升级为「微鲤万年历」。日历、日程、天气、记事、提醒，功能全，体积小、速度快、口碑好，我们还是那个3亿华人共同选择的中华万年历，依旧为新老历友们免费提供云服务，全球用户数量领先的跨平台日历APP，让时光充满乐趣！</t>
+  </si>
+  <si>
+    <t>Android,万年历,解锁,高级,微鲤万年历</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/625d54c72fb4</t>
+  </si>
+  <si>
+    <t>582.6MB</t>
+  </si>
+  <si>
+    <t>2024-09-23T16:46:36+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/68140</t>
+  </si>
+  <si>
+    <t>悟空下载 v1.2.0超好用的磁力下载工具，免费无广告，解锁会员版</t>
+  </si>
+  <si>
+    <t>悟空下载是一款极致体验的磁力下载神器，免费且无广告。解锁会员版特权，畅享高速下载与全面功能，轻松应对各类磁力链接，让资源获取变得简单高效。界面清爽，操作便捷，是您不可多得的下载好帮手。</t>
+  </si>
+  <si>
+    <t>Android,磁力,免费,下载,工具,悟空下载</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2822d7339d4f</t>
+  </si>
+  <si>
+    <t>657.1MB</t>
+  </si>
+  <si>
+    <t>2024-09-13T05:47:40+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/79582</t>
+  </si>
+  <si>
+    <t>相机360v9.9.42专门为需要美颜相机的小伙伴准备的软件，解锁高级版</t>
+  </si>
+  <si>
+    <t>相机360，美颜相机界的佼佼者，专为追求极致美颜效果的你打造。尽享海量滤镜、贴纸、特效及专业编辑工具，轻松拍出杂志封面级大片。实时美颜技术，自然细腻，让你的每一张照片都焕发光彩。</t>
+  </si>
+  <si>
+    <t>Android,相机,美颜</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/151750edb2d7</t>
+  </si>
+  <si>
+    <t>1.0GB</t>
+  </si>
+  <si>
+    <t>2024-09-11T04:14:22+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/80072</t>
+  </si>
+  <si>
+    <t>小红书 v8.52.0去除各种广告，加强、内置各种高级功能，内置红薯猪手模块</t>
+  </si>
+  <si>
+    <t>小红书是一款功能强大的生活分享平台应用，该版本去除了各类广告，提升了用户体验。它加强了内部功能，并内置了多种高级特性，包括红薯猪手模块，为用户提供更便捷、高效的操作体验。红薯猪手模块可能包含去水印下载、视频全屏沉浸、长按快进等实用功能，让用户能够更自由地浏览和分享内容。小红书app致力于打造一个更加纯净、高效的生活分享社区。</t>
+  </si>
+  <si>
+    <t>Android,小红书,去广告</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6886d036976d</t>
+  </si>
+  <si>
+    <t>2024-09-12T02:10:00+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/81515</t>
+  </si>
+  <si>
+    <t>小红书养号秘籍，如何自动涨粉清晰系统标签打造高权重账号【揭秘】</t>
+  </si>
+  <si>
+    <t>小红书养号秘籍，如何自动涨粉清晰系统标签打造高权重账号【揭秘】，夸克网盘资源下载。</t>
+  </si>
+  <si>
+    <t>短视频,小红书,小红书养号秘籍</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/061f10559eaa</t>
+  </si>
+  <si>
+    <t>278.4MB</t>
+  </si>
+  <si>
+    <t>2024-10-11T12:16:06+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/95739</t>
+  </si>
+  <si>
+    <t>醒来的女性系列（套装共5册） [套装合集] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>精选未读女性话题书目，从身体、婚姻、职场、爱情和觉醒五个方面，直击女性所面临的困境和觉醒之路。每一位女性都值得怀抱自己的梦想，我们不只是别人的另一半，我们还是我们自己！困境觉醒篇：醒来的女性（全球销量2000万册，豆瓣评分8.8，翻译为22种语言，金智英们应该懂的道理，被它写尽了！我们不只是别人的另一半，我们还是我们自己。）★一部小说版的《第二性》！这是我们母亲一代的故事，这也是我们自己不曾深想的生活。...</t>
   </si>
   <si>
     <t>套装合集,电子书,图书,pdf,epub</t>
   </si>
   <si>
-    <t>https://pan.quark.cn/s/0892e71adcd8</t>
-  </si>
-  <si>
-    <t>2024-10-10T14:31:13+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95276</t>
-  </si>
-  <si>
-    <t>明亮的时刻 [小说文学] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>本辑《单读》继续关注当代青年创作者，与山一国际女性电影展合作，发表5位当代青年女导演的电影剧本和创作谈。这是单读首次用电影剧本的形式，呈现变化中的当代生活——王丽娜的《第一次的离别》，讲述了在故乡塔克拉玛干一段不断经历告别的童年；杨明明的《柔情史》，展现了北京胡同里一组痛苦的母女关系；滕丛丛的《送我上青云》，描绘了一名患癌的女记者在生存和理想间的挣扎；韩帅的《一九九九》，回忆了一名13岁少女初识性与死亡的过程；黄绮琳的《金都》，塑造了一位陷入真假结婚的女子，她要做出自己的选择。...</t>
-  </si>
-  <si>
-    <t>小说文学,电子书,图书,pdf,epub</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5f94978d8bcd</t>
-  </si>
-  <si>
-    <t>2024-10-10T14:16:11+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95520</t>
-  </si>
-  <si>
-    <t>明遗民诗人姜埰评传 [历史传记] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>姜埰（1607年－1677年），字如农，同人私谥贞毅。山东莱阳人。明末政治人物，入清后以遗民自居。本书对姜埰的家世、求学、仕宦、交游、思想等方面都做了系统的研究与介绍，并对其诗文作品进行了较为全面的分析和评述。</t>
-  </si>
-  <si>
-    <t>历史传记,电子书,图书,pdf,epub</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ae8ad84a83be</t>
-  </si>
-  <si>
-    <t>2024-10-11T04:31:12+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81401</t>
-  </si>
-  <si>
-    <t>纳粹德国的法与不法 [历史传记] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>第三帝国运用高度的理性批判魏玛时代树立的现代法治精神，无限放大民族共同体和政治国家的象征性意义、压缩公民个体的权利与私人空间，创制了一个前所未有的、在任何时代都只能被定性为“不法”的极权统治秩序。法律和法律人在这场由纳粹发起的全面的社会改造的过程之中发挥了相当积极的作用（尽管常常强调其作为“受害者”的身份），并导致这一时期德国的法理学、法律史学、公法学、私法学、刑法学、劳动法与社会法学、司法组织与司法程序、法学教育与研究等领域由内而外地发生了根本性的变化。直到纳粹主义被彻底清算之后，这些领域才部分地按照魏玛宪法的“应有之义”重加塑造。...</t>
-  </si>
-  <si>
-    <t>历史传记,电子书,图书,pdf,epub,纳粹德国的法与不法</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ecbfa9420cbd</t>
-  </si>
-  <si>
-    <t>2024-10-11T08:32:33+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81404</t>
-  </si>
-  <si>
-    <t>纳粹猎人 [历史传记] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>当纽伦堡审判结束、冷战开始后，战胜国失去了起诉纳粹战犯的兴趣。大量低级别罪犯混入了渴望在欧洲开启新生活的人群，而自觉处境更危险的战犯则逃离了欧洲大陆。被称为纳粹猎人的这群人拒绝遗忘纳粹的罪行，决心找寻其踪迹，哪怕追到天涯海角。最初，他们想要复仇，但不久后，故事就变成了一场寻求正义的不懈斗争。在二战结束七十多年后的今天，漏网的纳粹所剩无几，追捕行动基本结束，纳粹猎人的时代也临近终结。他们的传奇如今就完整地展现在这里。</t>
-  </si>
-  <si>
-    <t>历史传记,电子书,图书,pdf,epub,纳粹猎人</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/45397739e2e7</t>
-  </si>
-  <si>
-    <t>2024-10-11T08:47:16+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81202</t>
-  </si>
-  <si>
-    <t>秋野六千《人像拍摄进阶修图课》</t>
-  </si>
-  <si>
-    <t>知名摄影博主秋野六千从事自由摄影相关工作多年，已有一套快速简单的人像后期教程，该课程包括拍摄前期构想、注意事项、模特引导、拍摄方法、LR及PS等用法、后期思路等教学内容。</t>
-  </si>
-  <si>
-    <t>摄影,修图,秋野六千</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6c1e96e5b5df</t>
-  </si>
-  <si>
-    <t>6GB</t>
-  </si>
-  <si>
-    <t>2024-10-11T00:56:28+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81325</t>
-  </si>
-  <si>
-    <t>生活中的博弈论 [人文社科] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>本书将博弈论的理论与实际应用相结合，详细探讨了各种博弈情境，帮助读者更好地理解日常生活中的困境和人际互动。本书是一本详细介绍博弈论及其实际应用的精彩之作。作者运用统计和概率方法解释博弈论的基本概念，并通过各种小游戏生动地演示零和博弈、囚徒困境等核心场景，包括深入探讨了纽科姆的自由意志测试和其悖论。它突出了博弈论作为一种决策工具的重要性，无论是在商业、政治还是个人层面，本书将帮助您掌握博弈论的关键概念，提高决策能力，更好地理解复杂的互动关系。详细介绍博弈论及其实际应用：本书提供了对博弈论的详细介绍，涵盖了其基本概念和实际应用。...</t>
-  </si>
-  <si>
-    <t>人文社科,电子书,图书,pdf,epub,生活中的博弈论</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/dd2a1914b3f3</t>
-  </si>
-  <si>
-    <t>2024-10-11T05:32:16+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81311</t>
-  </si>
-  <si>
-    <t>生命在于静止 [人文社科] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>《生命在于静止：有趣动物的冷知识》是一本以介绍动物们鲜为人知的生活习性为主的趣萌科普书。人类虽然拥有高智慧，但是其生存方式却是非常不稳定的。与动物相比，甚至可以说是“动荡不安”的。那么，动物们又是以怎样的战略生存着呢？让我们一起从动物们所不为认知的生活方式中，学习他们更胜于人类的生存战略吧。本书用漫画+文字解说的方式，给读者们详细解说了20种动物的趣味冷知识。一本书，满足你对20种有趣动物的所有好奇心。</t>
-  </si>
-  <si>
-    <t>人文社科,电子书,图书,pdf,epub,生命在于静止</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/7efd4b2da9ad</t>
-  </si>
-  <si>
-    <t>2024-10-11T05:02:14+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81318</t>
-  </si>
-  <si>
-    <t>生意的本质 [经济管理] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>《生意的本质》回答了关于“生意本质”这一核心问题，阐述了生意的设计思维与方法，让经营者能够用一张图（一个框架）就清晰展示出自己的生意画像（以及高度精炼的商业模式），并在环境多变、资源受限的当下，动态、持续地优化与升级自己的商业模式。</t>
-  </si>
-  <si>
-    <t>经济管理,电子书,图书,pdf,epub,生意的本质</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/81869271d9ba</t>
-  </si>
-  <si>
-    <t>2024-10-11T05:17:15+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/XiangxiuNB/32779</t>
-  </si>
-  <si>
-    <t>视频号运营提升班</t>
-  </si>
-  <si>
-    <t>视频号运营提升班：视频号起号逻辑，视频号选品技巧及带货，线上录播课 + 答疑 + 全团队可听</t>
-  </si>
-  <si>
-    <t>视频号,运营,视频号运营提升班</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/844f48b0592d</t>
-  </si>
-  <si>
-    <t>660MB</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81117</t>
-  </si>
-  <si>
-    <t>特斯拉模式：从丰田主义到特斯拉主义，埃隆·马斯克的工业颠覆</t>
-  </si>
-  <si>
-    <t>《特斯拉模式：从丰田主义到特斯拉主义，埃隆·马斯克的工业颠覆》一书，深入剖析了特斯拉如何颠覆传统汽车工业，开创了全新的制造模式。书中详细阐述了特斯拉在电动汽车、自动驾驶、能源存储等领域的创新实践，以及马斯克对工业生产的深刻变革，揭示了特斯拉模式的核心竞争力与未来趋势，为行业内外人士提供了宝贵的启示与借鉴。</t>
-  </si>
-  <si>
-    <t>书籍,特斯拉,马斯克,商业,特斯拉模式</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ce5df2ee0a5d</t>
-  </si>
-  <si>
-    <t>7.3MB</t>
-  </si>
-  <si>
-    <t>2024-10-10T15:09:56+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95658</t>
-  </si>
-  <si>
-    <t>稳固的幸福感 [人文社科] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>我们的一举一动都蕴含着对世界和自己的看法。态度、动作、表情、野心、习惯，所有行为都围绕着我们关于生活的某种深信不疑的解释，在阿德勒看来，这便是一个人对于“生活意义”的理解，也是对自身经历的诠释。阿德勒认为，与其强调过去的经历决定了现在的人生，不如说我们的行为与情绪都受到自身目的的影响。我们无法从某种麻烦中走出来，可能不是因为我们没有能力走出来，而是不想走出来。...</t>
-  </si>
-  <si>
-    <t>人文社科,电子书,图书,pdf,epub</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c71098a63e4e</t>
-  </si>
-  <si>
-    <t>2024-10-11T08:16:13+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/zh_vip/2497</t>
-  </si>
-  <si>
-    <t>小红书Plog爆款图文训练课</t>
-  </si>
-  <si>
-    <t>小红书Plog爆款图文训练课专为希望在小红书平台上脱颖而出的内容创作者设计。课程教授如何创作引人注目的图文内容，包括选题策划、摄影技巧、文案撰写等。通过实战案例分析和互动训练，学员将掌握吸引流量和提升互动的关键技巧，打造爆款Plog。</t>
-  </si>
-  <si>
-    <t>新媒体运营</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/19dd490fc687</t>
-  </si>
-  <si>
-    <t>2024-10-11T08:09:00+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95417</t>
-  </si>
-  <si>
-    <t>英语四级六级必过合集 已更新至2024年12月最新</t>
-  </si>
-  <si>
-    <t>已更新至2024年12月最新真题和各直播付费网课
-【新东方】英语能力提升课 
-夜猫听口训练营
-01.考虫六级pro max
-02.有道六级全程班
-03.新东方六级全程班
-04.启航全程班
-05.一笑而过全程班
-06.文都全程班
-01.考虫四级pro max
-02.有道四级全程班
-03.新东方四级全程班……</t>
-  </si>
-  <si>
-    <t>英语,英语四级六级,真题,直播网课</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c0c349600499</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> x</t>
-  </si>
-  <si>
-    <t>2024-10-10T23:07:44+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95419</t>
-  </si>
-  <si>
-    <t>元萝卜 v1.0.5｜无需root也能使用的虚拟框架应用</t>
-  </si>
-  <si>
-    <t>元萝卜是一款无需root也能使用的虚拟框架应用，你可以使用这款软件实现应用分身多开。不论是社交软件还是热门手游都能进行多开，同时登录多个账号互不影响。用户还能进行自定义修改系统参数，更加稳定地运行。安卓Xposed功能注入，支持动态调试任何应用，游戏模式增强，数据加密及隐私保护功能，使隐私数据更安全。</t>
-  </si>
-  <si>
-    <t>元萝卜,虚拟框架,Android,应用多开,数据保护</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a6e6ae7172d6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7M  </t>
-  </si>
-  <si>
-    <t>2024-10-10T23:07:51+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95431</t>
-  </si>
-  <si>
-    <t>自己和自己聊天，一天能赚500，只要做就有收益，不可错过的风口项目！【揭秘】</t>
-  </si>
-  <si>
-    <t>市面上的一些交友软件，男性给女性发消息是需要钱，一条消息几毛到几块钱都有。
-这类软件男性新注册的时候都会赠送一些积分。我们要做的就是准备一个女性账号，然后通过技术手段批量注册男性账号，把赠送的积分刷到女性账号上面去，然后进行提现。这种玩法也已经存在很长时间了，长期稳定。最近我们工作室几个小伙伴测试出来收益非常不错。单人一天能产出500+</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/29fd73319a90</t>
-  </si>
-  <si>
-    <t>2024-10-11T01:19:00+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/zh_vip/2488</t>
-  </si>
-  <si>
-    <t>走向心智成熟的30个实用心理训练</t>
-  </si>
-  <si>
-    <t>自我提升</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/39810befad4b</t>
-  </si>
-  <si>
-    <t>2024-10-09T23:23:27+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/XiangxiuNB/32790</t>
-  </si>
-  <si>
-    <t>最新快手直播间福利品抢购助手加教程</t>
-  </si>
-  <si>
-    <t>很多主播为了吸引观众，都会设置一些几分几毛的福利品进行引流。在人数众多的大直播间，尤其是在线人数高达几十万的直播间，这些福利品极为抢手，竞争非常激烈。为了解决这一难题，一款软件应运而生，它能大大提高抢到福利品的概率。许多人通过抢福利品然后倒卖的方式，一个月便能赚取大几千的收入。双11即将到来，各大直播间的福利品将更加丰厚，届时竞争将更加激烈。为了在这场争夺战中占得先机，你必须安装指定版本的快手脚本，这样才能轻松参与抢夺福利品的竞争。安装此脚本，将大大提高你获取心仪福利品的机会。</t>
-  </si>
-  <si>
-    <t>快手,软件,脚本</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/cf99992d5e71</t>
-  </si>
-  <si>
-    <t>200MB</t>
+    <t>https://pan.quark.cn/s/38dbadde3356</t>
+  </si>
+  <si>
+    <t>2024-10-11T11:01:08+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/86125</t>
+  </si>
+  <si>
+    <t>嗅觉浏览器 v6.59支持安装插件，无广告纯净版</t>
+  </si>
+  <si>
+    <t>嗅觉浏览器是一款支持安装多种插件的纯净版浏览器，界面清爽，全程无广告干扰，为用户打造高效、便捷的上网体验。该版本注重用户体验，功能强大且灵活，满足用户个性化浏览需求。</t>
+  </si>
+  <si>
+    <t>Android,浏览器,纯净版</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e7bf98468262</t>
+  </si>
+  <si>
+    <t>2024-09-23T06:05:42+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/84997</t>
+  </si>
+  <si>
+    <t>迅雷 v8.22.09443全网资源订阅，解锁不限速，去广告纯净版</t>
+  </si>
+  <si>
+    <t>提供海量资源，根据用户下载推荐更多喜欢的资源，下载资源文件越大，下载速度越快，并通过P2P加速、高速通道2大加速方式为资源提高速度。</t>
+  </si>
+  <si>
+    <t>Android,迅雷,纯净版</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/20f3d104bc5d</t>
+  </si>
+  <si>
+    <t>988.2MB</t>
+  </si>
+  <si>
+    <t>2024-09-21T00:40:13+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/80070</t>
+  </si>
+  <si>
+    <t>要知0.51一站式智能新闻聚合平台，轻松掌握天下事</t>
+  </si>
+  <si>
+    <t>在信息爆炸的时代，要知帮我解决了信息获取的难题。它不仅提供了一站式的资讯服务，包括新闻、热点、早报等内容，还能根据用户的阅读习惯推送个性化内容。此外，语音播报功能让您可以边做其他事情边听新闻，时间轴展示则帮助您更好地理解事件的发展脉络。我每天早上刷牙时都会听要知播报今日要闻，感觉整个人都更加充实了。其个性化推送也非常智能，经常能推送到我感兴趣的内容。</t>
+  </si>
+  <si>
+    <t>要知,新闻聚合,Android,智能推送,语音播报,个性化内容</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7c02daf884e7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20M  </t>
+  </si>
+  <si>
+    <t>2024-09-12T02:07:32+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/64337</t>
+  </si>
+  <si>
+    <t>一木清单 v2.1.6非常好用的智能清单软件解锁会员版</t>
+  </si>
+  <si>
+    <t>非常好用的智能清单软件，无论是生活日历，生活记账，还是消费清单，都可以快速记录下来，并且制作表格，这样方便记录家庭，或者个人开销，非常的便捷，同时还能安排自己每天的工作内容。</t>
+  </si>
+  <si>
+    <t>Android,清单,解锁,会员,一木清单</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/600033f83d57</t>
+  </si>
+  <si>
+    <t>125.0MB</t>
+  </si>
+  <si>
+    <t>2024-09-05T23:40:47+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/82824</t>
+  </si>
+  <si>
+    <t>一起看 v1.3.3免费看剧神器，手机版 _ TV版，去广告解锁会员版</t>
+  </si>
+  <si>
+    <t>一起看app是一款集免费看剧、适用于手机及TV端。用户可畅享高清影视资源，无需担心广告干扰，是追剧爱好者的优选工具。</t>
+  </si>
+  <si>
+    <t>Android,TV,会员,免费</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e804805a7bfa</t>
+  </si>
+  <si>
+    <t>223.5MB</t>
+  </si>
+  <si>
+    <t>2024-09-16T16:30:49+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/81234</t>
+  </si>
+  <si>
+    <t>远离手机 v4.9.9.8.9手机定时锁屏软件，监督、统计时长，解锁高级版</t>
+  </si>
+  <si>
+    <t>远离手机app是一款高效的手机定时锁屏应用，专注于帮助用户管理手机使用时间，通过设定锁屏计划监督每日手机使用时长，并精准统计使用数据。支持一键锁屏，助力培养健康使用习惯。解锁高级版后，更享个性化设置与深度分析功能，全面优化数字生活平衡。</t>
+  </si>
+  <si>
+    <t>Android,计划,监督,高级版</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c8644914bc03</t>
+  </si>
+  <si>
+    <t>45.9MB</t>
+  </si>
+  <si>
+    <t>2024-09-13T16:12:50+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/95884</t>
+  </si>
+  <si>
+    <t>职场人士必备实操课：职场进阶心法、加快个人成长原则，助你解决职业困惑</t>
+  </si>
+  <si>
+    <t>这是一门针对职场人士的实战课程，适合对未来迷茫、不知如何规划的职场小白、老鸟和精英。课程涵盖了职业选择、职业规划、面试跳槽方法论和职场核心技巧等内容，旨在帮助学员提升职场竞争力。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ac4044b88c1a</t>
+  </si>
+  <si>
+    <t>2024-10-12T01:06:42+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/95864</t>
+  </si>
+  <si>
+    <t>中华书局出版社精选500册</t>
+  </si>
+  <si>
+    <t>中华书局出版社精选的500册古籍和学术著作，涵盖了国学、历史、文学等多个领域。这些书籍均为古典古籍，质量极高，收藏价值不菲。其中不乏《四库全书总目》、《二十四史全译》等重量级作品，由资深专家历经多年编纂而成。这些精选书籍不仅展现了中华文化的博大精深，也为读者提供了深入学习和研究的宝贵资源。</t>
+  </si>
+  <si>
+    <t>书籍,中华书局,精选</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c9f059f15dc5</t>
+  </si>
+  <si>
+    <t>4.9GB</t>
+  </si>
+  <si>
+    <t>2024-10-11T17:27:24+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/68022</t>
+  </si>
+  <si>
+    <t>资源全能王 v1.3.9一站式资源搜索神器，去广告解锁会员版</t>
+  </si>
+  <si>
+    <t>资源全能王是一款高效的一站式资源搜索神器提供全面资源搜索能力，涵盖视频、音乐、文档等多种类型，帮助用户快速找到所需内容，提升信息获取效率，体验无缝资源探索之旅。</t>
+  </si>
+  <si>
+    <t>Android,搜索,解锁,资源全能王</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/95b310f767ab</t>
+  </si>
+  <si>
+    <t>442.6MB</t>
+  </si>
+  <si>
+    <t>2024-09-12T18:03:12+00:00</t>
   </si>
 </sst>
 </file>
@@ -2027,16 +2812,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="48.2727272727273" customWidth="1"/>
-    <col min="8" max="8" width="65.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="49.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="37.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2117,114 +2904,111 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
         <v>47</v>
       </c>
       <c r="H6" t="s">
@@ -2248,7 +3032,7 @@
         <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -2280,7 +3064,7 @@
         <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -2312,7 +3096,7 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -2344,7 +3128,7 @@
         <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -2408,7 +3192,7 @@
         <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -2440,7 +3224,7 @@
         <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -2461,588 +3245,591 @@
         <v>98</v>
       </c>
       <c r="L13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" t="s">
         <v>99</v>
-      </c>
-      <c r="M13" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
         <v>101</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>102</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>103</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
         <v>104</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>105</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>106</v>
-      </c>
-      <c r="M14" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
         <v>108</v>
       </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>109</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>110</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
         <v>111</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>112</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>113</v>
-      </c>
-      <c r="M15" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
         <v>115</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>116</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
         <v>117</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" t="s">
         <v>118</v>
-      </c>
-      <c r="L16" t="s">
-        <v>119</v>
-      </c>
-      <c r="M16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" t="s">
         <v>121</v>
       </c>
-      <c r="B17" t="s">
+      <c r="H17" t="s">
         <v>122</v>
       </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
         <v>123</v>
       </c>
-      <c r="F17" t="s">
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
         <v>124</v>
-      </c>
-      <c r="H17" t="s">
-        <v>125</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>126</v>
-      </c>
-      <c r="L17" t="s">
-        <v>127</v>
-      </c>
-      <c r="M17" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" t="s">
+        <v>128</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
         <v>129</v>
       </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="L18" t="s">
         <v>130</v>
       </c>
-      <c r="F18" t="s">
+      <c r="M18" t="s">
         <v>131</v>
-      </c>
-      <c r="H18" t="s">
-        <v>132</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>133</v>
-      </c>
-      <c r="L18" t="s">
-        <v>134</v>
-      </c>
-      <c r="M18" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" t="s">
         <v>136</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" t="s">
-        <v>139</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L19" t="s">
-        <v>141</v>
-      </c>
-      <c r="M19" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H20" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L20" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="M20" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" t="s">
+        <v>145</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>146</v>
+      </c>
+      <c r="L21" t="s">
+        <v>147</v>
+      </c>
+      <c r="M21" t="s">
         <v>148</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>149</v>
-      </c>
-      <c r="F21" t="s">
-        <v>150</v>
-      </c>
-      <c r="H21" t="s">
-        <v>151</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>152</v>
-      </c>
-      <c r="L21" t="s">
-        <v>153</v>
-      </c>
-      <c r="M21" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B22" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F22" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H22" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="L22" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="M22" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F23" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="H23" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="L23" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="M23" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F24" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="M24" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F25" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H25" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="L25" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="M25" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F26" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="H26" t="s">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="L26" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="M26" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F27" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H27" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="M27" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F28" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="H28" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="M28" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B29" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F29" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="H29" t="s">
-        <v>207</v>
+        <v>97</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="L29" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="M29" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="F30" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="H30" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="L30" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M30" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F31" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="H31" t="s">
-        <v>219</v>
+        <v>97</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="L31" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="M31" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -3051,62 +3838,62 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="F32" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="H32" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="L32" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="M32" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="H33" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="L33" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="M33" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -3115,508 +3902,1811 @@
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="F34" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="H34" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="L34" t="s">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="M34" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="F35" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="H35" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="L35" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
       <c r="M35" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="F36" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="H36" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="L36" t="s">
-        <v>119</v>
+        <v>238</v>
       </c>
       <c r="M36" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F37" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="H37" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="L37" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="M37" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F38" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H38" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="L38" t="s">
-        <v>119</v>
+        <v>252</v>
       </c>
       <c r="M38" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="F39" t="s">
-        <v>268</v>
-      </c>
-      <c r="H39" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="L39" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="M39" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="F40" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="H40" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="L40" t="s">
-        <v>119</v>
+        <v>264</v>
       </c>
       <c r="M40" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F41" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="H41" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="L41" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="M41" t="s">
-        <v>203</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F42" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="H42" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="L42" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="M42" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="F43" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H43" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="L43" t="s">
-        <v>119</v>
+        <v>285</v>
       </c>
       <c r="M43" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F44" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="H44" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="L44" t="s">
-        <v>127</v>
+        <v>292</v>
       </c>
       <c r="M44" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F45" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="H45" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="L45" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="M45" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F46" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H46" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="L46" t="s">
-        <v>315</v>
+        <v>130</v>
       </c>
       <c r="M46" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F47" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="L47" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="M47" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F48" t="s">
-        <v>124</v>
+        <v>314</v>
+      </c>
+      <c r="G48" t="s">
+        <v>315</v>
       </c>
       <c r="H48" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="L48" t="s">
-        <v>127</v>
+        <v>318</v>
       </c>
       <c r="M48" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
+        <v>320</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>321</v>
+      </c>
+      <c r="F49" t="s">
+        <v>322</v>
+      </c>
+      <c r="H49" t="s">
+        <v>323</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>324</v>
+      </c>
+      <c r="L49" t="s">
+        <v>64</v>
+      </c>
+      <c r="M49" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>326</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
         <v>327</v>
       </c>
-      <c r="B49" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="F50" t="s">
         <v>328</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H50" t="s">
         <v>329</v>
       </c>
-      <c r="H49" t="s">
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
         <v>330</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49" t="s">
+      <c r="L50" t="s">
         <v>331</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M50" t="s">
         <v>332</v>
       </c>
-      <c r="M49" t="s">
-        <v>222</v>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>333</v>
+      </c>
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>334</v>
+      </c>
+      <c r="F51" t="s">
+        <v>335</v>
+      </c>
+      <c r="H51" t="s">
+        <v>336</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>337</v>
+      </c>
+      <c r="L51" t="s">
+        <v>338</v>
+      </c>
+      <c r="M51" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>340</v>
+      </c>
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>341</v>
+      </c>
+      <c r="F52" t="s">
+        <v>342</v>
+      </c>
+      <c r="H52" t="s">
+        <v>343</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>344</v>
+      </c>
+      <c r="L52" t="s">
+        <v>345</v>
+      </c>
+      <c r="M52" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>347</v>
+      </c>
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>348</v>
+      </c>
+      <c r="F53" t="s">
+        <v>349</v>
+      </c>
+      <c r="H53" t="s">
+        <v>350</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>351</v>
+      </c>
+      <c r="L53" t="s">
+        <v>352</v>
+      </c>
+      <c r="M53" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>354</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>355</v>
+      </c>
+      <c r="F54" t="s">
+        <v>356</v>
+      </c>
+      <c r="H54" t="s">
+        <v>357</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>358</v>
+      </c>
+      <c r="L54" t="s">
+        <v>359</v>
+      </c>
+      <c r="M54" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>361</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>362</v>
+      </c>
+      <c r="F55" t="s">
+        <v>363</v>
+      </c>
+      <c r="H55" t="s">
+        <v>364</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>365</v>
+      </c>
+      <c r="L55" t="s">
+        <v>366</v>
+      </c>
+      <c r="M55" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>368</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>369</v>
+      </c>
+      <c r="F56" t="s">
+        <v>370</v>
+      </c>
+      <c r="H56" t="s">
+        <v>371</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>372</v>
+      </c>
+      <c r="L56" t="s">
+        <v>373</v>
+      </c>
+      <c r="M56" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
+        <v>375</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>376</v>
+      </c>
+      <c r="F57" t="s">
+        <v>377</v>
+      </c>
+      <c r="H57" t="s">
+        <v>378</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>379</v>
+      </c>
+      <c r="L57" t="s">
+        <v>64</v>
+      </c>
+      <c r="M57" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="s">
+        <v>381</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>382</v>
+      </c>
+      <c r="F58" t="s">
+        <v>383</v>
+      </c>
+      <c r="H58" t="s">
+        <v>384</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>385</v>
+      </c>
+      <c r="L58" t="s">
+        <v>386</v>
+      </c>
+      <c r="M58" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
+        <v>388</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>389</v>
+      </c>
+      <c r="F59" t="s">
+        <v>390</v>
+      </c>
+      <c r="H59" t="s">
+        <v>391</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>392</v>
+      </c>
+      <c r="L59" t="s">
+        <v>393</v>
+      </c>
+      <c r="M59" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" t="s">
+        <v>395</v>
+      </c>
+      <c r="B60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>396</v>
+      </c>
+      <c r="F60" t="s">
+        <v>397</v>
+      </c>
+      <c r="H60" t="s">
+        <v>398</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>399</v>
+      </c>
+      <c r="L60" t="s">
+        <v>400</v>
+      </c>
+      <c r="M60" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" t="s">
+        <v>402</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>403</v>
+      </c>
+      <c r="F61" t="s">
+        <v>404</v>
+      </c>
+      <c r="H61" t="s">
+        <v>405</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>406</v>
+      </c>
+      <c r="L61" t="s">
+        <v>407</v>
+      </c>
+      <c r="M61" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" t="s">
+        <v>409</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>410</v>
+      </c>
+      <c r="F62" t="s">
+        <v>411</v>
+      </c>
+      <c r="H62" t="s">
+        <v>412</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>413</v>
+      </c>
+      <c r="L62" t="s">
+        <v>414</v>
+      </c>
+      <c r="M62" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" t="s">
+        <v>416</v>
+      </c>
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
+        <v>417</v>
+      </c>
+      <c r="F63" t="s">
+        <v>418</v>
+      </c>
+      <c r="H63" t="s">
+        <v>419</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>420</v>
+      </c>
+      <c r="L63" t="s">
+        <v>421</v>
+      </c>
+      <c r="M63" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" t="s">
+        <v>423</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>424</v>
+      </c>
+      <c r="F64" t="s">
+        <v>425</v>
+      </c>
+      <c r="H64" t="s">
+        <v>426</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>427</v>
+      </c>
+      <c r="L64" t="s">
+        <v>428</v>
+      </c>
+      <c r="M64" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" t="s">
+        <v>430</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>431</v>
+      </c>
+      <c r="F65" t="s">
+        <v>431</v>
+      </c>
+      <c r="H65" t="s">
+        <v>432</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>433</v>
+      </c>
+      <c r="L65" t="s">
+        <v>50</v>
+      </c>
+      <c r="M65" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" t="s">
+        <v>435</v>
+      </c>
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" t="s">
+        <v>436</v>
+      </c>
+      <c r="F66" t="s">
+        <v>437</v>
+      </c>
+      <c r="H66" t="s">
+        <v>438</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>439</v>
+      </c>
+      <c r="L66" t="s">
+        <v>440</v>
+      </c>
+      <c r="M66" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" t="s">
+        <v>442</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>443</v>
+      </c>
+      <c r="F67" t="s">
+        <v>444</v>
+      </c>
+      <c r="H67" t="s">
+        <v>445</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>446</v>
+      </c>
+      <c r="M67" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" t="s">
+        <v>448</v>
+      </c>
+      <c r="B68" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
+        <v>449</v>
+      </c>
+      <c r="F68" t="s">
+        <v>450</v>
+      </c>
+      <c r="H68" t="s">
+        <v>451</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>452</v>
+      </c>
+      <c r="L68" t="s">
+        <v>64</v>
+      </c>
+      <c r="M68" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" t="s">
+        <v>454</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
+        <v>455</v>
+      </c>
+      <c r="F69" t="s">
+        <v>456</v>
+      </c>
+      <c r="H69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>458</v>
+      </c>
+      <c r="L69" t="s">
+        <v>459</v>
+      </c>
+      <c r="M69" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" t="s">
+        <v>461</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>462</v>
+      </c>
+      <c r="F70" t="s">
+        <v>463</v>
+      </c>
+      <c r="H70" t="s">
+        <v>464</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>465</v>
+      </c>
+      <c r="L70" t="s">
+        <v>466</v>
+      </c>
+      <c r="M70" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" t="s">
+        <v>468</v>
+      </c>
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s">
+        <v>469</v>
+      </c>
+      <c r="F71" t="s">
+        <v>470</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>471</v>
+      </c>
+      <c r="L71" t="s">
+        <v>50</v>
+      </c>
+      <c r="M71" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" t="s">
+        <v>473</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" t="s">
+        <v>474</v>
+      </c>
+      <c r="F72" t="s">
+        <v>475</v>
+      </c>
+      <c r="H72" t="s">
+        <v>476</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>477</v>
+      </c>
+      <c r="L72" t="s">
+        <v>478</v>
+      </c>
+      <c r="M72" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" t="s">
+        <v>480</v>
+      </c>
+      <c r="B73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>481</v>
+      </c>
+      <c r="F73" t="s">
+        <v>482</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>483</v>
+      </c>
+      <c r="L73" t="s">
+        <v>50</v>
+      </c>
+      <c r="M73" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" t="s">
+        <v>485</v>
+      </c>
+      <c r="B74" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s">
+        <v>486</v>
+      </c>
+      <c r="F74" t="s">
+        <v>487</v>
+      </c>
+      <c r="H74" t="s">
+        <v>488</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>489</v>
+      </c>
+      <c r="L74" t="s">
+        <v>490</v>
+      </c>
+      <c r="M74" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" t="s">
+        <v>492</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s">
+        <v>493</v>
+      </c>
+      <c r="F75" t="s">
+        <v>494</v>
+      </c>
+      <c r="H75" t="s">
+        <v>495</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>496</v>
+      </c>
+      <c r="L75" t="s">
+        <v>497</v>
+      </c>
+      <c r="M75" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" t="s">
+        <v>499</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>500</v>
+      </c>
+      <c r="F76" t="s">
+        <v>501</v>
+      </c>
+      <c r="H76" t="s">
+        <v>502</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>503</v>
+      </c>
+      <c r="L76" t="s">
+        <v>504</v>
+      </c>
+      <c r="M76" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" t="s">
+        <v>506</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>507</v>
+      </c>
+      <c r="F77" t="s">
+        <v>508</v>
+      </c>
+      <c r="H77" t="s">
+        <v>509</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>510</v>
+      </c>
+      <c r="L77" t="s">
+        <v>511</v>
+      </c>
+      <c r="M77" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" t="s">
+        <v>513</v>
+      </c>
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>514</v>
+      </c>
+      <c r="F78" t="s">
+        <v>515</v>
+      </c>
+      <c r="H78" t="s">
+        <v>516</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>517</v>
+      </c>
+      <c r="L78" t="s">
+        <v>518</v>
+      </c>
+      <c r="M78" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" t="s">
+        <v>520</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>521</v>
+      </c>
+      <c r="F79" t="s">
+        <v>522</v>
+      </c>
+      <c r="H79" t="s">
+        <v>523</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>524</v>
+      </c>
+      <c r="L79" t="s">
+        <v>400</v>
+      </c>
+      <c r="M79" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" t="s">
+        <v>526</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>527</v>
+      </c>
+      <c r="F80" t="s">
+        <v>528</v>
+      </c>
+      <c r="H80" t="s">
+        <v>529</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>530</v>
+      </c>
+      <c r="L80" t="s">
+        <v>531</v>
+      </c>
+      <c r="M80" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" t="s">
+        <v>533</v>
+      </c>
+      <c r="B81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>534</v>
+      </c>
+      <c r="F81" t="s">
+        <v>535</v>
+      </c>
+      <c r="H81" t="s">
+        <v>536</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>537</v>
+      </c>
+      <c r="L81" t="s">
+        <v>64</v>
+      </c>
+      <c r="M81" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" t="s">
+        <v>539</v>
+      </c>
+      <c r="B82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>540</v>
+      </c>
+      <c r="F82" t="s">
+        <v>541</v>
+      </c>
+      <c r="H82" t="s">
+        <v>542</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>543</v>
+      </c>
+      <c r="L82" t="s">
+        <v>130</v>
+      </c>
+      <c r="M82" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" t="s">
+        <v>545</v>
+      </c>
+      <c r="B83" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" t="s">
+        <v>546</v>
+      </c>
+      <c r="F83" t="s">
+        <v>547</v>
+      </c>
+      <c r="H83" t="s">
+        <v>548</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>549</v>
+      </c>
+      <c r="L83" t="s">
+        <v>550</v>
+      </c>
+      <c r="M83" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" t="s">
+        <v>552</v>
+      </c>
+      <c r="B84" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>553</v>
+      </c>
+      <c r="F84" t="s">
+        <v>554</v>
+      </c>
+      <c r="H84" t="s">
+        <v>555</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>556</v>
+      </c>
+      <c r="L84" t="s">
+        <v>557</v>
+      </c>
+      <c r="M84" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" t="s">
+        <v>559</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
+        <v>560</v>
+      </c>
+      <c r="F85" t="s">
+        <v>561</v>
+      </c>
+      <c r="H85" t="s">
+        <v>562</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" t="s">
+        <v>563</v>
+      </c>
+      <c r="L85" t="s">
+        <v>564</v>
+      </c>
+      <c r="M85" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" t="s">
+        <v>566</v>
+      </c>
+      <c r="B86" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" t="s">
+        <v>567</v>
+      </c>
+      <c r="F86" t="s">
+        <v>568</v>
+      </c>
+      <c r="H86" t="s">
+        <v>569</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>570</v>
+      </c>
+      <c r="L86" t="s">
+        <v>571</v>
+      </c>
+      <c r="M86" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" t="s">
+        <v>573</v>
+      </c>
+      <c r="B87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" t="s">
+        <v>574</v>
+      </c>
+      <c r="F87" t="s">
+        <v>575</v>
+      </c>
+      <c r="H87" t="s">
+        <v>576</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>577</v>
+      </c>
+      <c r="L87" t="s">
+        <v>578</v>
+      </c>
+      <c r="M87" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" t="s">
+        <v>580</v>
+      </c>
+      <c r="B88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>581</v>
+      </c>
+      <c r="F88" t="s">
+        <v>582</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>583</v>
+      </c>
+      <c r="L88" t="s">
+        <v>50</v>
+      </c>
+      <c r="M88" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" t="s">
+        <v>585</v>
+      </c>
+      <c r="B89" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" t="s">
+        <v>586</v>
+      </c>
+      <c r="F89" t="s">
+        <v>587</v>
+      </c>
+      <c r="H89" t="s">
+        <v>588</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89" t="s">
+        <v>589</v>
+      </c>
+      <c r="L89" t="s">
+        <v>590</v>
+      </c>
+      <c r="M89" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" t="s">
+        <v>592</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
+        <v>593</v>
+      </c>
+      <c r="F90" t="s">
+        <v>594</v>
+      </c>
+      <c r="H90" t="s">
+        <v>595</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>596</v>
+      </c>
+      <c r="L90" t="s">
+        <v>597</v>
+      </c>
+      <c r="M90" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:M57">
-    <sortCondition ref="D2:D57"/>
-  </sortState>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:M90" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A2:M90">
+      <sortCondition ref="D2:D96"/>
+    </sortState>
+    <extLst/>
+  </autoFilter>
   <conditionalFormatting sqref="D2:D1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/file/tg_articles.xlsx
+++ b/file/tg_articles.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="TgArticle" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TgArticle!$A$1:$M$90</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="586">
   <si>
     <t>URL</t>
   </si>
@@ -71,1770 +68,1744 @@
     <t>publish_time</t>
   </si>
   <si>
-    <t>https://t.me/yunpanshare/81770</t>
+    <t>https://t.me/kuakeyun/96823</t>
+  </si>
+  <si>
+    <t>夸克云盘盘</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>《智商税：如何避免信息焦虑时代的智商陷阱》 一部让你提升心智防御能力的“反套路”手册</t>
+  </si>
+  <si>
+    <t>《智商税：如何避免信息焦虑时代的智商陷阱》是一部提升心智防御能力的“反套路”手册。该书深入剖析了信息焦虑时代下的各种智商陷阱，如伪科学、营销骗局等，提供了实用的辨识方法和应对策略，帮助读者在信息洪流中保持清醒，避免被误导，提升自我防护能力，实现心智的成熟与成长。</t>
+  </si>
+  <si>
+    <t>书籍</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ccb52ed2bf8f</t>
+  </si>
+  <si>
+    <t>1.6MB</t>
+  </si>
+  <si>
+    <t>2024-10-13T07:11:12+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/97346</t>
+  </si>
+  <si>
+    <t>《分享经济时代》（套装6册） 新经济形态，分享什么，如何分享</t>
+  </si>
+  <si>
+    <t>《分享经济时代》（套装6册）由杰夫·贾维斯所著，中华工商联合出版社出版。该书详细阐述了分享经济这一新经济形态，探讨了分享的内容、方式以及影响。书中通过大量采访实例，展示了分享经济如何改变我们的生活和工作方式，同时深入分析了隐私的必要性和局限性，为读者提供了协作、思考、组织和创造的全新视角。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e9a6327351cf</t>
+  </si>
+  <si>
+    <t>34.9MB</t>
+  </si>
+  <si>
+    <t>2024-10-14T03:31:36+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96604</t>
+  </si>
+  <si>
+    <t>《组织革新：构建市场化生态组织的路线图》 帮助企业灵活应变</t>
+  </si>
+  <si>
+    <t>《组织革新：构建市场化生态组织的路线图》一书为企业提供了一套系统化的方法，助力企业实现灵活应变。通过详细阐述如何构建以市场为导向、具备生态特性的组织结构，该书指导企业优化内部流程、增强创新能力、提升市场响应速度，从而在快速变化的市场环境中保持竞争优势，实现可持续发展。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d057f6dda5e8</t>
+  </si>
+  <si>
+    <t>39.7MB</t>
+  </si>
+  <si>
+    <t>2024-10-12T22:52:53+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82219</t>
   </si>
   <si>
     <t>网盘资源收藏(夸克)</t>
   </si>
   <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>《337晨读》小学语文同步辅导资料 (部编版)</t>
-  </si>
-  <si>
-    <t>"337晨读法"强调的是朗读而不是背诵，背诵只不过是附属产物，要让孩子享受阅读的过程，养成一个坚持阅读的好习惯。孩子在没有压力的情况下，抑扬顿挫地读出文字内容，去体会和理解文字传递的观点、含义和情感，最后达到理解基础上成诵的结果。</t>
-  </si>
-  <si>
-    <t>小学,语文,阅读,337晨读</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/cf1a25b0122c</t>
-  </si>
-  <si>
-    <t>329MB</t>
-  </si>
-  <si>
-    <t>2024-10-12T04:50:09+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/XiangxiuNB/27950</t>
+    <t>《哲学100问：一看就懂的西方哲学简史》 超级通俗易懂的哲学入门教程</t>
+  </si>
+  <si>
+    <t>《哲学100问：一看就懂的西方哲学简史》是一本超级通俗易懂的哲学入门教程。该书通过100个关键问题，系统梳理了西方哲学的发展脉络，从古希腊哲学到现代哲学，逐一解析哲学史上的重要思想和流派，让读者在轻松愉快的阅读中掌握哲学的基本概念和核心观点，为深入了解西方哲学奠定坚实基础。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c5c4ed5c0505</t>
+  </si>
+  <si>
+    <t>19.4MB</t>
+  </si>
+  <si>
+    <t>2024-10-12T23:23:07+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96605</t>
+  </si>
+  <si>
+    <t>《哲学是怎样炼成的：从普通常识到逻辑推理》 一本教你用哲学方法论分析 解决问题的说明书</t>
+  </si>
+  <si>
+    <t>《哲学是怎样炼成的：从普通常识到逻辑推理》是一本指导读者运用哲学方法论分析并解决问题的实用指南。该书从日常常识出发，逐步深入逻辑推理的精髓，教授读者如何运用哲学思维剖析复杂问题，形成清晰的逻辑链条，进而找到问题的根源与解决方案，提升个人思考能力和决策效率。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/07df78b73dcb</t>
+  </si>
+  <si>
+    <t>3.6MB</t>
+  </si>
+  <si>
+    <t>2024-10-12T22:57:43+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96486</t>
+  </si>
+  <si>
+    <t>[软件开发] 【李述铜】从0到1手把手教你用嵌入式操作系统</t>
+  </si>
+  <si>
+    <t>课程内容
+1、选用低成本的主流RTOS和硬件，节省学习费用和时间
+2、完整的知识体系。每个知识点围绕特定问题展开，PPT讲原理+写代码实现
+3、每章配套一个综合应用案例，学习知识点在实际如何应用
+所有问题来源于但高于实践，直面问题本质，学完可解决各种具体问题
+学完本课程后，你可以获得哪些受益？
+1、系统地掌握RTOS的工作原理及其应用
+2、用更短的时间、更少的精力，学习RTOS应用的相关知识
+3、掌握RTOS使用中最常见的本质问题的解决方案
+4、提升技术水平，为升职加薪跳槽提供资本</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/adb092ab174a</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>2024-10-12T14:34:26+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82217</t>
+  </si>
+  <si>
+    <t>《重新定义公司：谷歌是如何运营的》</t>
+  </si>
+  <si>
+    <t>《重新定义公司：谷歌是如何运营的》一书深入剖析了谷歌独特的运营理念与管理模式。该书详细阐述了谷歌如何通过文化、人才、创新机制等方面的革新，打造出一个高效、灵活且富有创造力的企业生态，揭示了谷歌在快速变化的市场环境中持续领先的关键所在，为其他企业提供了宝贵的借鉴与启示。</t>
+  </si>
+  <si>
+    <t>书籍,商业</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0494a5a7d606</t>
+  </si>
+  <si>
+    <t>10.4MB</t>
+  </si>
+  <si>
+    <t>2024-10-12T23:22:05+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96830</t>
+  </si>
+  <si>
+    <t>《姿势跑法》：跑得更快，更有效率，不受伤的跑步方法</t>
+  </si>
+  <si>
+    <t>《姿势跑法》是一本介绍如何跑得更快、更有效率且避免受伤的跑步方法指南。该书通过详细解析科学的跑步姿势与技巧，帮助跑步爱好者优化跑步动作，减少能耗，提升跑步效率，同时有效预防跑步带来的运动伤害，让跑步成为一项既健康又高效的锻炼方式。</t>
+  </si>
+  <si>
+    <t>书籍,健身</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/820b3f04ff49</t>
+  </si>
+  <si>
+    <t>16.1MB</t>
+  </si>
+  <si>
+    <t>2024-10-13T07:37:57+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/XiangxiuNB/33170</t>
   </si>
   <si>
     <t>肯德基 4K影视发布频道🍟</t>
   </si>
   <si>
-    <t>《黑神话：悟空》Blender 模型</t>
-  </si>
-  <si>
-    <t>包括 PSK 文件、纹理、材质和骨骼等，不仅精准复刻了游戏中角色与装备的精髓，更在细节处理上达到了极致，使得角色显得更加生动逼真。可用于渲染效果测试或学习。</t>
-  </si>
-  <si>
-    <t>黑神话悟空,Blender,建模,模板</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e2c13a436f93</t>
-  </si>
-  <si>
-    <t>1.8GB</t>
-  </si>
-  <si>
-    <t>2024-09-03T07:02:41+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95879</t>
-  </si>
-  <si>
-    <t>夸克云盘盘</t>
-  </si>
-  <si>
-    <t>《语文极简学习法》语文高分的秘密</t>
-  </si>
-  <si>
-    <t>作者立足“学霸”和命题人思维，简约、高效、科学地阐释了语文学习的底层逻辑与实用策略，为渴望提升语文成绩的广大学生提供了一把短时高效的金钥匙，开启了一条事半功倍的“极简”语文成功之路。
-提供PDF、azw3、mobi、epub格式。</t>
-  </si>
-  <si>
-    <t>语文,图书</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/9aa60eef6d5f</t>
-  </si>
-  <si>
-    <t>22.5MB</t>
-  </si>
-  <si>
-    <t>2024-10-12T00:36:57+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95743</t>
-  </si>
-  <si>
-    <t>0基础，0粉丝，抖音带货100万</t>
-  </si>
-  <si>
-    <t>零基础，零粉丝起步，通过精准定位、优质内容创作及高效互动，巧妙结合热门趋势与产品特色，利用抖音平台流量机制，短时间内吸引大量关注，实现带货百万佳绩。这要求极高的市场洞察力、内容创新力及执行力。</t>
-  </si>
-  <si>
-    <t>带货,抖音</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d443724d6420</t>
-  </si>
-  <si>
-    <t>264.2MB</t>
-  </si>
-  <si>
-    <t>2024-10-11T11:03:41+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/zh_vip/2472</t>
+    <t>《文史资料百部经典文库大全集》[共50册]</t>
+  </si>
+  <si>
+    <t>包括黄炎培、杨伯涛、胡西园、吴羹梅等人亲笔撰写的回忆录，以及众多艺术大家的回忆录，内容详实、文情并茂，中国文坛作家、诗人、艺术家的精神风貌、高尚品质和在中国文学史上的贡献跃然纸上。
+提供 PDF、azw3、mobi、epub 格式。</t>
+  </si>
+  <si>
+    <t>人文社科,图书</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/05afe76fa014</t>
+  </si>
+  <si>
+    <t>470.2MB</t>
+  </si>
+  <si>
+    <t>2024-10-13T00:30:34+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96284</t>
+  </si>
+  <si>
+    <t>《智慧大脑：高水平思考的大脑认知训练》 智慧大脑：高水平思考的大脑认知训练</t>
+  </si>
+  <si>
+    <t>《智慧大脑：高水平思考的大脑认知训练》是一本专注于提升大脑认知与思维能力的训练手册。书中通过科学的方法和实用的练习，帮助读者改善注意力、记忆力、逻辑思考、创造力等关键大脑功能，实现高水平思考，进而在工作、学习和生活中做出更明智的决策，提升个人竞争力。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b5101a7e632d</t>
+  </si>
+  <si>
+    <t>13.1MB</t>
+  </si>
+  <si>
+    <t>2024-10-12T11:05:54+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82524</t>
+  </si>
+  <si>
+    <t>《战略推演：获取竞争优势的思维与方法》</t>
+  </si>
+  <si>
+    <t>《战略推演：获取竞争优势的思维与方法》一书深入探讨了战略制定的核心思维与实用方法。该书通过解析经典案例，揭示了企业如何在复杂多变的市场环境中，运用战略推演工具，洞察未来趋势，制定有效的竞争策略，从而获取并巩固竞争优势，实现可持续发展。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f0cc40d6358f</t>
+  </si>
+  <si>
+    <t>19.8MB</t>
+  </si>
+  <si>
+    <t>2024-10-13T11:56:16+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/XiangxiuNB/33353</t>
+  </si>
+  <si>
+    <t>《一飞冲天》中考专项试题合集</t>
+  </si>
+  <si>
+    <t>包括 2024、2025 两版，真题再现、精讲精析，夯实基础、巩固提升。可打印。</t>
+  </si>
+  <si>
+    <t>初中</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1724e937db97</t>
+  </si>
+  <si>
+    <t>2.5GB</t>
+  </si>
+  <si>
+    <t>2024-10-14T02:15:37+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82761</t>
+  </si>
+  <si>
+    <t>《知音漫客》全集整理1-667全集</t>
+  </si>
+  <si>
+    <t>《知音漫客》是中国知名的漫画杂志，创刊于2006年1月。该杂志以全彩印刷、内容丰富多样而著称，迅速在国内漫画市场上崭露头角。经过多年的发展，《知音漫客》已经成为每月发行量超过400万册的周刊类杂志，深受读者喜爱。
+《知音漫客》全集整理1-667集包含了从创刊至今的所有期刊，涵盖了众多经典漫画作品和新锐创作。杂志分为“锐幻萌燃”四个系列，致力于为读者提供精彩纷呈的漫画故事和丰富的阅读体验。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/77f6330b1d79</t>
+  </si>
+  <si>
+    <t>16.8GB</t>
+  </si>
+  <si>
+    <t>2024-10-14T01:25:19+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96125</t>
+  </si>
+  <si>
+    <t>【2分钟一个作品，一刀不剪，撬动百万流量】新人小白刚做就赚500+</t>
+  </si>
+  <si>
+    <t>今天给大家带来的是利用抖音黑科技带货的项目，抖音带货大家都知道很赚钱，但是对于很多人而言做视频的难度比较大，更没有时间一个一个剪辑视频，很多人的现状就是花了2个小时剪辑的视频，结果就一点流量，更别提出单赚钱了。</t>
+  </si>
+  <si>
+    <t>副业</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4f1f40df18a7</t>
+  </si>
+  <si>
+    <t>328.4MB</t>
+  </si>
+  <si>
+    <t>2024-10-12T07:35:44+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/81844</t>
+  </si>
+  <si>
+    <t>【AI漫画视频实战流程】AI漫画爽文视频制作，打造爆款漫画视频</t>
+  </si>
+  <si>
+    <t>本课程专注于AI漫画爽文视频技术的进阶学习，从基础底层逻辑讲起，逐步深入到准备工作、工具实操、问题解决方案、视频优化技巧等关键环节。同时，还额外提供了利用AI工具筛选爆款小说、规划小说分镜以及解决AI工具实操中常见问题的非必学内容，为学习者提供全面而深入的指导。</t>
+  </si>
+  <si>
+    <t>AI视频,兼职副业</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/bd8d6649d6a0</t>
+  </si>
+  <si>
+    <t>504MB</t>
+  </si>
+  <si>
+    <t>2024-10-12T08:04:37+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/XiangxiuNB/33348</t>
+  </si>
+  <si>
+    <t>《牛津通识读本百本纪念套装》[共100册]</t>
+  </si>
+  <si>
+    <t>译林出版社历经数十年耕耘，“牛津通识读本”系列至今已累计编译超过百册。此套装为一百本纪念版，囊括数百种学科深入浅出，数百位大家交相辉映，洋洋大观，不可不谓之壮阔！
+提供 PDF、azw3、mobi、epub 格式。</t>
+  </si>
+  <si>
+    <t>图书</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ca17c9e9135c</t>
+  </si>
+  <si>
+    <t>680MB</t>
+  </si>
+  <si>
+    <t>2024-10-14T01:02:27+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/81848</t>
+  </si>
+  <si>
+    <t>【发卡网详细搭建教程加源码】开网站做老板</t>
+  </si>
+  <si>
+    <t>今天给大家分享一个发卡网详细搭建教程，教程很详细，从宝塔面板搭建开始到最后网站搭建完成， 本教程适用于彩虹、小储、等多种发卡网系统。我把教程稍微快进一点分享给大家，如果大家有哪个环节不懂的就放慢视频去看，只要按照我的教程来，绝对能搭建好一个属于自己的网站!</t>
+  </si>
+  <si>
+    <t>学</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8e162a0fc8fc</t>
+  </si>
+  <si>
+    <t>71.2MB</t>
+  </si>
+  <si>
+    <t>2024-10-12T08:18:52+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/81846</t>
+  </si>
+  <si>
+    <t>【易语言2024最新0基础入门+全流程实战教程】学点网赚必备技术</t>
+  </si>
+  <si>
+    <t>《2024最新易语言0基础快速入门到精通教程》基础篇专为编程0基础和对易语言感兴趣的学员量身打造。课程从易语言的安装配置开始，循序渐进地介绍编程基本概念和操作方法，通过实战案例让学员掌握易语言的核心编程思维和开发技能。无论是互联网创业者、业余编程爱好者，还是希望提升技能的学习者，本课程都能帮助你在最短的时间内打下坚实的编程基础。</t>
+  </si>
+  <si>
+    <t>兼职副业</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e809b99a3a15</t>
+  </si>
+  <si>
+    <t>14.8GB</t>
+  </si>
+  <si>
+    <t>2024-10-12T08:11:04+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/97339</t>
+  </si>
+  <si>
+    <t>【图文带货项目速成1.0】无需真人出镜，无需自己发货，无需开播也能赚钱</t>
+  </si>
+  <si>
+    <t>图文带货项目速成1.0：无需真人出镜，无需自己发货，无需开播也能赚钱，夸克 网盘资源下载。</t>
+  </si>
+  <si>
+    <t>短视频</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2a8b60896651</t>
+  </si>
+  <si>
+    <t>438.7MB</t>
+  </si>
+  <si>
+    <t>2024-10-14T03:21:29+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/81843</t>
+  </si>
+  <si>
+    <t>【跨境税务宝典教程】跨境电商全球税务处理策略</t>
+  </si>
+  <si>
+    <t>本课程专注于跨境电商的涉外税务处理，详细讲解了不同国家和地区（如美国、欧洲、香港）的公司税务处理方法和应用案例。此外，还深入探讨了多种出口模式（如9810、1039、0110、9610、9710）及其在跨境电商中的实际应用案例。最后，课程还涵盖了跨境电商如何申请出口退税的详细步骤和流程。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0a4bed4d97d2</t>
+  </si>
+  <si>
+    <t>708.3MB</t>
+  </si>
+  <si>
+    <t>2024-10-12T07:58:39+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96584</t>
+  </si>
+  <si>
+    <t>900份各行各业实用合同</t>
+  </si>
+  <si>
+    <t>包含900多份各行各业的专业合同模板，覆盖广泛，如劳动合同、购房合同、租赁合同等。每份合同均详细规定了双方的权利和义务，确保交易的合法性和公平性。这些合同模板由专业律师团队整理，满足不同行业、不同场景下的合同需求，为合同双方提供便捷、高效、安全的法律保障。</t>
+  </si>
+  <si>
+    <t>资料</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/267257932305</t>
+  </si>
+  <si>
+    <t>48.9MB</t>
+  </si>
+  <si>
+    <t>2024-10-12T17:09:42+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82669</t>
+  </si>
+  <si>
+    <t>Adobe2025全家桶 Win版本</t>
+  </si>
+  <si>
+    <t>每一次Adobe的更新都引起了广泛的关注，而每一次的更新也几乎没有令人失望，它总是带给我们惊喜和独特体验。而这次的更新也不例外。</t>
+  </si>
+  <si>
+    <t>软件</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3d305b478dbc</t>
+  </si>
+  <si>
+    <t>20g</t>
+  </si>
+  <si>
+    <t>2024-10-13T15:24:17+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/zh_vip/2510</t>
   </si>
   <si>
     <t>VIP资源共享</t>
   </si>
   <si>
-    <t>11天腰臀腿塑形课 健身减肥塑形</t>
-  </si>
-  <si>
-    <t>健身养生</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/2941f6cfd23b</t>
+    <t>Gaga的富人成交艺术课堂</t>
+  </si>
+  <si>
+    <t>Gaga的富人成交艺术课堂是一门专注于富人成交技巧的课程。学员将学习高效的谈判策略、影响力技巧和人际关系建立方法。课程内容包括情绪控制、洞察力培养、沟通技巧等，帮助学员在商业和个人交易中取得成功。无论是寻求投资机会还是提升个人谈判能力，这门课程将帮助你成为富人成交艺术的行家。</t>
+  </si>
+  <si>
+    <t>自我提升</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f7b4c94eb0aa</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>2024-10-07T00:35:00+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95869</t>
-  </si>
-  <si>
-    <t>168套别墅设计CAD图纸</t>
-  </si>
-  <si>
-    <t>168套别墅设计CAD图纸是一套全面且多样化的别墅设计资源，涵盖了各种风格（如欧式、中式、现代等）和类型（如独栋、双拼、联排等）的别墅设计施工图。这些图纸以DWG格式提供，便于使用CAD软件进行查看和编辑。图纸内容详尽，包括别墅的平面布局、立面设计、结构细节等，为设计师和建筑爱好者提供了丰富的设计灵感和参考。</t>
-  </si>
-  <si>
-    <t>书籍,别墅,设计,CAD,图纸</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b5e2d55c04f2</t>
-  </si>
-  <si>
-    <t>365.4MB</t>
-  </si>
-  <si>
-    <t>2024-10-11T18:27:27+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95876</t>
-  </si>
-  <si>
-    <t>38天成为销售高手蜕变营课</t>
-  </si>
-  <si>
-    <t>38天成为销售高手蜕变营课程旨在通过密集训练快速提升销售技能。课程涵盖市场分析、客户心理、谈判技巧等核心内容，结合实战演练和案例分析，帮助学员深入理解销售流程，提升沟通与闭单能力，快速从销售新手成长为销售高手。</t>
-  </si>
-  <si>
-    <t>职场关系</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a74c68a4a49f</t>
+    <t>2024-10-13T03:39:59+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/81841</t>
+  </si>
+  <si>
+    <t>【美女弹幕舞蹈直播间新玩法日入几张】无需露脸，礼物收到手软</t>
+  </si>
+  <si>
+    <t>我们这次准备的项目与传统的弹幕游戏不同，传统的弹幕游戏互动性比较低，但新玩法的互动性很强，能激起大家点进直播间观看的好奇心
+|所以今天介绍的玩法比较另类，先用几款软件搭建好直播间，在设置刷礼物自动触法，然后直播间刷礼物就会触发特效</t>
+  </si>
+  <si>
+    <t>兼职副业,网赚项目</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5c3189a65583</t>
+  </si>
+  <si>
+    <t>1.6GB</t>
+  </si>
+  <si>
+    <t>2024-10-12T07:47:10+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96121</t>
+  </si>
+  <si>
+    <t>【同城推广核心方法大揭秘】掌握自然与付费流量的奥秘，开启商家逆袭之路</t>
+  </si>
+  <si>
+    <t>同城推广核心方法大揭秘：掌握自然与付费流量的奥秘，开启商家逆袭之路 夸克网盘资源下载</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e84558e34eaf</t>
+  </si>
+  <si>
+    <t>2.9GB</t>
+  </si>
+  <si>
+    <t>2024-10-12T07:31:16+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/81842</t>
+  </si>
+  <si>
+    <t>【闲鱼魔法袍出租】无脑稳定出单，单日变现1.5k</t>
+  </si>
+  <si>
+    <t>闲鱼魔法袍出租，无脑稳定出单，单日变现1.5k 夸克网盘资源下载</t>
+  </si>
+  <si>
+    <t>电商,兼职副业,网赚项目</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6c31d81118a4</t>
+  </si>
+  <si>
+    <t>1.4GB</t>
+  </si>
+  <si>
+    <t>2024-10-12T07:53:21+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82662</t>
+  </si>
+  <si>
+    <t>Filmora万兴喵影 - AI视频编辑 v14.0.02</t>
+  </si>
+  <si>
+    <t>一款易于使用的 AI 视频编辑器和 AI 电影制作工具，适用于 YouTube 和 Tik Tok，拥有超过 8000 首音乐、超过 5000 个贴纸以及滤镜、文本、音频、表情符号、背景等等。只需修剪剪辑，并添加音乐、过渡效果、文本、表情符号和滤镜，即可在几分钟内创建令人难以置信的视频。</t>
+  </si>
+  <si>
+    <t>破解,绿色,Android,软件</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8748cd08d3e1</t>
   </si>
   <si>
     <t>NG</t>
   </si>
   <si>
-    <t>2024-10-11T23:40:00+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/71913</t>
-  </si>
-  <si>
-    <t>AdGuard v4.7.41广告拦截程序，广告内容拦截跟踪器，去广告大杀器</t>
-  </si>
-  <si>
-    <t>AdGuard，最受欢迎的广告拦截程序，堪称去广告大杀器。Adguard安卓版无需ROOT权限，可拦截所有应用和浏览器的广告。具有广告内容拦截跟踪器（包括：广告拦截过滤器、社交过滤器、隐私过滤器、安全过滤器、自定义过滤器）、DNS过滤、HTTPS过滤、节省应用流量数据管理及隐身模式保护个人隐私功能。</t>
-  </si>
-  <si>
-    <t>Android,广告拦截,AdGuard</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/aace02c0d18e</t>
-  </si>
-  <si>
-    <t>939.6MB</t>
-  </si>
-  <si>
-    <t>2024-09-20T12:19:14+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/72094</t>
-  </si>
-  <si>
-    <t>ADM v14.0.37多线程下载工具，百度无限速，专业直装版</t>
-  </si>
-  <si>
-    <t>ADM是一款功能强大的多线程下载工具，专为追求高效下载体验的用户设计。该版本具备百度网盘无限速下载的专业特性，无需额外设置即可享受满速下载服务，极大地提升了下载效率。作为专业直装版，ADM提供了丰富的下载管理和优化功能，如界面定制、文件夹选择、自动操作、错误恢复等，确保用户能够轻松管理下载任务并享受稳定可靠的下载体验。</t>
-  </si>
-  <si>
-    <t>Android,下载,工具,多线程,ADM</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/2c88ec205bd5</t>
-  </si>
-  <si>
-    <t>564.7MB</t>
-  </si>
-  <si>
-    <t>2024-09-20T16:00:17+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/73185</t>
-  </si>
-  <si>
-    <t>Adobe Photoshop Express v15.8.220安卓PS神器，拍摄、编辑、分享，解锁高级版</t>
-  </si>
-  <si>
-    <t>Adobe Photoshop Express Pro 是全球闻名的 Adobe 公司开发的一款移动设备上的图画处理软件，Photoshop Express Pro 集拍摄、编辑、分享于一体，具有多种专业的图片编辑处理功用，自带几十种特效滤镜效果，支持 Raw 文件及无缝编辑 TIFF 图画，是款专业实用的安卓渠道图片处理美化工具。当之无愧的安卓 PS 神器。</t>
-  </si>
-  <si>
-    <t>Android,Photoshop,安卓,拍摄,解锁,高级,Adobe</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/44fdba37cc8c</t>
-  </si>
-  <si>
-    <t>8.2GB</t>
-  </si>
-  <si>
-    <t>2024-09-23T02:42:16+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95863</t>
-  </si>
-  <si>
-    <t>AI商业实战掘金课：零基础小白也能轻松上手创收</t>
-  </si>
-  <si>
-    <t>AI商业实战掘金课是一门专为零基础小白设计的创收课程。该课程通过系统化的教学，帮助学员掌握AI技术在商业领域的应用，包括数据分析、机器学习模型搭建、智能推荐系统等。通过实战案例，学员能够轻松上手，将AI技术转化为实际商业价值，实现个人的收入增长。</t>
-  </si>
-  <si>
-    <t>AI,零基础,商业</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/21e800de185f</t>
-  </si>
-  <si>
-    <t>592.4MB</t>
-  </si>
-  <si>
-    <t>2024-10-11T17:26:27+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/82615</t>
-  </si>
-  <si>
-    <t>Avast Cleanup - 清理工具 v24.18.0</t>
-  </si>
-  <si>
-    <t>Avast Cleanup是一款智能工具，一键释放空间，优化性能，延长电池寿命，确保设备始终快速、清洁、高效。</t>
-  </si>
-  <si>
-    <t>破解,绿色,Android,软件</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/abef1db4c343</t>
-  </si>
-  <si>
-    <t>2024-09-16T09:46:12+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/84774</t>
-  </si>
-  <si>
-    <t>B612v13.3.20B612咔叽相机，功能强大的拍照神器，解锁会员订阅版</t>
-  </si>
-  <si>
-    <t>B612咔叽相机是一款功能强大的拍照神器，它拥有智能美颜技术，能为用户打造超自然的美颜效果和靓丽脸型。同时，提供超过3000种动态贴纸、奇妙AR滤镜和百款品质滤镜，让每一张照片都充满创意与个性。此外，B612还支持GIF表情包制作、炫酷拼图等功能，满足用户多样化的拍照和美化需求。无论是自拍还是记录生活，B612咔叽相机都是不可多得的好帮手。</t>
-  </si>
-  <si>
-    <t>Android,会员,解锁,拍照</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/63df1f899514</t>
-  </si>
-  <si>
-    <t>4.0GB</t>
-  </si>
-  <si>
-    <t>2024-09-20T12:37:30+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95851</t>
-  </si>
-  <si>
-    <t>Battery Guru v2.3.9电池大师，手机电池优化软件，解锁付费版</t>
-  </si>
-  <si>
-    <t>BatteryGuru电池大师app是一款专为安卓手机用户打造的手机电池优化软件。软件可以查看手机的电池使用情况、健康状况、电池温度，后台应用的耗电情况，帮助大家更好地使用手机。</t>
-  </si>
-  <si>
-    <t>Android,电池,优化</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/939163970090</t>
-  </si>
-  <si>
-    <t>284.6MB</t>
-  </si>
-  <si>
-    <t>2024-10-11T17:05:20+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/85965</t>
-  </si>
-  <si>
-    <t>Duolingo - 多邻国高效学外语 v5.168.3</t>
-  </si>
-  <si>
-    <t>多邻国是一款非常有名的手机外语学习工具软件，大家可以通过这款软件来学习众多门的外语，零基础一样也可以轻松上手，为你带来更多的优质学习享受。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/9b2247b26755</t>
-  </si>
-  <si>
-    <t>2024-09-22T21:47:09+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/79686</t>
-  </si>
-  <si>
-    <t>Easy Notes v1.2.64.0906全新易用的记事本软件，解锁专业版</t>
-  </si>
-  <si>
-    <t>一款适用于Android 的全新易用的记事本、笔记本、备忘录、彩色便利贴、提醒事项、加密笔记、记事应用程序。有了这个简单的记事本应用程序，您可以使用彩色背景和清单创建快速笔记，以帮助您轻松组织任务和生活。您也可以使用此笔记记录者将照片或音频添加到笔记中。</t>
-  </si>
-  <si>
-    <t>Android,笔记,备忘,专业版,解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/9cc7db155916</t>
-  </si>
-  <si>
-    <t>2024-09-11T07:32:40+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/82721</t>
-  </si>
-  <si>
-    <t>ES文件浏览器 v4.4.2.7手机文件管理工具，解锁会员高级版</t>
-  </si>
-  <si>
-    <t>ES文件浏览器是一款功能强大的手机文件管理工具，解锁会员高级版，用户可以享受无广告干扰的使用体验，并获得更多高级功能。支持全面的文件管理操作，包括文件浏览、复制、移动、重命名、删除等，同时内置了压缩/解压、文本编辑、图片查看等实用工具。它还支持云存储服务绑定，方便用户管理云端文件。</t>
-  </si>
-  <si>
-    <t>Android,文件管理,解锁,工具</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/fd8665988112</t>
-  </si>
-  <si>
-    <t>1.4GB</t>
-  </si>
-  <si>
-    <t>2024-09-16T13:57:36+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/85393</t>
-  </si>
-  <si>
-    <t>iLovePDF - PDF编辑器和阅读器 v3.8.7</t>
-  </si>
-  <si>
-    <t>iLovePDF 将文档管理整合到一个地方，因此你可以通过你的Android智能手机和平板电脑进行完全无纸化的工作。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/34e0c38de13d</t>
-  </si>
-  <si>
-    <t>2024-09-21T16:55:53+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/85966</t>
-  </si>
-  <si>
-    <t>Node Video - 专业视频编辑器 v6.55.1</t>
-  </si>
-  <si>
-    <t>Node Video 是最强大的手机视频编辑应用程序之一。凭借许多革命性的功能，您可以创造出您从未想象过的惊人效果！</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/959d82b62bd2</t>
-  </si>
-  <si>
-    <t>2024-09-22T21:55:15+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/85967</t>
-  </si>
-  <si>
-    <t>Photo Editor v10.7最强照片编辑器，P图神器，解锁高级版</t>
-  </si>
-  <si>
-    <t>Photo Editor v10.4，顶级照片编辑利器，集专业P图功能与创意工具于一身。解锁高级版后，尽享无限滤镜、高级编辑选项及独家特效，轻松打造专业级美图。无论是人像美化、风景修饰还是创意合成，一键操作，瞬间提升照片质感，让你的每一张作品都令人惊艳。</t>
-  </si>
-  <si>
-    <t>Android,P图,编辑,解锁,高级</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/51f34ab7c345</t>
-  </si>
-  <si>
-    <t>54.6MB</t>
-  </si>
-  <si>
-    <t>2024-09-22T21:59:05+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/79135</t>
-  </si>
-  <si>
-    <t>PhotoDirector - 动态相片编辑 &amp; AI 照片编修 v19.6.0</t>
-  </si>
-  <si>
-    <t>PhotoDirector - 相片大师：动态相片编辑 &amp; AI 照片编修，最佳照片编辑器，全方位相片编辑功能，提升、美化照片，简单步骤让相片动起来！</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/9f784b02c62a</t>
-  </si>
-  <si>
-    <t>2024-09-10T07:09:44+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/72605</t>
-  </si>
-  <si>
-    <t>PhotoRoom - 编辑照片和背景 v5.3.5</t>
-  </si>
-  <si>
-    <t>无需再成为摄影师或设计专家：有了Photoroom，您可以在几秒钟内将您的照片变成专业品质的图像。我们的魔法？该应用程序可以自动裁剪图片中的人物和物体。</t>
-  </si>
-  <si>
-    <t>破解,绿色,Android,软件,PhotoRoom</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c5c80ec5aca6</t>
-  </si>
-  <si>
-    <t>2024-09-21T22:59:33+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/79486</t>
-  </si>
-  <si>
-    <t>Pixelcut - AI照片编辑器 v0.8.6</t>
-  </si>
-  <si>
-    <t>Pixelcut 照片编辑器和图形设计师可帮助您在几秒钟内创建令人惊叹的图像。 Pixelcut 是一款一体化编辑器，它使用 AI 帮助您轻松创建图像。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3e6c49de3357</t>
-  </si>
-  <si>
-    <t>2024-09-10T17:24:36+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/85971</t>
-  </si>
-  <si>
-    <t>Pixiv v6.124.0汇聚了超多二次元原创及同人绘画作品投稿的平台</t>
+    <t>2024-10-13T14:58:11+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82216</t>
+  </si>
+  <si>
+    <t>MX Player v1.86.0MX播放器，知名的多媒体播放器，解锁高级专业版</t>
+  </si>
+  <si>
+    <t>MX Player是一款备受欢迎的多媒体播放器，功能强大。支持几乎所有音视频格式，内置强力硬件加速和多种字幕支持，确保播放流畅无卡顿。MX Player还具备多核解码能力，在多核处理器设备上表现尤为出色。此外，其触控手势操作便捷，支持轻捏缩放、平移等，并设有儿童锁功能，保障儿童安全使用。</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/64e558f20eea</t>
+  </si>
+  <si>
+    <t>845.6MB</t>
+  </si>
+  <si>
+    <t>2024-10-12T23:21:37+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82754</t>
+  </si>
+  <si>
+    <t>NP管理器 v3.1.12免费APK逆向修改工具，和 MT 管理器比较类似</t>
+  </si>
+  <si>
+    <t>NP管理器是一款永久免费且无广告的安卓文件管理器和APK逆向修改工具。与MT管理器类似，它提供了强大的文件管理功能，如Apk反编译、Dex、Jar、Smali互相转换等逆向功能，还支持字符串加密、去签名效验等高级操作。该工具界面简洁，操作便捷，无需付费即可享受全面功能，是Android用户进行APK分析和修改的理想选择。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c903bfe626a7</t>
+  </si>
+  <si>
+    <t>1001.4MB</t>
+  </si>
+  <si>
+    <t>2024-10-14T01:07:36+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96128</t>
+  </si>
+  <si>
+    <t>【无尽的拉格朗日手游冷门玩法】简单好上手，一单15.一部手机或者平板即可操作，一天几张轻轻松松</t>
+  </si>
+  <si>
+    <t>无尽的拉格朗日手游冷门玩法，简单好上手，一单15.一部手机或者平板即可操作，一天几张轻轻松松</t>
+  </si>
+  <si>
+    <t>搬砖,兼职副业,网赚项目</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ec8d99d6cce3</t>
+  </si>
+  <si>
+    <t>281.1MB</t>
+  </si>
+  <si>
+    <t>2024-10-12T07:40:46+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96603</t>
+  </si>
+  <si>
+    <t>【喜马拉雅】麻辣情医吴迪：100天告别单身</t>
+  </si>
+  <si>
+    <t>《麻辣情医吴迪：100天告别单身》是一份实用的指南，帮助听众更好地掌握恋爱中的主动权，提高自己的恋爱成功概率。无论你是正在寻找恋爱对象，还是已经有了心仪的人选，都可以从这份指南中获得帮助和启示。</t>
+  </si>
+  <si>
+    <t>有声读物</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/299f81aecf9a</t>
+  </si>
+  <si>
+    <t>106.0MB</t>
+  </si>
+  <si>
+    <t>2024-10-12T21:10:10+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82355</t>
+  </si>
+  <si>
+    <t>Liar's Bar骗子酒馆</t>
+  </si>
+  <si>
+    <t>沉浸在这个设定在阴暗酒吧的多人在线体验中，游戏的危险程度与酒客们一样。加入四人桌，测试你在《骗子骰子》和《骗子牌》中的技巧，在这些游戏中，撒谎和诈唬是胜利的关键。准备好在《骗子酒吧》度过一个夜晚了吗？</t>
+  </si>
+  <si>
+    <t>steam,破解,中文,PC</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b21f433d6c3f</t>
+  </si>
+  <si>
+    <t>1.2GB</t>
+  </si>
+  <si>
+    <t>2024-10-13T05:05:49+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/97221</t>
+  </si>
+  <si>
+    <t>ProCCD复古CCD相机 v4..2.3模拟CCD相机的拍摄解锁会员</t>
+  </si>
+  <si>
+    <t>ProCCD复古CCD相机是一款模拟CCD相机的拍摄应用，已解锁会员版。它复刻了CCD卡片机的经典外观与复古滤镜，还原千禧年的独特拍摄体验。软件支持多种复古滤镜、相机参数调节及照片后期精修，让每一张照片都充满怀旧感与艺术性。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/63737a856d14</t>
+  </si>
+  <si>
+    <t>600.4MB</t>
+  </si>
+  <si>
+    <t>2024-10-13T16:39:33+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96608</t>
+  </si>
+  <si>
+    <t>Picsart v26.0.3美易，专为爱美图的你打造，解锁高级版</t>
+  </si>
+  <si>
+    <t>告别传统修图软件，专为爱美图的你打造！超火爆修图软件来啦(๑•̀ㅂ•́)و✧ 全球超过10亿次下载，3000多种编辑功能、滤镜效果和超过1000万个开源素材，更有多达300万个自由编辑社区贴纸，尽在PicsArt美易照片编辑。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/cae59503e5e1</t>
+  </si>
+  <si>
+    <t>4.4GB</t>
+  </si>
+  <si>
+    <t>2024-10-12T23:09:55+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82218</t>
+  </si>
+  <si>
+    <t>Pixiv v6.127.0汇聚了超多二次元原创及同人绘画作品投稿的平台</t>
   </si>
   <si>
     <t>Pixiv是一个主要由日本艺术家所组成的虚拟社群应用，主体为 pixiv 插画艺术特化的社交网络服务网站。主要分享新兴的日本同人画、插画作品。每个参与者都有自己的主页并可以对作品评价打分。Pixiv 的特色在于作者会在里面放入分辨率很高的大图。不光有日本知名插画家，中国、韩国、美国……等国家的绘画高手也聚会于此互相交流。就算不懂日语，光是看画收集图片也是一种很令人高兴的事！</t>
   </si>
   <si>
-    <t>Android,绘画</t>
-  </si>
-  <si>
     <t>https://pan.quark.cn/s/bd44e8392c37</t>
   </si>
   <si>
     <t>778.1MB</t>
   </si>
   <si>
-    <t>2024-09-23T00:16:12+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/79133</t>
-  </si>
-  <si>
-    <t>Polarr - 泼辣修图 v6.9.11</t>
-  </si>
-  <si>
-    <t>探索由全球泼辣创作者创作的数百万款泼辣滤镜，你也可以与朋友分享自己创建的滤镜。泼辣滤镜不是简单的静态滤镜，它除了可以编辑光效和色彩外，还可以包含自定义图层 、面部美化以及智能识别对象。泼辣滤镜同时可以应用于视频，只需下载泼辣24即可一键将泼辣滤镜应用于视频。使用泼辣滤镜，轻松传播你的个人美学。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/f8cece44eb9f</t>
-  </si>
-  <si>
-    <t>2024-09-10T07:06:38+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/XiangxiuNB/29189</t>
-  </si>
-  <si>
-    <t>SD Maid SE v1.2.6安卓系统清理利器，一键释放存储空间</t>
-  </si>
-  <si>
-    <t>SD Maid SE 是一款强大的 Android 设备系统清理工具，能够帮助用户清理手机中不需要的文件和数据，提升设备性能并节省存储空间。它具备垃圾清理、文件浏览器、应用管理、系统清理和 SD 卡分析等功能。软件内置的功能强大的文件浏览器可以方便地浏览、复制、移动和删除文件。应用管理功能允许用户批量卸载、备份和还原应用程序，甚至禁用冻结应用程序。系统级清理功能可以清除系统日志、崩溃日志和错误报告。此外，SD Maid SE 提供了高度自定义的清理规则，确保不会误删重要文件。大部分功能无需 ROOT 权限即可使用，非常安全可靠。</t>
-  </si>
-  <si>
-    <t>SDMaid</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e4592a3caed4</t>
-  </si>
-  <si>
-    <t>7.8M</t>
-  </si>
-  <si>
-    <t>2024-09-17T08:13:21+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/70950</t>
-  </si>
-  <si>
-    <t>Snaptube - 视频下载器 v7.26.1.72672401</t>
-  </si>
-  <si>
-    <t>Snaptube是一款有着强大功能的可以直接下载视频，音乐，MV等资源的软件， 该软件中资源丰富，用户在这里是可以直接使用资源的，也可以免费下载。载任何音乐视频直接作为MP3格式文件，下载速度可观，轻松获得喜欢的音频资源，操作便捷简单，快速掌握软件使用技巧，资源高清优质，想要观看的影片一触即达，可以轻松下载。</t>
-  </si>
-  <si>
-    <t>破解,绿色,Android,软件,Snaptube</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6185a9e48ea5</t>
-  </si>
-  <si>
-    <t>2024-09-18T17:53:20+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/85408</t>
-  </si>
-  <si>
-    <t>VivaCut – 专业视频剪辑 v3.8.6</t>
-  </si>
-  <si>
-    <t>VivaCut是一款官方的专业视频剪辑软件， 拥有丰富、专业的视频剪辑工具和好莱坞级的视频编辑体验。 无论您是想制作好莱坞大片级电影，或是仅仅和朋友、家人一起分享回忆，Viva Cut都是您的最佳选择。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/90953bd6dd25</t>
-  </si>
-  <si>
-    <t>2024-09-21T23:11:25+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/70004</t>
-  </si>
-  <si>
-    <t>VLLO v10.7.8视频编辑器，背景颜色，转换效果，移动贴纸等，解锁付费版</t>
-  </si>
-  <si>
-    <t>VLLO是一款功能强大的视频编辑器，，用户可尽情享受其丰富功能支持自定义视频背景颜色，轻松调整至心仪色调；提供多种转换效果，如渐隐、推开等，让视频过渡自然流畅；还允许用户自由移动贴纸，实现个性化装饰。VLLO还支持视频剪辑、添加字幕、背景音乐等高级功能，满足用户专业创作需求，是视频制作爱好者的理想选择。</t>
-  </si>
-  <si>
-    <t>Android,视频,编辑,解锁,VLLO</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b3312aa72c97</t>
-  </si>
-  <si>
-    <t>2024-09-16T15:04:28+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/85395</t>
-  </si>
-  <si>
-    <t>Xodo佐道 – PDF阅读器&amp;编辑器 v9.4.3</t>
-  </si>
-  <si>
-    <t>佐道PDF阅读器（Xodo PDF Reader）是一个集PDF阅读和编辑功能于一身的全能PDF应用。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b56ce0bf084c</t>
-  </si>
-  <si>
-    <t>2024-09-21T17:00:41+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/70944</t>
-  </si>
-  <si>
-    <t>X-plore - 文件管理器 v4.39.02</t>
-  </si>
-  <si>
-    <t>这是一个双窗格资源管理器，同时显示两个文件夹，并且将文件复制等常见操作从一个窗格完成到另一个窗格。X-plore 在树视图中显示文件夹层次结构，以便清晰定位并快速切换到其他位置。</t>
-  </si>
-  <si>
-    <t>破解,绿色,Android,软件,X</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/fd80cfd9f912</t>
-  </si>
-  <si>
-    <t>2024-09-18T17:18:32+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95858</t>
-  </si>
-  <si>
-    <t>📈200套专业财务表格</t>
-  </si>
-  <si>
-    <t>📈200套专业财务表格，专为财务工作者精心设计，覆盖预算管理、成本控制、财务分析、税务筹划等多个财务领域。表格模板内容详尽，逻辑清晰，易于操作，能够有效提升财务工作效率，确保数据准确无误，助力企业实现精细化财务管理。</t>
-  </si>
-  <si>
-    <t>模板,财务,表格,Excel</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b5efa719365d</t>
-  </si>
-  <si>
-    <t>5.2MB</t>
-  </si>
-  <si>
-    <t>2024-10-11T17:13:55+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/71695</t>
-  </si>
-  <si>
-    <t>博树 v31.3.3Busuu语言学习，让语言学习变得更有趣，解锁高级版</t>
-  </si>
-  <si>
-    <t>博树 Busuu语言学习应用，将语言学习转化为趣味互动体验。通过丰富课程、个性化学习路径，让掌握新语言变得轻松高效。获得更多学习资源与深度评估，加速语言技能提升，让语言学习之旅更加精彩纷呈。</t>
-  </si>
-  <si>
-    <t>Android,外语,语言,博树</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/69509d606ae2</t>
-  </si>
-  <si>
-    <t>1.1GB</t>
-  </si>
-  <si>
-    <t>2024-09-20T05:59:54+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/82343</t>
-  </si>
-  <si>
-    <t>博学谷Android在线就业班</t>
-  </si>
-  <si>
-    <t>博学谷Android在线就业班是专为Android开发者设计的高质量课程，涵盖Android开发核心技术及实战项目，通过系统学习和实战演练，提升学员的Android开发能力并实现高薪就业。确保学员能够掌握扎实的知识和技能，快速适应市场需求，实现职业腾飞。</t>
-  </si>
-  <si>
-    <t>Android,就业班</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/db92588298fa</t>
-  </si>
-  <si>
-    <t>28.7GB</t>
-  </si>
-  <si>
-    <t>2024-09-15T16:27:26+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81675</t>
-  </si>
-  <si>
-    <t>产品经理学习工作资料最全合集2024年各大机构最新版合集</t>
-  </si>
-  <si>
-    <t>专为产品经理量身打造，汇集了各大知名机构的最新课程和资料，涵盖了产品管理的各个方面，包括产品设计、用户体验、市场分析、项目管理等。无论是初学者还是资深产品经理，都能在这套资料中找到适合自己的学习内容。通过系统的学习和实践，您将掌握最新的行业动态和实战技巧，提升职业竞争力。</t>
-  </si>
-  <si>
-    <t>产品经理,付费,合集</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/f56462f328cd</t>
-  </si>
-  <si>
-    <t>73GB</t>
-  </si>
-  <si>
-    <t>2024-10-12T01:40:23+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/75679</t>
-  </si>
-  <si>
-    <t>陈超-Android音视频图像处理NDK专家班（FFmpeg、OpenGLES、OpenCV）</t>
-  </si>
-  <si>
-    <t>陈超-Android音视频图像处理NDK专家班，专注于FFmpeg、OpenGLES、OpenCV等核心技术，通过实战课程深入讲解音视频处理与图像处理的原理与应用。课程由经验丰富的专家授课，涵盖从基础到进阶的全面内容，培养学员在Android音视频图像处理领域的专业能力。</t>
-  </si>
-  <si>
-    <t>安卓,音视频,OpenGL,OpenCV</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/45b2af5a1889</t>
-  </si>
-  <si>
-    <t>5.6GB</t>
-  </si>
-  <si>
-    <t>2024-09-03T16:43:23+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/70569</t>
-  </si>
-  <si>
-    <t>滴答清单 TickTick v7.3.1.2解锁高级版 强大的待办事项管理工具</t>
-  </si>
-  <si>
-    <t>TickTick Pro 是一款强大的待办事项和任务管理应用，支持无缝云端同步。无论是计划行程、做备忘录、与家庭成员分享购物清单还是与同事协作，TickTick 都能帮助您轻松完成并保持生活轨迹。此版本已解锁高级功能，支持更多清单和任务数量、多个提醒以及多人协作。</t>
-  </si>
-  <si>
-    <t>TickTick,任务管理,Android,解锁高级版,日程管理,滴答清单</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/620c38221604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50M  </t>
-  </si>
-  <si>
-    <t>2024-09-18T05:20:18+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95888</t>
-  </si>
-  <si>
-    <t>抖音发行人风口玩法，一单30，日入3000【揭秘】</t>
-  </si>
-  <si>
-    <t>大家好，相信大家都听说过抖音游戏发行人计划，但是一般做视频的收益都低的离谱，今天给带来的项目是“抖音发行人风口玩法，一单30，日入3000+”，这个项目不需要去花冤枉钱也是我自己实操过的项目，只要跟着做，都能够单个视频变现3000+，通过第三方合规渠道去变现赚取差价，月入过万很轻松，一部手机即可操作，懒人或者小白轻松上手.下面是教程和准备好的全套资料。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/dd6622567977</t>
-  </si>
-  <si>
-    <t>2024-10-12T01:13:06+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/XiangxiuNB/26080</t>
-  </si>
-  <si>
-    <t>儿童有声读物《晚安妈妈睡前故事》</t>
-  </si>
-  <si>
-    <t>儿童益智有声读物，用好听的故事和有趣的情节陪伴孩子，让他们每个夜晚都有甜蜜的收获。</t>
-  </si>
-  <si>
-    <t>儿童教育,睡前故事,有声读物</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/937c88bd1bd8</t>
+    <t>2024-10-12T23:22:33+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82709</t>
+  </si>
+  <si>
+    <t>Python企业级全技术栈开发</t>
+  </si>
+  <si>
+    <t>Python企业级全技术栈开发涵盖前端、后端、数据库和网络通信等多个层面。前端开发常用框架如Django、Flask；后端处理业务逻辑与数据存储；数据库管理使用ORM工具如SQLAlchemy；网络通信通过Socket实现。该技术栈以Python为核心，简化开发流程，提高开发效率，适用于构建功能强大的企业级应用。</t>
+  </si>
+  <si>
+    <t>全栈</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e1d0335701f8</t>
+  </si>
+  <si>
+    <t>24.2GB</t>
+  </si>
+  <si>
+    <t>2024-10-13T16:04:22+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96606</t>
+  </si>
+  <si>
+    <t>彩云天气 v7.21.2专业天气预报应用，去广告解锁会员版</t>
+  </si>
+  <si>
+    <t>彩云天气专业级天气预报应用，提供精准至分钟级的天气预测，覆盖全球范围。界面清晰，数据丰富，让您随时掌握天气变化，出行无忧。是您日常生活和出行规划不可或缺的得力助手。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/46ef2334470b</t>
+  </si>
+  <si>
+    <t>2024-10-12T23:06:56+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96498</t>
+  </si>
+  <si>
+    <t>安卓在线观看影视软件合集24_10_12更新</t>
+  </si>
+  <si>
+    <t>本期更新：囧次元【免登录】，米来影视，追剧达人，南果视频，小黄人影视</t>
+  </si>
+  <si>
+    <t>去广告,在线影视,安卓软件</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c8ab2441e7d8</t>
+  </si>
+  <si>
+    <t>2024-10-12T14:55:55+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96581</t>
+  </si>
+  <si>
+    <t>禅宗全书 禅意智慧与修行指南的集大成之作</t>
+  </si>
+  <si>
+    <t>《禅宗全书》是禅宗典籍的集大成之作，共101卷，辑录自六世纪至二十世纪之禅宗典籍五七○余部。该书分为史传、宗义、语录、清规、杂集五部，收入大量珍稀、罕见的禅门著述，如《绝观论》、《四行观》等。该书不仅收录南宗禅典籍，还包含六祖以前及北宗史料，为禅宗研究提供了宝贵资源。通过《禅宗全书》，读者可深入了解禅意智慧与修行指南。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e36f69165e40</t>
+  </si>
+  <si>
+    <t>34.7GB</t>
+  </si>
+  <si>
+    <t>2024-10-12T17:07:28+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/97345</t>
+  </si>
+  <si>
+    <t>曾国藩的正面与侧面（全四册） [套装合集] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>《曾国藩的正面与侧面》讲述了曾国藩跌宕起伏的一生，揭露了诸多不为人知的细节：一生遭遇过的五次重大挫折；与左宗棠的纠结和情谊；一生收入与支出；如何看待风水、相面、算卦和天命等。作者为我们展示了一个勤勉、务实、自律的“文正公”曾国藩，一个矛盾、挣扎的深嵌体制核心的职业官员。透过曾国藩，读者可窥见中国传统官场微妙而复杂的“潜规则”与中国特色体制的独特生存哲学。</t>
+  </si>
+  <si>
+    <t>电子书,图书,epub</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ca2a798cb8e2</t>
+  </si>
+  <si>
+    <t>2024-10-14T03:31:08+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82668</t>
+  </si>
+  <si>
+    <t>Photoshop Express - 照片编辑器应用 v16.1.239</t>
+  </si>
+  <si>
+    <t>使用 Photoshop Express 这个已有数百万人使用的好玩、快捷、易用的图片编辑工具，只要轻轻一点即可修图和设计照片，让你的创意源源不断地涌现。你可借助我们这个方便好用的修图应用程序中的润饰工具来做到锦上添花，让你最珍爱的瞬间更趋完美。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3cca83bdc4dc</t>
+  </si>
+  <si>
+    <t>2024-10-13T15:23:02+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82229</t>
+  </si>
+  <si>
+    <t>初中数学千题解合集-思美数学</t>
+  </si>
+  <si>
+    <t>《初中数学千题解》是“思美数学”团队为初中学生和数学教师量身打造的精品丛书。解答非常详细，并给出“思路点拨”，注重引导、启发，抽丝剥茧，能切实提升学生的构思能力和解题能力。</t>
+  </si>
+  <si>
+    <t>教辅</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b74a880f04b1</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>2024-10-13T01:07:48+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/97355</t>
+  </si>
+  <si>
+    <t>抖音直播间下载工具破解版  超全功能黑科技</t>
+  </si>
+  <si>
+    <t>抖音直播间下载工具是一款功能强大的黑科技软件，专为抖音直播内容的下载和录制而设计。它不仅支持高清、超清、蓝光等多种画质的下载，还具备多平台支持、自动录制、高效下载、多种格式转换和智能管理等功能。这款工具不仅适合个人用户，也非常适合直播内容创作者和运营者使用，帮助他们轻松获取和管理直播素材，提升工作效率。</t>
+  </si>
+  <si>
+    <t>神器,多功能</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c0abff884cf7</t>
+  </si>
+  <si>
+    <t>115MB</t>
+  </si>
+  <si>
+    <t>2024-10-14T03:43:32+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96820</t>
+  </si>
+  <si>
+    <t>典藏中国（全17册）</t>
+  </si>
+  <si>
+    <t>“典藏中国（全17册）”是一部全面展现中国历史文化精髓的珍贵典籍。该套书囊括了从古代到近现代的中国历史、文化、艺术、哲学等多个领域，通过深入浅出的文字与精美的插图，生动呈现了中国五千年的文明传承。无论是想要了解中国文化的读者，还是对中国历史感兴趣的学者，都能从中获得丰富的知识和深刻的启示。</t>
+  </si>
+  <si>
+    <t>书籍,图解</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/60de2033b173</t>
+  </si>
+  <si>
+    <t>523.0MB</t>
+  </si>
+  <si>
+    <t>2024-10-13T07:08:12+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/zh_vip/2505</t>
+  </si>
+  <si>
+    <t>第22期自我管理训练营高阶</t>
+  </si>
+  <si>
+    <t>第22期自我管理训练营高阶课程致力于帮助学员进阶自我管理技能，包括情绪管理、目标设定、决策策略等。课程注重实践与个性化指导，通过案例分析与团队合作，学员将深化自我认知，提升领导力与执行力，实现事业与生活的更高水平管理。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7c7fd71a655f</t>
+  </si>
+  <si>
+    <t>2024-10-12T03:16:58+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82372</t>
+  </si>
+  <si>
+    <t>孤独是一朵莲花 [小说文学] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>“人人皆可从他作品中，发现自己的模样。”——沈从文完整收录郁达夫《故都的秋》《钓台的春昼》《一个人在途上》《孤独者》等76篇传世之作。在这本书中，“孤独大师”郁达夫用他浪漫的文字，描风月山水，写故人旧事；用他深情的语言，解读孤独，道破天机——孤独才是人生，独处激发成长。当你感到孤独、迷茫时，那是心灵在成长。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e941e65fb326</t>
+  </si>
+  <si>
+    <t>2024-10-13T05:32:11+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82425</t>
+  </si>
+  <si>
+    <t>華夏再造與多元轉型：明史 [历史传记] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>黑暗停滯的時代，抑或近代文明的曙光？穿越百年迷思與爭論，重探一個被誤解朝代的價值與意義。長期以來，明代總被認定是中國歷史上政治最黑暗的時代：君主專制、宦官干政、特務荼毒；終致民變四起，朝代覆滅。近代史家比較中西近代化，又認為明朝「閉關自守」，發展停滯，是近世中國衰落和中西消長的關鍵。然而，近年來對明代深入研究的成果，傳統的負面論點受到強力挑戰與反駁。對明太祖的評價，不再停留在殘暴專制，轉而注重其開國宏規，短期內使人民安居田里。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c45f4d869dab</t>
+  </si>
+  <si>
+    <t>2024-10-13T08:17:12+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/XiangxiuNB/33297</t>
+  </si>
+  <si>
+    <t>黄帝内经 各版本大合集203套 PDF</t>
+  </si>
+  <si>
+    <t>《黄帝内经》是现存最早中医理论著作，对后世中医学理论的奠定有深远的影响。相传是黄帝与岐伯、雷公、伯高、俞跗、少师、鬼臾区、少俞等多位大臣讨论医学的记述，在四库全书中为子部医家类。</t>
+  </si>
+  <si>
+    <t>养生</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d823e03f2c32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G  </t>
+  </si>
+  <si>
+    <t>2024-10-13T12:56:16+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82523</t>
+  </si>
+  <si>
+    <t>驾考精灵 v1.7.8.5收录大量历年真题题库，涵盖多个车型，解锁会员版</t>
+  </si>
+  <si>
+    <t>驾考精灵app是一款收录大量历年真题题库的驾考学习软件，涵盖小车、客车、货车、摩托车等多种车型。它实时同步全国机动车考试题库，提供全面解析，助力用户轻松迎战驾考各科目。享受更多优质学习资源和服务，如全真模拟考试、学车视频等，帮助用户高效备考。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4c6494bc9c32</t>
+  </si>
+  <si>
+    <t>2.2GB</t>
+  </si>
+  <si>
+    <t>2024-10-13T11:55:42+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82193</t>
+  </si>
+  <si>
+    <t>极客时间-吕召刚 - Django 快速开发实战</t>
+  </si>
+  <si>
+    <t>《极客时间-吕召刚-Django快速开发实战》是一门视频课程，由资深Python开发者吕召刚主讲。课程涵盖Django框架基础、项目创建与配置、模型设计、视图与模板、表单处理、用户认证与权限管理、RESTful API开发等核心内容，通过实战项目演练，帮助学员快速掌握Django开发技能，具备独立开发Web应用的能力。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/57b7c63bc779</t>
+  </si>
+  <si>
+    <t>20.0GB</t>
+  </si>
+  <si>
+    <t>2024-10-12T16:34:55+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/97132</t>
+  </si>
+  <si>
+    <t>黄家私塾《黄先生考霸训练营》</t>
+  </si>
+  <si>
+    <t>黄家私塾《黄先生考霸训练营》是一套专注于考试备考能力提升的训练课程。该课程从记忆、语言、逻辑、数理四个维度出发，深入解析应试套路，帮助考生洞悉备考内核。通过系统的学习和训练，考生能够掌握高效的学习方法，提升学习效率，从而在考试中取得更好的成绩。该课程以实用、高效为特点，得到了广大考生的认可和好评。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6fedecb2bfed</t>
+  </si>
+  <si>
+    <t>7.4GB</t>
+  </si>
+  <si>
+    <t>2024-10-13T14:11:35+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96946</t>
+  </si>
+  <si>
+    <t>黄帝内经 各版本大合集203套PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G   </t>
+  </si>
+  <si>
+    <t>2024-10-13T11:11:26+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/XiangxiuNB/33214</t>
+  </si>
+  <si>
+    <t>凯叔讲故事《大发明 —100个影响世界的发明》</t>
+  </si>
+  <si>
+    <t>通过时间线小剧场的方式，讲述了 100 个对世界产生重大影响的发明背后的科技简史，值得每一个孩子了解和学习。</t>
+  </si>
+  <si>
+    <t>历史,有声读物</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5893c85541e5</t>
   </si>
   <si>
     <t>1.3GB</t>
   </si>
   <si>
-    <t>2024-08-12T03:13:57+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/70500</t>
-  </si>
-  <si>
-    <t>高考真题库3.0.0完全免费的历年高考真题库</t>
-  </si>
-  <si>
-    <t>高考真题库是一款提供历年高考真题的 app，完全免费，无任何广告，无需注册登录。软件支持科目和省份选择，提供详细的解析功能，并支持题目保存。无论是考生复习还是教师教学，都非常实用。丰富的题库资源帮助学生更好地准备高考，提升应试能力。</t>
-  </si>
-  <si>
-    <t>高考真题库,教育,Android,历年真题,免费使用</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/64c1f2ba67b0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41M  </t>
-  </si>
-  <si>
-    <t>2024-09-18T02:39:58+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/XiangxiuNB/26238</t>
-  </si>
-  <si>
-    <t>葛剑雄讲中国史</t>
-  </si>
-  <si>
-    <t>历史学家、复旦大学教授葛剑雄讲述中国历史的血脉精神，在兴衰、传承与变迁中，寻找中国历史的源与流。</t>
-  </si>
-  <si>
-    <t>历史</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/49ba30adb884</t>
-  </si>
-  <si>
-    <t>6.6GB</t>
-  </si>
-  <si>
-    <t>2024-08-14T07:04:50+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/81238</t>
-  </si>
-  <si>
-    <t>共生地球 v1.1.18高清卫星、外部测量、户外钓鱼地图，国产版谷歌地图</t>
-  </si>
-  <si>
-    <t>共生地球app作为国产版谷歌地图，集高清卫星影像、外部测量、户外钓鱼地图于一体。它依托54颗“吉林一号”卫星星座，提供全球高清遥感图源，支持地形地貌3D展示，并融合无人机航拍与全景图像，打造沉浸式地球探索体验。丰富的地理探索工具助力测绘规划，同时实时跟踪全球热点，赋能农业、公益及环境监测，是一款功能强大的地理信息应用。</t>
-  </si>
-  <si>
-    <t>Android,地图,地球,高清</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c29866177721</t>
-  </si>
-  <si>
-    <t>64.3MB</t>
-  </si>
-  <si>
-    <t>2024-09-13T16:15:14+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95865</t>
-  </si>
-  <si>
-    <t>古诗文网 v3.6.6发表及获取古诗文相关资料，官方更新版_去广告版</t>
-  </si>
-  <si>
-    <t>古诗文网是一款专为古诗文爱好者打造的应用。它提供了丰富的古诗文资源，涵盖了古代诗词、古文及文学名篇等，让用户能够便捷地发表及获取相关资料。应用界面简洁，无广告干扰，搜索功能强大，支持原文朗读及拼音显示，让用户享受纯净的阅读体验。</t>
-  </si>
-  <si>
-    <t>Android,新版,古诗文</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3ac80e5668c0</t>
-  </si>
-  <si>
-    <t>795.7MB</t>
-  </si>
-  <si>
-    <t>2024-10-11T17:27:58+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/XiangxiuNB/29716</t>
-  </si>
-  <si>
-    <t>国中法律通识 v1.1.3学习法律知识，内含各种合同模板</t>
-  </si>
-  <si>
-    <t>国中法律通识是一款专注于法律知识学习与应用的手机软件。它涵盖了丰富的法律内容，包括民法、刑法等多个领域的知识。提供大量专业课程，以生动的案例和清晰的讲解，帮助用户理解抽象的法律概念。软件还内置多种实用工具和常用法律模板，方便用户快速撰写法律文件或解决具体问题。注意：文书模板和计算功能仅供参考，实际使用时请根据具体情况调整，复杂法律问题需咨询专业律师。</t>
-  </si>
-  <si>
-    <t>国中法律通识</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a5e2d7639fc1</t>
-  </si>
-  <si>
-    <t>39M</t>
-  </si>
-  <si>
-    <t>2024-09-23T16:20:57+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/79740</t>
-  </si>
-  <si>
-    <t>海阔视界 v8.58安卓浏览器，连刷微博、看知乎，强大观影神器</t>
-  </si>
-  <si>
-    <t>海阔视界强大观影工具，不光除了可以追剧，甚至连刷微博以及看知乎等，整个资源的分类也是超级详细的，可以方便你随时去搜索，海量的影视资源可以随时播放，还有热点直播以及资讯等，看知乎也是非常方便的，有些功能需要你手动的去安装操作的。</t>
-  </si>
-  <si>
-    <t>Android,浏览器,观影</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/fd98428ef498</t>
-  </si>
-  <si>
-    <t>2024-09-11T10:30:37+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95890</t>
-  </si>
-  <si>
-    <t>黑马38天短视频实战训练营</t>
-  </si>
-  <si>
-    <t>价值999元的黑马38天短视频实战训练营。
-通过本课程可以帮助学员快速掌握短视频制作与运营技巧。课程涵盖创意策划、拍摄剪辑、内容营销等实用技能，通过实战演练与案例分析，助力学员在短视频领域脱颖而出，实现个人品牌与商业价值的提升。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/482cf92dd030</t>
-  </si>
-  <si>
-    <t>2024-10-12T01:18:48+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/58093</t>
-  </si>
-  <si>
-    <t>黑神话悟空 四十二项修改器 v1.0</t>
-  </si>
-  <si>
-    <t>修改器界面简洁、体积小巧、功能强大，致力于为玩家提供便捷的游戏体验。玩家可根据个人喜好和需求，轻松调整游戏内的数值设定。</t>
+    <t>2024-10-13T04:49:32+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82195</t>
+  </si>
+  <si>
+    <t>极客时间-梁宵-TypeScript开发实战</t>
+  </si>
+  <si>
+    <t>《极客时间-梁宵-TypeScript开发实战》是一门视频课程，由前阿里巴巴前端专家梁宵主讲。课程从TypeScript基础语法入手，逐步深入到类型系统、泛型、装饰器、高级类型等进阶内容，结合React、Vue等前端框架，通过实战项目演练，帮助学员全面掌握TypeScript开发技能，提升前端项目质量和开发效率。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/cd8335940ddd</t>
+  </si>
+  <si>
+    <t>8.0GB</t>
+  </si>
+  <si>
+    <t>2024-10-12T16:35:24+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82749</t>
+  </si>
+  <si>
+    <t>零基础4000词英语逆袭计划</t>
+  </si>
+  <si>
+    <t>这个零基础4000词英语逆袭计划旨在帮助学员快速掌握英语核心词汇。通过系统化学习、记忆技巧和实践运用，学员将建立起扎实的词汇基础，提升听说读写能力。课程注重实用性，让学员在短时间内实现英语学习的逆袭，轻松驾驭日常交流与学习需求。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a19c2e4d6e84</t>
+  </si>
+  <si>
+    <t>2024-10-14T00:49:00+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82753</t>
+  </si>
+  <si>
+    <t>零基础教你做出高逼格让老板忍不住加薪的excel图表</t>
+  </si>
+  <si>
+    <t>《零基础教你做出高逼格 让老板忍不住加薪的Excel图表》是一部专注于提升职场人士Excel图表制作技能的办公必备教程。该教程以视频形式呈现，通过MP4格式，使学习者能够随时随地学习，轻松掌握Excel图表制作的精髓。 在这部教程中，即使是零基础的学员也能从头开始，逐步学会如何制作出既专业又具有吸引力的Excel图表。教程涵盖了从基础操作到高级技巧的全方位内容，包括数据的整理、图表的类型选择、颜色的搭配、布局的调整等。通过详细的步骤演示和实用的技巧分享，学习者能够迅速提升自己在Excel图表制作方面的能力。</t>
+  </si>
+  <si>
+    <t>效率</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a3a79b40afbe</t>
+  </si>
+  <si>
+    <t>2024-10-14T01:06:30+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/XiangxiuNB/33171</t>
+  </si>
+  <si>
+    <t>米你课堂《摄影后期第16期》</t>
+  </si>
+  <si>
+    <t>保姆级零基础 ps 修图教学，全程通俗易懂，带你少走 99% 弯路，小白快速进阶大神。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a9e49b1161e1</t>
+  </si>
+  <si>
+    <t>66.4GB</t>
+  </si>
+  <si>
+    <t>2024-10-13T00:46:27+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82001</t>
+  </si>
+  <si>
+    <t>零售畅销秘籍 [经济管理] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>刚上市即位列日本亚马逊管理类图书榜榜首，版权已输出多个国家和地区，受到各行业读者赞誉。爆品实操手册。从商品开发到单品管理，从物流供应到商品上架技巧，本多先生将打造畅销商品的经验公开分享。?顾客来到店里的目的是什么？怎样构建畅销的店铺？怎样应对充满变化的消费者需求？在书中，作者对零售业每个细节问题都进行了深入的剖析与解答，才你打造畅销品、经营畅销店铺、应对急速变化的世界的各种方法。</t>
+  </si>
+  <si>
+    <t>电子书,epub</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ad87f6c4623f</t>
+  </si>
+  <si>
+    <t>2024-10-12T12:17:31+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/XiangxiuNB/33173</t>
+  </si>
+  <si>
+    <t>毛毛虫《李洁老师英文绘本精讲课程》</t>
+  </si>
+  <si>
+    <t>包含英文绘本精讲、英语儿歌教学、自然拼读和磨耳朵课程，从英语启蒙到英文绘本自主阅读，非常适合用来对还自己进行英语启蒙。</t>
+  </si>
+  <si>
+    <t>启蒙教育</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e48b2d1c4747</t>
+  </si>
+  <si>
+    <t>20.5GB</t>
+  </si>
+  <si>
+    <t>2024-10-13T01:19:05+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96818</t>
+  </si>
+  <si>
+    <t>理查二世 [小说文学] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>《理查二世》描写了理查二世被布林布鲁克在政治上击败、军事上围困、最后被囚被杀的整个过程。理查二世的堂弟布林布鲁克向国王揭发毛伯雷的罪恶。理查二世叫两人当场对质。结果两人各不相让，并要求用决斗来维护自己的名誉。趁着决斗的机会，理查二世铲除异己，把二人驱逐出境。亨利的父亲冈特的约翰见儿子被放逐，忧愁而死。理查二世没收了亨利应该继承的全部产业，把这些钱财充作攻打爱尔兰的军费。就在理查二世率军攻打爱尔兰之际，亨利率军拘捕了他，并让国会同意将理查废黜。理查在监牢中囚禁多时，最终被杀害。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8786c1f7bcf4</t>
+  </si>
+  <si>
+    <t>2024-10-13T07:01:07+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82361</t>
+  </si>
+  <si>
+    <t>女性史：文艺复兴与启蒙时期卷 [历史传记] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>本书为由乔治•杜比领衔的由七十余位有声望历史学家编撰的皇皇巨著《女性史》的第三卷，时间分段是从文艺复兴到启蒙时期。本卷认为，文艺的复兴与启蒙运动荡涤了陈旧的思维范式，也使得人们的精神获得新面貌。在这个新的颠覆性的思想和观念层出不穷的时代，女性也得以从教条的桎梏中解放出来，具有了更加新颖的思想，开始担任更多的社会角色。但与此同时，她们也承担起更多的社会职责，这给她们的生存处境增加了巨大的压力。也正是在这个时刻开始，女性开始登上了公共领域的舞台，获得更多的社会关注。但她已经不再仅仅是“他者”，而开始成为一个真正的主体。她们开始发出自己的声音。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c03a0d840ec1</t>
+  </si>
+  <si>
+    <t>2024-10-13T05:17:42+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82353</t>
+  </si>
+  <si>
+    <t>女性史：20世纪卷 [历史传记] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>本书为由乔治•杜比领衔的由七十余位有声望历史学家编撰的皇皇巨著《女性史》的第五卷，时间分段是在20世纪。本卷认为，在当代，女性的身份在多种文化因素的作用下开始进一步变迁，从静默的他者和被注视的客体，慢慢在大众媒体的影响下开始融合汇聚，并在20世纪中后期到达了一个文化认同的高潮。在媒介传播的影响下，女性不再是世界一隅的孤立个体，而成为一个有着相似意识形态的集体。她们享有共同的审美爱好和世界观、价值观，具有更为趋同的女性特质，女性事实上由复数逐渐向单数收缩。综上所述，20世纪是一个“女性”身份彻底被重构和确立的时代。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/444f21439663</t>
+  </si>
+  <si>
+    <t>2024-10-13T05:02:26+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82231</t>
+  </si>
+  <si>
+    <t>青年文摘2021-2024典藏版</t>
+  </si>
+  <si>
+    <t>《青年文摘》是一本以青少年核心读者群的综合类文摘刊物，由共青团中央主管，中国青年出版总社有限公司主办，创刊于1981年1月，是目前中国发行量最大的青年杂志之一，月发行最高超过300万册，创刊40年来，总印量超过8亿册。曾荣获首届国家期刊奖，在历次全国国民阅读情况调查中，连续多年入选“读者最喜爱的十种杂志”之列。《青年文摘》荟萃中外名篇佳作，是青少年健康成长、成才、成功的心灵读本，是“读者喜欢、老师叫好、家长放心”的优质读物。</t>
+  </si>
+  <si>
+    <t>epub,mobi,azw3,pdf</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5568caa6127a</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>2024-10-13T01:34:45+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/97337</t>
+  </si>
+  <si>
+    <t>酒桌秘籍、实用攻略 酒桌通吃八方的秘籍《酒饮真经》</t>
+  </si>
+  <si>
+    <t>谈起喝酒，几乎所有的人都有过切身体会，”酒文化”也是一个既古老而又新鲜的话题。现代人在交际过程中，已经越来越多地发现了酒的作用。
+的确，酒作为一种交际媒介，迎宾送客，聚朋会友，彼此沟通，传递友情，发挥了独到的作用，所以，探索一下酒桌上的”奥妙”，有助于你求人交际的成功。</t>
+  </si>
+  <si>
+    <t>社交职场</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9460ca3a41f6</t>
+  </si>
+  <si>
+    <t>2.1MB</t>
+  </si>
+  <si>
+    <t>2024-10-14T03:17:37+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/97133</t>
+  </si>
+  <si>
+    <t>全球富豪传记精读：商业思维进阶课</t>
+  </si>
+  <si>
+    <t>《全球富豪传记精读：商业思维进阶课》是由《环球人物》联合喜马拉雅FM推出的音频课程。该课程聚焦20位颠覆商业规则的传奇人物，通过剖析他们的商业传奇案例，挖掘背后的商业逻辑，提炼商业思维。课程包含硅谷英雄、实业大亨、时尚先锋、金融巨头、亚洲奇迹五大核心模块，帮助学员深入了解商业世界的运行规则，提高决策能力和创新思维。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/37e78afc9cdd</t>
+  </si>
+  <si>
+    <t>236.8MB</t>
+  </si>
+  <si>
+    <t>2024-10-13T14:12:00+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/zh_vip/2504</t>
+  </si>
+  <si>
+    <t>曲奇儿童摄影第十一期课程</t>
+  </si>
+  <si>
+    <t>曲奇儿童摄影第十一期课程专为希望精进儿童摄影技巧的摄影师设计。课程内容涵盖儿童摄影的基础理论、拍摄技巧、场景布置和后期处理。通过实战演练和专业指导，学员将学会捕捉儿童自然真实的瞬间，提升儿童摄影的艺术表达和技术水平。</t>
+  </si>
+  <si>
+    <t>摄影剪辑</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c2cbd2fc18b9</t>
+  </si>
+  <si>
+    <t>2024-10-12T02:06:33+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96580</t>
+  </si>
+  <si>
+    <t>人教版高中英语全套学习资料（MP3+MP4）含单词表</t>
+  </si>
+  <si>
+    <t>人教版高中英语全套学习资料（MP3+MP4）含单词表是一套专为高中生设计的英语学习资源，帮助学生全面提升英语听、说、读、写各方面的能力。这套资料以人教版高中英语教材为基础，结合了丰富的音频和视频材料，以及详细的单词表，为学生提供了一个全面而系统的学习平台。</t>
+  </si>
+  <si>
+    <t>英语人教版</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f1ba71bcdc5e</t>
+  </si>
+  <si>
+    <t>1.9GB</t>
+  </si>
+  <si>
+    <t>2024-10-12T17:07:09+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96602</t>
+  </si>
+  <si>
+    <t>全球好书100本喜马拉雅有声读物【在线可听】</t>
+  </si>
+  <si>
+    <t>由上万本书中精选而出，涵盖名著、历史、情商、传记、生活、思维跃迁等十大门类。由海外知名院校大咖牛人，打破原有知识目录，逻辑再造，将每本书浓缩成30分钟的精华解读，帮助听众“把书读薄”，省时高效。此系列内容丰富多样，全面提升听众的气质、修养、学识和眼界，是广大听众不可多得的精神食粮。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ef2bacb42f3f</t>
+  </si>
+  <si>
+    <t>2.7GB</t>
+  </si>
+  <si>
+    <t>2024-10-12T21:06:42+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96822</t>
+  </si>
+  <si>
+    <t>商业财经100本好书解读.喜马讲书.演播喜马讲书</t>
+  </si>
+  <si>
+    <t>《商业财经100本好书解读》是喜马拉雅自制的《喜马讲书》系列中的一个重要专辑，通过精炼的讲解，带领听众深入了解商业财经领域的经典与前沿书籍。该专辑精选了包括《富爸爸穷爸爸》、《巴菲特致股东的信》、《创新者》等在内的100本商业财经好书，内容覆盖投资理财、商业洞察、企业管理、市场营销等多个方面。每期节目用约30分钟的时间，深入剖析书籍精华，帮助听众快速掌握书中要点，提升财商与商业素养。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/847d84fb59ab</t>
+  </si>
+  <si>
+    <t>2024-10-13T07:10:37+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96824</t>
+  </si>
+  <si>
+    <t>私人图书馆员 [历史传记] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>一介身怀祕密的年轻女子，如何能博得摩根大通的青睐，又是如何让自己在上流社会的艺术世界立足？二十六岁的贝儿．达科斯塔．格林，原本只是个为家中经济重担挣扎的贫穷女孩，从未想过能有机会得到纽约金融钜子J.P.摩根的聘用，以私人图书馆员的身分，为刚落成的摩根图书馆收购一系列珍贵的手稿、珍本和艺术品。众所皆知，J.P.摩根喜怒无常且是个花花公子，然而，他同时也是一名出价不手软的收藏家。当贝儿惴惴不安地跟随摩根踏入纽约上流社会，她深知自己没有失败的余地──因为她有个必须带进坟墓里的祕密，一旦曝光，她和她的家人便万劫不复。可是，一介年轻女子要寻得立足之地并不容易。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c89b66d558d8</t>
+  </si>
+  <si>
+    <t>2024-10-13T07:16:08+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/97347</t>
+  </si>
+  <si>
+    <t>私塾认知体系精进训练营课程</t>
+  </si>
+  <si>
+    <t>私塾认知体系精进训练营，致力于深度拓展个体认知边界。通过系统化学习与实践，课程涵盖认知科学、逻辑思维、问题解决与创新等核心模块，帮助学员建立全面有效的认知结构与应用能力。</t>
+  </si>
+  <si>
+    <t>长点知识</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/60b72deebeeb</t>
+  </si>
+  <si>
+    <t>2024-10-14T03:31:38+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/zh_vip/2507</t>
+  </si>
+  <si>
+    <t>全能影视创作0基础到大神</t>
+  </si>
+  <si>
+    <t>全能影视创作0基础到大神课程旨在从零开始教授影视制作的全过程。学员将学习剧本写作、拍摄技巧、后期制作等关键技能。通过理论与实践相结合的教学方式，课程帮助学员掌握从构思到成片的每一个步骤，培养成为影视创作领域的专业人才。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1ad574c8a3da</t>
+  </si>
+  <si>
+    <t>2024-10-13T00:30:02+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96718</t>
+  </si>
+  <si>
+    <t>双重迭代 [经济管理] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>我国的工业化后期和数字化时代同时到来，商业模式迎来双重迭代。本书剖析了一些全球著名品牌诞生、发展的案例及其诞生的时代背景，将其和我国当下的一些创新型消费品模式案例进行了对比分析，提出了一些和国内主流观点不同的看法，颠覆了一些业界流传甚广的惯性认知，总结了有价值的经验和理念。本书适合消费品领域的创业者、管理者和其他相关人员阅读。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f41894901312</t>
+  </si>
+  <si>
+    <t>2024-10-13T04:16:11+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/81994</t>
+  </si>
+  <si>
+    <t>隋唐制度渊源略论稿 唐代政治史述论稿 [历史传记] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>这本书以陈寅恪执教期间备课讲义及其它零散史学原稿结集出版，为海内首次付印。遵作者生前愿望，全书采用繁体字竖排，人名、地名、书名均不加符号注明，一般采用通行字，保留少数异体字。这本书中纠正了王鸣盛十七史商榷中王遵绝无功业之说。列举史实，证述遵在东晋初年，团结江东境内诸政治社会力量，共同抵御北方盛强胡族之侵略。当时中国之文化，因而得以保存，故其功实不可没。文中又分析南来北人之社会階層及居住地域，并论其与后来南朝史事之关系。篇末附载近年广州出土晋墓磗铭，亦可供治史者之参证。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e2b3b89adc13</t>
+  </si>
+  <si>
+    <t>2024-10-12T12:02:31+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82431</t>
+  </si>
+  <si>
+    <t>西尾维新“忘却侦探”系列（1-8册) [套装合集] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>本书为西尾维新“忘却侦探”系列1-8册。包括《掟上今日子的备忘录》《掟上今日子的推荐文》《掟上今日子的挑战书》《掟上今日子的遗言书》《掟上今日子的辞职信》《掟上今日子的婚姻届》《掟上今日子的家计薄》《掟上今日子的旅游记》。美女侦探今日子小姐的记忆只能保持一天，一旦入睡，记忆就会重置。因此作为“最快侦探”，她必须要在一天内解决案件。身材娇小、满头白发的她因其出众的外表，时尚的穿搭非常惹人注目，同时她也是个“斤斤计较”视财如命的成熟社会人。对于自己应得的，一分也不能差！</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e9fa6dbb1bbc</t>
+  </si>
+  <si>
+    <t>2024-10-13T08:32:10+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/97146</t>
+  </si>
+  <si>
+    <t>我们的庸常生活 [小说文学] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>《我们的庸常生活》是新锐作家张畅所著的当代短篇小说集，包含12则短篇小说，笔调简洁冷峻，直面当今年轻人面临的生活困境。代代相传的孤独、忠诚而相互伤害的家人、渐渐形同陌路的夫妇、忽然消失踪影的丈夫……这些故事共同的主题是，在被消耗的人生中，人是如何自处的，又是如何改变所面临的困境。“这本小说集是平凡生活的裂缝时刻，是齿轮卡顿的瞬间，也是潮水的一次次呼吸。”作者以充满文学性的笔法，描写普通人的情感和日常生活中的冲突，捕捉人与人之间微妙的联系，告诉每一位读者，即使在平淡庸常的日子里，也要发现身边的细碎光芒。而当我们的生活被化作故事来审视时，就有获得抚慰乃至拯救的可能。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/202f63055481</t>
+  </si>
+  <si>
+    <t>2024-10-13T14:46:09+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96287</t>
+  </si>
+  <si>
+    <t>西方美学史丛书（全七册） [套装合集] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>《西方美学史》（七卷本）是由我国著名美学家、复旦大学蒋孔阳教授和朱立元教授对西方从古希腊到当代两千多年美学发展的历程做的全方位梳理，丛书体系宏大、史料丰富、视角新颖、结构缜密，堪称迄今为止国内外第一部最为完备的西方美学通史。本次出版是在十年前版本上修订的新版，除修订了大量文字、补充了十年来部分国外最新资料外，丛书作者、美编、编辑还赴世界各地博物馆，拍摄了大量第一手图片，制作成精美插图插入书中，本套丛书集趣味性与专业性、阅读性与资料性于一体，既适合人文学科专业的读者阅读，又适合对美学感兴趣的大众读者阅读。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/049b68d10c61</t>
+  </si>
+  <si>
+    <t>2024-10-12T11:16:28+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/XiangxiuNB/33249</t>
+  </si>
+  <si>
+    <t>喜马拉雅 v9.2.94.3精简版 _3.3.16.3极速版</t>
+  </si>
+  <si>
+    <t>喜马拉雅是一款功能强大的音频分享和有声阅读平台，凭借海量的优质音频内容和丰富的节目种类，满足用户的听书和娱乐需求。支持有声小说、相声评书、儿童教育、情感生活、娱乐资讯等多个领域。精简版删除了多余的广告和无用功能，提供极简的听书体验；极速版提供全面的听书功能，包括下载、定时、倍速、节目分类等，并已去除所有广告和弹窗。下载并安装对应版本的 APK，打开应用，选择感兴趣的音频内容，使用定时播放、倍速功能等提升体验。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1b1870fda1ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73M  </t>
+  </si>
+  <si>
+    <t>2024-10-13T08:37:37+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96282</t>
+  </si>
+  <si>
+    <t>现当代文坛大家佳作精选（套装共12册） [套装合集] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>季羡林《读书与做人》★《读书与做人》是季羡林读书感悟和为人处世的经验集锦。★清华大学等著·名高校真诚推荐，央·视一套、《三联生活周刊》等权·威媒体倾情转载，鼓励读者求知向上，自我完善的经典。★季羡林：著名语言学家、文学家和教育家，北京大学终身教授。曾担任北京大学副校长、中国社会科学院南亚研究所所长。主要作品：《留德十年》《牛棚杂忆》《病榻杂记》《清华园日记》及众多学术著作。李娟《九篇雪》★《九篇雪》书写的是李娟少女时代跟随家人在新疆阿勒泰草原生活的故事。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d88337ea17f6</t>
+  </si>
+  <si>
+    <t>2024-10-12T11:01:10+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/zh_vip/2503</t>
+  </si>
+  <si>
+    <t>小可鲁贝洛斯水彩第14期课</t>
+  </si>
+  <si>
+    <t>小可鲁贝洛斯水彩第14期课程专为水彩画爱好者设计。课程内容包括水彩基础技巧、色彩论、风景与静物画技巧。通过系统的教学和丰富的实践活动，学员将掌握水彩画的核心技术，提升个人艺术表达能力，发掘自身独特的创作风格。</t>
+  </si>
+  <si>
+    <t>美工修图</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8a772417040c</t>
+  </si>
+  <si>
+    <t>2024-10-12T00:52:58+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96826</t>
+  </si>
+  <si>
+    <t>笑傲江湖（修订版）(全4册) [套装合集] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>★修订版，也称新版，三联版，流传最广，首次阅读推荐此版本！★金庸小说总共有3个版本，即通常说的旧版、修订版（也称三联版）、新修版。旧版是金庸于当年（1955年到1972年）在报纸上连载小说时的版本。修订版是金庸在连载完鹿鼎记，宣布封笔后，花了数年时间来修改连载版的小说，修改后的版本称为修订版，也就是通常所说的三联版，因为三联出版社出版的金庸全集很受欢迎，所以大部分人都称修订版为三联版，这是金庸小说流行最广的版本，本链接为此版本。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/537b497a90c5</t>
+  </si>
+  <si>
+    <t>2024-10-13T07:31:08+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96119</t>
+  </si>
+  <si>
+    <t>性感女神黄雅英瑜伽视频教程</t>
+  </si>
+  <si>
+    <t>韩国瑜伽女神黄雅英合集2.mp4 
+韩国瑜伽女神黄雅英合集11.mp4 
+韩国瑜伽女神黄雅英合集1.mp4 
+韩国瑜伽女神黄雅英合集37.mp4 
+韩国瑜伽女神黄雅英合集6.mp4 
+韩国瑜伽女神黄雅英合集27.mp4 
+韩国瑜伽女神董雅英合集17.mp4 
+韩国瑜伽女神黄雅英合集5.mp4</t>
+  </si>
+  <si>
+    <t>美女</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c933065ac8a1</t>
+  </si>
+  <si>
+    <t>2024-10-12T07:24:29+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82763</t>
+  </si>
+  <si>
+    <t>心理学疗愈课程  超全大合集 书籍+mp3音频+视频课</t>
+  </si>
+  <si>
+    <t>《心理学疗愈课程 超全大合集》是一套全面的心理学资源包，旨在帮助人们通过多种形式的学习和实践，提升心理健康水平。这套合集包括书籍、MP3音频和视频课程，内容丰富，形式多样，适合不同学习偏好的用户。不仅适合心理学爱好者，也非常适合希望通过自我学习提升心理健康的普通人群。通过系统的学习和实践，用户可以更好地理解自己，改善心理状态，过上更加健康和幸福的生活。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5b7b08c06bcd</t>
+  </si>
+  <si>
+    <t>398GB</t>
+  </si>
+  <si>
+    <t>2024-10-14T01:31:08+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/81984</t>
+  </si>
+  <si>
+    <t>阅读搭建精神天梯 [学习教育] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>阅读，是教育的基石。阅读，也是新教育实验的基石。阅读研究，是新教育用力最多、成效最明显的领域。这本《阅读搭建精神的天梯——新阅读教育论纲》，就是新教育实验发起人朱永新先生对新教育20多年推进全民阅读与书香校园建设的历程和经验的系统梳理和总结。本书主要包括三部分。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a5b652213f93</t>
+  </si>
+  <si>
+    <t>2024-10-12T11:47:45+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/XiangxiuNB/33357</t>
+  </si>
+  <si>
+    <t>英汉百科图解大词典</t>
+  </si>
+  <si>
+    <t>一部规模宏大、分类详细、知识性强、图文并茂的大型百科图解词典。共收录 40000 余个词条，覆盖社会、科技、天文、地理、经济、艺术、体育、医学、动植物等诸多领域，每个术语下面都配有浅显易懂的英文解释，既可帮助读者理解术语内涵，又可帮助读者理解和掌握英语词汇，提升英语水平。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/395714db12f3</t>
+  </si>
+  <si>
+    <t>2.4GB</t>
+  </si>
+  <si>
+    <t>2024-10-14T02:48:04+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82707</t>
+  </si>
+  <si>
+    <t>幼儿基础控笔技能训练资源包</t>
+  </si>
+  <si>
+    <t>幼儿基础控笔技能训练资源包是一套专为幼儿设计的控笔练习材料，包含多种控笔训练游戏和练习册。通过趣味性的图案和逐步升级的训练难度，帮助幼儿掌握正确的握笔姿势，提高手腕灵活性和手部肌肉协调性，为日后的书写和绘画打下坚实基础。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8d18abcf4f7f</t>
+  </si>
+  <si>
+    <t>403.8MB</t>
+  </si>
+  <si>
+    <t>2024-10-13T16:01:09+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/97212</t>
+  </si>
+  <si>
+    <t>中国十大古典名曲鉴赏</t>
+  </si>
+  <si>
+    <t>中国十大古典名曲鉴赏涵盖了《高山流水》、《梅花三弄》、《春江花月夜》、《汉宫秋月》、《阳春白雪》、《渔樵问答》、《胡笳十八拍》、《广陵散》、《平沙落雁》及《十面埋伏》。这些曲目旋律优美，意境深远，分别通过不同的音乐语言展现了自然之美、人生哲理及历史故事，是中国传统音乐文化的瑰宝，深受国内外听众的喜爱。</t>
+  </si>
+  <si>
+    <t>音频</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c66284c34bc6</t>
+  </si>
+  <si>
+    <t>2024-10-13T16:15:17+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/97222</t>
+  </si>
+  <si>
+    <t>中国自助游手册，2400+景点信息国家级旅游度假区，文化体验，旅行线路与美食推荐</t>
+  </si>
+  <si>
+    <t>《中国自助游手册》涵盖2400多个景点信息，包括国家级旅游度假区，提供丰富的文化体验介绍、精心规划的旅行线路以及地道的美食推荐。该手册是旅行者必备的实用工具，帮助游客深入了解中国各地的风土人情，轻松规划并享受完美的自助游之旅。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fea7b76f1aa9</t>
+  </si>
+  <si>
+    <t>817.7MB</t>
+  </si>
+  <si>
+    <t>2024-10-13T16:42:27+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82234</t>
+  </si>
+  <si>
+    <t>影梭 v1.12.1｜无需ROOT权限定位修改神器</t>
+  </si>
+  <si>
+    <t>影梭是一款基于Android调试API和百度地图及定位SDK实现的虚拟定位APP，无需ROOT权限即可随意修改当前位置及模拟移动。支持的功能包括：定位修改、摇杆控制移动、历史记录、位置搜索。使用影梭可以轻松修改自己的当前位置，并模拟移动轨迹。下载并安装APK，启动影梭，赋予相关权限，单击地图位置，然后点击启动按钮即可。</t>
+  </si>
+  <si>
+    <t>免费</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fbd70a3f418a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16M  </t>
+  </si>
+  <si>
+    <t>2024-10-13T01:44:39+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82868</t>
+  </si>
+  <si>
+    <t>真我布蘭妮 [历史传记] [pdf+全格式]</t>
+  </si>
+  <si>
+    <t>她用六年的時間成為全球皆知的超級偶像，卻用了將近四十年的時間，才找回屬於自己的自由與希望。從小她就知道自己期望在舞台上享受無數目光，也在第一張專輯發行後的短短一個月拿下了雙白金認證的偉大成就，一時間，全世界都崇拜著她的甜心模樣。沒人知道，她踏上夢想之路的那一刻，就被父親摘去了翅膀，從此在其陰影之下無助徬徨。沒人知道，她愛得最深的那一段戀情，卻遭受了殘酷的冷漠對待，甚至被眾人投射了「放蕩」的目光。與此同時，她在外人眼中猶如失控列車一般，閃婚閃離、剃頭現身、與狗仔對峙，但這卻是她一次又一次試圖找回自由與自我的無聲抵抗。直到2021年6月，全世界都在聆聽布蘭妮‧斯皮爾斯在公開法庭上的發言。...</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4894550c43b9</t>
+  </si>
+  <si>
+    <t>2024-10-14T04:32:13+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/yunpanshare/82233</t>
+  </si>
+  <si>
+    <t>自我管理训练初阶掌握主动权</t>
+  </si>
+  <si>
+    <t>"自我管理训练初阶"课程帮助学员掌握主动权，提升个人管理技能。学习内容包括目标设定、时间管理、优先事项处理等。通过实用技巧和案例分析，学员将学会有效规划、组织和执行任务，实现个人和职业目标。这门课程将帮助你在生活和工作中更加高效和自信地管理自己。</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f413806c7cfa</t>
+  </si>
+  <si>
+    <t>2024-10-13T01:41:00+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96283</t>
+  </si>
+  <si>
+    <t>周鸿祎、王兴、罗振宇、徐小平、李开复、马云的创投经验</t>
+  </si>
+  <si>
+    <t>周鸿祎、王兴、罗振宇、徐小平、李开复、马云等人在创投领域各具特色。周鸿祎强调无畏精神与特种训练；王兴注重IT能力与地推管理；罗振宇以轻资产创业、前期小规模测试著称；徐小平擅长发掘市场空白，投资年轻人需求项目；李开复倡导低投入创业，把握市场机遇；马云则凭借敏锐洞察与阿里巴巴集团创始人身份闻名，他们的经验为创业者提供了宝贵借鉴。</t>
+  </si>
+  <si>
+    <t>书籍,商业,互联网</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/cef3add9bd97</t>
+  </si>
+  <si>
+    <t>72.6MB</t>
+  </si>
+  <si>
+    <t>2024-10-12T11:05:25+00:00</t>
+  </si>
+  <si>
+    <t>https://t.me/kuakeyun/96819</t>
+  </si>
+  <si>
+    <t>终身学习与认知升级（套装共7册）</t>
+  </si>
+  <si>
+    <t>《终身学习与认知升级》（套装共7册）是一套系统提升个人认知能力和学习能力的书籍。该套装涵盖了认知科学、学习方法、知识管理等多个方面，帮助读者掌握高效学习策略，不断优化认知结构，实现个人成长与职业发展的双重飞跃，为终身学习者提供全面而深入的指导。</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>PC游戏,黑神话悟空,辅助工具</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d3387edae35f</t>
-  </si>
-  <si>
-    <t>1MB</t>
-  </si>
-  <si>
-    <t>2024-08-22T08:11:46+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81768</t>
-  </si>
-  <si>
-    <t>华为访谈录 [经济管理] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>华为是如何发展到今天的？任正非是一个怎样的人？关于这两个问题，有各种各样的来自各个方面的解答，唯独华为人自己的声音不是很多。华为公司顾问田涛在2013年至2019年6年时间内，对华为上至高层下至普通员工共几百人进行了访谈，《华为访谈录》是这些访谈的第一部结集成果。...</t>
-  </si>
-  <si>
-    <t>经济管理,电子书,图书,pdf,epub,华为访谈录</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/95ded78cfefc</t>
-  </si>
-  <si>
-    <t>2024-10-12T04:47:41+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/XiangxiuNB/32973</t>
-  </si>
-  <si>
-    <t>黄夫人《高考物理一轮复习视频课》</t>
-  </si>
-  <si>
-    <t>紧跟讲义，包括运动学、电学实验、曲线运动、万有引力等，十分适合高中物理成绩不好的同学学习。</t>
-  </si>
-  <si>
-    <t>高中,物理</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/638faa3c2d5f</t>
-  </si>
-  <si>
-    <t>13.8GB</t>
-  </si>
-  <si>
-    <t>2024-10-12T01:50:35+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95853</t>
-  </si>
-  <si>
-    <t>极客时间-python进阶训练营</t>
-  </si>
-  <si>
-    <t>《极客时间-Python进阶训练营》是一个系统性的在线学习课程，帮助学员深入掌握Python编程语言。课程覆盖Python高级特性、数据结构、算法优化、并发编程、网络编程、Web开发等核心内容，通过实战项目与代码挑战，提升学员的编程能力和解决问题的能力，助力学员在Python开发领域取得更大的进步。</t>
-  </si>
-  <si>
-    <t>极客时间,python</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/271650559336</t>
-  </si>
-  <si>
-    <t>10.2GB</t>
-  </si>
-  <si>
-    <t>2024-10-11T17:07:17+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95856</t>
-  </si>
-  <si>
-    <t>极客时间-彭婧田 - TensorFlow 快速入门与实战</t>
-  </si>
-  <si>
-    <t>《极客时间-彭婧田-TensorFlow快速入门与实战》是一门视频课程，由TensorFlow官方认证讲师彭婧田主讲。课程从TensorFlow基础入门，逐步深入到神经网络模型构建、模型训练与优化、实战项目应用等，帮助学员快速掌握TensorFlow框架，具备进行深度学习模型开发与应用的能力。</t>
-  </si>
-  <si>
-    <t>极客时间,TensorFlow,实战</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/aefc51c0cf8c</t>
-  </si>
-  <si>
-    <t>14.0GB</t>
-  </si>
-  <si>
-    <t>2024-10-11T17:12:02+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/85307</t>
-  </si>
-  <si>
-    <t>极客学院安卓Android全套视频教程+源码</t>
-  </si>
-  <si>
-    <t>极客学院安卓Android全套视频教程+源码是一套全面覆盖Android开发从基础到进阶的实战课程。通过系统视频讲解，结合丰富的项目实战案例，深入浅出地教授Android应用开发技术，包括UI设计、控件使用、Activity与Fragment管理、网络编程、数据存储、多媒体处理及性能优化等。附带完整源码，帮助学习者边学边练，快速掌握Android开发技能，实现从零到精通的飞跃。</t>
-  </si>
-  <si>
-    <t>安卓,开发,编程</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5dfb1da759d3</t>
-  </si>
-  <si>
-    <t>17.2GB</t>
-  </si>
-  <si>
-    <t>2024-09-21T14:09:41+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/67087</t>
-  </si>
-  <si>
-    <t>开发助手 v8.1.0快速调试应用开发助手，查看手机软硬件相关信息</t>
-  </si>
-  <si>
-    <t>开发助手是一个强大的Android开发工具，能够用来反编译其他应用、查看其他应用布局和控件信息、屏幕取色(颜色取样器)、查看Activity历史记录、查看应用Manifest、查看最近使用和最近安装的应用、提取任何应用Apk和So文件、查看开源项目、调试应用、查看手机软硬件信息等。</t>
-  </si>
-  <si>
-    <t>Android,开发,调试,硬件,开发助手</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ad0625f3d73a</t>
-  </si>
-  <si>
-    <t>98.6MB</t>
-  </si>
-  <si>
-    <t>2024-09-11T10:01:58+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/84352</t>
-  </si>
-  <si>
-    <t>拷贝漫画 v2.2.3免费阅读大量的漫画，手机看番神器，去广告版</t>
-  </si>
-  <si>
-    <t>一个漫画阅读器，允许用户免费阅读大量的漫画。它可以向网络上的用户复制大量的卡通资源。因此，用户可以在这里得到他们喜欢的漫画，甚至是那些非常冷门的漫画，也很容易得到。</t>
-  </si>
-  <si>
-    <t>Android,阅读,漫画</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c42b4c58898c</t>
-  </si>
-  <si>
-    <t>385.8MB</t>
-  </si>
-  <si>
-    <t>2024-09-19T19:04:03+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/73598</t>
-  </si>
-  <si>
-    <t>可乐下载器 v2.0.4一款好用的磁力解析下载工具，会员解锁版</t>
-  </si>
-  <si>
-    <t>可乐下载器是一款高效磁力解析下载利器，开放高级功能，支持多源下载，加速技术确保文件快速到手。界面简洁直观，操作流畅，轻松管理下载任务。满足用户各类资源下载需求，是磁力链接下载的不二之选。</t>
-  </si>
-  <si>
-    <t>Android,磁力,下载,工具,可乐下载器</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/bc73a3d441b4</t>
-  </si>
-  <si>
-    <t>48.2MB</t>
-  </si>
-  <si>
-    <t>2024-09-23T16:50:03+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81776</t>
-  </si>
-  <si>
-    <t>口述历史开创者：唐德刚经典作品集.2（共6册） [套装合集] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>本套书是海内外公认的史学大家唐德刚经典作品的合集，包含《从晚清到民国》《书缘与人缘》《史学与红学》《胡适杂忆》《历史的三峡》六部作品。内容涉及中国近代史上的众多历史事件和人物，史料丰富，文笔洒脱，题材稀缺，弥足珍贵，是了解中国近代史绕不过去的经典。《从晚清到民国》：曲折动荡的长江三峡，是中国人的骄傲，也是中国自然史上的潮信地带。鸦片战争，揭开了十九世纪开始的中国两千年一遇的“社会文化大转型”现象的序幕。在史学大家唐德刚的慧眼中，“人文史观”一如“自然史观”，1840年的一场战争不仅掀起了中国社会政治形态的大变革，也使历史长河须历经百年的诡谲动荡，方能通过三峡进入壮阔的太平洋。...</t>
-  </si>
-  <si>
-    <t>套装合集,电子书,图书,pdf,epub,口述历史开创者</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b307c1310db8</t>
-  </si>
-  <si>
-    <t>2024-10-12T05:02:29+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/70433</t>
-  </si>
-  <si>
-    <t>酷漫熊 v1.0.2免费漫画神器，去广告纯净版</t>
-  </si>
-  <si>
-    <t>酷漫熊是一款免费的漫画阅读神器，提供去广告纯净版体验。汇聚海量热门漫画资源，界面简洁友好，加载迅速，阅读流畅。支持多种阅读模式与个性化设置，满足不同用户的阅读需求，是漫画爱好者的理想选择。</t>
-  </si>
-  <si>
-    <t>Android,漫画,纯净版,酷漫熊</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3b0aa45ee162</t>
-  </si>
-  <si>
-    <t>33.6MB</t>
-  </si>
-  <si>
-    <t>2024-09-17T15:33:57+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/XiangxiuNB/32986</t>
-  </si>
-  <si>
-    <t>快手汤老师英语课程合集</t>
-  </si>
-  <si>
-    <t>包括自然拼读、高级发音技巧、语法课精讲等内容，帮助你系统提升英语学习能力。</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c51e889b8f6e</t>
-  </si>
-  <si>
-    <t>124GB</t>
-  </si>
-  <si>
-    <t>2024-10-12T02:10:45+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/81242</t>
-  </si>
-  <si>
-    <t>快影 v6.61.0.661002快影强大的视频编辑功能软件，去广告去水印版</t>
-  </si>
-  <si>
-    <t>快影v6.54.0.654002是一款功能强大的视频编辑软件，专为追求高效与创意的视频制作者打造。去广告去水印版让用户享受纯净编辑体验，无干扰地发挥创意。软件提供丰富的剪辑工具、滤镜特效及字幕模板，支持多轨道编辑、智能剪辑等功能，让视频制作更加专业、便捷。无论是短视频还是长片，快影都能助您轻松打造精彩作品。</t>
-  </si>
-  <si>
-    <t>Android,编辑,软件,视频</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5d6ec6ad984c</t>
-  </si>
-  <si>
-    <t>2.1GB</t>
-  </si>
-  <si>
-    <t>2024-09-13T16:20:58+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95859</t>
-  </si>
-  <si>
-    <t>厉老师1-6年级系统数学思维提升课</t>
-  </si>
-  <si>
-    <t>厉老师1-6年级系统数学思维提升课是一套全面而深入的数学课程，专为小学1至6年级的学生设计。厉老师凭借其丰富的教学经验和深厚的数学功底，将抽象的数学概念转化为生动有趣的实例，帮助学生轻松掌握数学知识。课程系统性强，从基础知识讲起，逐步引入更高级的数学概念，构建完整的数学思维体系。</t>
-  </si>
-  <si>
-    <t>数学,小学,提升</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3a8fd8ae2051</t>
-  </si>
-  <si>
-    <t>52.8GB</t>
-  </si>
-  <si>
-    <t>2024-10-11T17:15:01+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/XiangxiuNB/29717</t>
-  </si>
-  <si>
-    <t>聆韵听书1.0.7去广告版，免费听书，界面美观，资源丰富</t>
-  </si>
-  <si>
-    <t>聆韵听书是一款免费听书软件，提供众多丰富、优质的有声书资源，让你一键播放听小说，随时沉浸在精彩的故事中。软件收录了全网热门书源，涵盖相声评书、小说、音乐、儿童等分类，你想听的都能搜到。目前无广告，体验非常不错。</t>
-  </si>
-  <si>
-    <t>聆韵听书</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/df62b77cc8c8</t>
-  </si>
-  <si>
-    <t>28M</t>
-  </si>
-  <si>
-    <t>2024-09-23T16:21:00+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95860</t>
-  </si>
-  <si>
-    <t>马士兵教育-PostgreSQL关系型数据库（分章节版）</t>
-  </si>
-  <si>
-    <t>马士兵教育-PostgreSQL关系型数据库（分章节版）是马士兵教育官网推出的课程，系统介绍了PostgreSQL这一功能强大的开源数据库系统。课程涵盖了PostgreSQL的特点、安装配置、基本操作、数据类型、图形化界面操作等内容，帮助学员快速掌握PostgreSQL的使用和开发技巧，提升数据库管理和应用能力。</t>
-  </si>
-  <si>
-    <t>数据库,PostgreSQL,编程</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d72e7a5ffe64</t>
-  </si>
-  <si>
-    <t>3.4GB</t>
-  </si>
-  <si>
-    <t>2024-10-11T17:22:06+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/66005</t>
-  </si>
-  <si>
-    <t>美图设计室 v6.5.10商业设计利器，海报、商品图处理，消除、智能抠图，解锁会员版</t>
-  </si>
-  <si>
-    <t>美图设计室作为商业设计的强大工具，集海报设计、商品图精修于一体，支持消除瑕疵与智能抠图功能，轻松打造专业级视觉效果。解锁会员版后，尽享无限创意素材与高级编辑权限，助力设计师高效完成创意作品。</t>
-  </si>
-  <si>
-    <t>Android,解锁,海报,会员,设计,商业,美图设计室</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/060ae2fe25f5</t>
-  </si>
-  <si>
-    <t>2.7GB</t>
-  </si>
-  <si>
-    <t>2024-09-09T06:43:08+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/zh_vip/2471</t>
-  </si>
-  <si>
-    <t>摩吉影像全能婚礼创作社区2.0</t>
-  </si>
-  <si>
-    <t>摄影剪辑</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/31b3228bd48c</t>
-  </si>
-  <si>
-    <t>2024-10-06T23:24:36+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/84403</t>
-  </si>
-  <si>
-    <t>墨迹天气 v9.0878.02提供穿衣和出行建议，去广告解锁会员版</t>
-  </si>
-  <si>
-    <t>墨迹天气app，精准预报为您量身打造穿衣与出行建议。实时天气数据，全面生活指数，让您轻松应对天气变化，出行无忧，生活更精彩。</t>
-  </si>
-  <si>
-    <t>Android,天气</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6f4eda5a9dfd</t>
-  </si>
-  <si>
-    <t>3.1GB</t>
-  </si>
-  <si>
-    <t>2024-09-20T02:05:54+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81779</t>
-  </si>
-  <si>
-    <t>普通人快速逆袭的26堂必修课  《超级演说家》全国总冠军亲授</t>
-  </si>
-  <si>
-    <t>《普通人快速逆袭的26堂必修课》是由《超级演说家》全国总冠军刘媛媛亲授的一套实用课程。这套课程旨在帮助普通人通过系统的学习和实践，实现快速逆袭，取得人生的成功。
-刘媛媛以自身从农村考上北大、成为演讲冠军、创办公司的经历为例，分享了她在学习、演讲、职业发展等方面的宝贵经验。课程内容涵盖了学习方法、时间管理、演讲技巧、职业规划等多个方面，提供了具体的策略和实用的技巧，帮助学员提升个人能力，突破自我限制。</t>
-  </si>
-  <si>
-    <t>付费,逆袭,刘媛媛</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6864b5eb592a</t>
-  </si>
-  <si>
-    <t>2024-10-12T05:08:43+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/96004</t>
-  </si>
-  <si>
-    <t>儒学新论 [人文社科] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>为黑龙江大学“龙江哲学研究丛书”一本。本书从人物研究、概念研究、比较研究、宏观研究四个方面展现儒学的发展与构成，展现儒学发展的契机和出路。1.人物研究：儒学是由不同时期的儒学人物建构的，对儒家的人物思想的把握对于理解儒学不可或缺。本研究以儒学人物为个案，将孔子、孟子、荀子、董仲舒、韩愈、二程、张载、朱熹、陆九渊、王守仁、王夫之、颜渊、戴震和康有为等儒家人物纳入研究视野。2.概念研究：儒家哲学具有自身的逻辑系统和话语结构，这些离不开概念、范畴。厘清基本概念、主要范畴对于理解儒学的哲学理念和基本主张是必要的，也是基础性的。诸多关于儒学问题的争议即缘于此，本研究旨在通过这方面的研究还原儒学的本义。...</t>
-  </si>
-  <si>
-    <t>人文社科,电子书,图书,pdf,epub</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/32659d43b83d</t>
-  </si>
-  <si>
-    <t>2024-10-12T04:31:24+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/61619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">入梦AI变声器：免费AI实时变声器 </t>
-  </si>
-  <si>
-    <t>入梦AI变声器是一款免费的支持Windows、Android和iOS多平台的实时变声软件，专为游戏直播和聊天设计。软件提供超过250种高品质变声模型，允许用户随意切换男女声并自定义细致的参数调整，支持上传模型来定制专属你自己的声音。</t>
-  </si>
-  <si>
-    <t>软件,AI,AI变声器,免费AI实时变声,入梦AI变声器</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/95cd62a00209</t>
-  </si>
-  <si>
-    <t>6.3GB</t>
-  </si>
-  <si>
-    <t>2024-08-30T16:07:19+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/70096</t>
-  </si>
-  <si>
-    <t>扫描全能王 v6.72.5.2409050000智能扫描的领导者，解锁高级版</t>
-  </si>
-  <si>
-    <t>CamScanner，全球智能扫描的领导者。扫一扫是一款集文档扫描识别翻译、图片文字提取识别、PDF文档编辑、PDF加密、PDF转Word文档、文档防盗、电子签名等功能为一体的多功能智能扫描软件。 OCR识别，自动扫描，自动修边，图片美化，高清扫描，扫描文档一键转换成Word/Excel/PPT等格式，通过文档共享协同，多设备同步查看平台，支持全球无线打印、传真。</t>
-  </si>
-  <si>
-    <t>Android,扫描全能王,全能,解锁,高级</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/862602210831</t>
-  </si>
-  <si>
-    <t>5.0GB</t>
-  </si>
-  <si>
-    <t>2024-09-17T01:57:17+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95885</t>
-  </si>
-  <si>
-    <t>视频号人性玩法，让你起号，广告双份收入，副业好选择【揭秘】</t>
-  </si>
-  <si>
-    <t>解锁视频号新玩法，探索人性共鸣的奥秘!在这里，不仅让你的视频号快速起号，还能轻松实现广告双份收入，副业之路从此畅通无阻!我们教你如何精准捕捉观众情感，打造引人入胜的内容，让每一次发布都成为引爆流量的火花。无需复杂技巧，只需深入理解人性，你就能在这个视频时代脱颖而出，成为广告商争相合作的热门KOL。别让机会擦肩而过，加入我们，一起开启视频号的人性化盈利之旅，让副业比主业更闪耀!</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/2a52d9f5753d</t>
-  </si>
-  <si>
-    <t>2024-10-12T01:08:53+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/70427</t>
-  </si>
-  <si>
-    <t>速度下载 v1.0.8聚合解析下载支持短视频解析下载，去广告纯净版</t>
-  </si>
-  <si>
-    <t>速度下载App提供了56种资源下载，包括了各种磁力、直链、种子、网盘、无损音乐、壁纸、短视频，甚至还提供了视频剪辑等等，功能完全超乎想象。</t>
-  </si>
-  <si>
-    <t>Android,聚合解析,下载,速度下载</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3b252c045535</t>
-  </si>
-  <si>
-    <t>289.2MB</t>
-  </si>
-  <si>
-    <t>2024-09-17T14:58:01+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95889</t>
-  </si>
-  <si>
-    <t>淘宝无人直播最新玩法，九月测试十月外放，不出镜零粉丝零保证金，24小时无值守，新手1-3天必见收益【揭秘】</t>
-  </si>
-  <si>
-    <t>淘宝无人直播躺赚项目10月份正式外放，团队经过九月份一个月的测试更新，推出了最新玩法
-优点：
-1、无需真人出镜，即可开启无人直播，大幅度节省成本时间；
-2、最新玩法基本上可以无违规，无封号；
-3、无粉丝要求，无需保证金，真正零门槛创业；
-4、新手开播1-3天必见收益。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3564c99e191c</t>
-  </si>
-  <si>
-    <t>2024-10-12T01:14:56+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95862</t>
-  </si>
-  <si>
-    <t>王慧志硬笔书法课程</t>
-  </si>
-  <si>
-    <t>王慧志的硬笔书法课程是一套针对硬笔书法学习的系统教程。该课程由王慧志老师主讲，他不仅是华南师范大学《硬笔书法》的主讲老师，还是中国硬笔书法协会的会员，具备丰富的书法教学经验和深厚的书法功底。  在课程中，王慧志老师从基础的握笔姿势、基本笔画讲起，深入剖析了八大基本笔画的写法，并通过即时书写的方式，在镜头前清晰、直观地为观众展示笔画的形状、节奏和角度，使学习者能够直观地理解和掌握硬笔书法的精髓。</t>
-  </si>
-  <si>
-    <t>硬笔,书法</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/76e3917afd93</t>
-  </si>
-  <si>
-    <t>26.1GB</t>
-  </si>
-  <si>
-    <t>2024-10-11T17:25:34+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/70102</t>
-  </si>
-  <si>
-    <t>网易有道词典 v10.1.4免费的全能翻译软件，去广告解锁会员版</t>
-  </si>
-  <si>
-    <t>网易有道词典是一款免费的全能翻译软件，功能强大。支持超过109种语言翻译，满足多种场景需求。软件内置多部权威词典，词库丰富，查词快又准。同时，支持拍照翻译、语音翻译、对话翻译等多种输入方式，让翻译更加便捷。网易有道词典还具备离线翻译功能，没有网络也能轻松查询。此次版本更新还带来了首页改版和AI升级，新增了20+AI功能，如全科答疑、写作神器、论文润色等，让用户体验更加清爽和智能。</t>
-  </si>
-  <si>
-    <t>Android,网易,词典,网易有道词典</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5d9886be59aa</t>
-  </si>
-  <si>
-    <t>111.5MB</t>
-  </si>
-  <si>
-    <t>2024-09-17T02:08:20+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/73596</t>
-  </si>
-  <si>
-    <t>微鲤万年历 v9.2.9原“中华万年历日历”，去广告解锁高级版</t>
-  </si>
-  <si>
-    <t>旧貌换新颜，中华万年历品牌全新升级为「微鲤万年历」。日历、日程、天气、记事、提醒，功能全，体积小、速度快、口碑好，我们还是那个3亿华人共同选择的中华万年历，依旧为新老历友们免费提供云服务，全球用户数量领先的跨平台日历APP，让时光充满乐趣！</t>
-  </si>
-  <si>
-    <t>Android,万年历,解锁,高级,微鲤万年历</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/625d54c72fb4</t>
-  </si>
-  <si>
-    <t>582.6MB</t>
-  </si>
-  <si>
-    <t>2024-09-23T16:46:36+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/68140</t>
-  </si>
-  <si>
-    <t>悟空下载 v1.2.0超好用的磁力下载工具，免费无广告，解锁会员版</t>
-  </si>
-  <si>
-    <t>悟空下载是一款极致体验的磁力下载神器，免费且无广告。解锁会员版特权，畅享高速下载与全面功能，轻松应对各类磁力链接，让资源获取变得简单高效。界面清爽，操作便捷，是您不可多得的下载好帮手。</t>
-  </si>
-  <si>
-    <t>Android,磁力,免费,下载,工具,悟空下载</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/2822d7339d4f</t>
-  </si>
-  <si>
-    <t>657.1MB</t>
-  </si>
-  <si>
-    <t>2024-09-13T05:47:40+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/79582</t>
-  </si>
-  <si>
-    <t>相机360v9.9.42专门为需要美颜相机的小伙伴准备的软件，解锁高级版</t>
-  </si>
-  <si>
-    <t>相机360，美颜相机界的佼佼者，专为追求极致美颜效果的你打造。尽享海量滤镜、贴纸、特效及专业编辑工具，轻松拍出杂志封面级大片。实时美颜技术，自然细腻，让你的每一张照片都焕发光彩。</t>
-  </si>
-  <si>
-    <t>Android,相机,美颜</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/151750edb2d7</t>
-  </si>
-  <si>
-    <t>1.0GB</t>
-  </si>
-  <si>
-    <t>2024-09-11T04:14:22+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/80072</t>
-  </si>
-  <si>
-    <t>小红书 v8.52.0去除各种广告，加强、内置各种高级功能，内置红薯猪手模块</t>
-  </si>
-  <si>
-    <t>小红书是一款功能强大的生活分享平台应用，该版本去除了各类广告，提升了用户体验。它加强了内部功能，并内置了多种高级特性，包括红薯猪手模块，为用户提供更便捷、高效的操作体验。红薯猪手模块可能包含去水印下载、视频全屏沉浸、长按快进等实用功能，让用户能够更自由地浏览和分享内容。小红书app致力于打造一个更加纯净、高效的生活分享社区。</t>
-  </si>
-  <si>
-    <t>Android,小红书,去广告</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6886d036976d</t>
-  </si>
-  <si>
-    <t>2024-09-12T02:10:00+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/81515</t>
-  </si>
-  <si>
-    <t>小红书养号秘籍，如何自动涨粉清晰系统标签打造高权重账号【揭秘】</t>
-  </si>
-  <si>
-    <t>小红书养号秘籍，如何自动涨粉清晰系统标签打造高权重账号【揭秘】，夸克网盘资源下载。</t>
-  </si>
-  <si>
-    <t>短视频,小红书,小红书养号秘籍</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/061f10559eaa</t>
-  </si>
-  <si>
-    <t>278.4MB</t>
-  </si>
-  <si>
-    <t>2024-10-11T12:16:06+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95739</t>
-  </si>
-  <si>
-    <t>醒来的女性系列（套装共5册） [套装合集] [pdf+全格式]</t>
-  </si>
-  <si>
-    <t>精选未读女性话题书目，从身体、婚姻、职场、爱情和觉醒五个方面，直击女性所面临的困境和觉醒之路。每一位女性都值得怀抱自己的梦想，我们不只是别人的另一半，我们还是我们自己！困境觉醒篇：醒来的女性（全球销量2000万册，豆瓣评分8.8，翻译为22种语言，金智英们应该懂的道理，被它写尽了！我们不只是别人的另一半，我们还是我们自己。）★一部小说版的《第二性》！这是我们母亲一代的故事，这也是我们自己不曾深想的生活。...</t>
-  </si>
-  <si>
-    <t>套装合集,电子书,图书,pdf,epub</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/38dbadde3356</t>
-  </si>
-  <si>
-    <t>2024-10-11T11:01:08+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/86125</t>
-  </si>
-  <si>
-    <t>嗅觉浏览器 v6.59支持安装插件，无广告纯净版</t>
-  </si>
-  <si>
-    <t>嗅觉浏览器是一款支持安装多种插件的纯净版浏览器，界面清爽，全程无广告干扰，为用户打造高效、便捷的上网体验。该版本注重用户体验，功能强大且灵活，满足用户个性化浏览需求。</t>
-  </si>
-  <si>
-    <t>Android,浏览器,纯净版</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e7bf98468262</t>
-  </si>
-  <si>
-    <t>2024-09-23T06:05:42+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/84997</t>
-  </si>
-  <si>
-    <t>迅雷 v8.22.09443全网资源订阅，解锁不限速，去广告纯净版</t>
-  </si>
-  <si>
-    <t>提供海量资源，根据用户下载推荐更多喜欢的资源，下载资源文件越大，下载速度越快，并通过P2P加速、高速通道2大加速方式为资源提高速度。</t>
-  </si>
-  <si>
-    <t>Android,迅雷,纯净版</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/20f3d104bc5d</t>
-  </si>
-  <si>
-    <t>988.2MB</t>
-  </si>
-  <si>
-    <t>2024-09-21T00:40:13+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/80070</t>
-  </si>
-  <si>
-    <t>要知0.51一站式智能新闻聚合平台，轻松掌握天下事</t>
-  </si>
-  <si>
-    <t>在信息爆炸的时代，要知帮我解决了信息获取的难题。它不仅提供了一站式的资讯服务，包括新闻、热点、早报等内容，还能根据用户的阅读习惯推送个性化内容。此外，语音播报功能让您可以边做其他事情边听新闻，时间轴展示则帮助您更好地理解事件的发展脉络。我每天早上刷牙时都会听要知播报今日要闻，感觉整个人都更加充实了。其个性化推送也非常智能，经常能推送到我感兴趣的内容。</t>
-  </si>
-  <si>
-    <t>要知,新闻聚合,Android,智能推送,语音播报,个性化内容</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/7c02daf884e7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20M  </t>
-  </si>
-  <si>
-    <t>2024-09-12T02:07:32+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/64337</t>
-  </si>
-  <si>
-    <t>一木清单 v2.1.6非常好用的智能清单软件解锁会员版</t>
-  </si>
-  <si>
-    <t>非常好用的智能清单软件，无论是生活日历，生活记账，还是消费清单，都可以快速记录下来，并且制作表格，这样方便记录家庭，或者个人开销，非常的便捷，同时还能安排自己每天的工作内容。</t>
-  </si>
-  <si>
-    <t>Android,清单,解锁,会员,一木清单</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/600033f83d57</t>
-  </si>
-  <si>
-    <t>125.0MB</t>
-  </si>
-  <si>
-    <t>2024-09-05T23:40:47+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/82824</t>
-  </si>
-  <si>
-    <t>一起看 v1.3.3免费看剧神器，手机版 _ TV版，去广告解锁会员版</t>
-  </si>
-  <si>
-    <t>一起看app是一款集免费看剧、适用于手机及TV端。用户可畅享高清影视资源，无需担心广告干扰，是追剧爱好者的优选工具。</t>
-  </si>
-  <si>
-    <t>Android,TV,会员,免费</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e804805a7bfa</t>
-  </si>
-  <si>
-    <t>223.5MB</t>
-  </si>
-  <si>
-    <t>2024-09-16T16:30:49+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/81234</t>
-  </si>
-  <si>
-    <t>远离手机 v4.9.9.8.9手机定时锁屏软件，监督、统计时长，解锁高级版</t>
-  </si>
-  <si>
-    <t>远离手机app是一款高效的手机定时锁屏应用，专注于帮助用户管理手机使用时间，通过设定锁屏计划监督每日手机使用时长，并精准统计使用数据。支持一键锁屏，助力培养健康使用习惯。解锁高级版后，更享个性化设置与深度分析功能，全面优化数字生活平衡。</t>
-  </si>
-  <si>
-    <t>Android,计划,监督,高级版</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c8644914bc03</t>
-  </si>
-  <si>
-    <t>45.9MB</t>
-  </si>
-  <si>
-    <t>2024-09-13T16:12:50+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95884</t>
-  </si>
-  <si>
-    <t>职场人士必备实操课：职场进阶心法、加快个人成长原则，助你解决职业困惑</t>
-  </si>
-  <si>
-    <t>这是一门针对职场人士的实战课程，适合对未来迷茫、不知如何规划的职场小白、老鸟和精英。课程涵盖了职业选择、职业规划、面试跳槽方法论和职场核心技巧等内容，旨在帮助学员提升职场竞争力。</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ac4044b88c1a</t>
-  </si>
-  <si>
-    <t>2024-10-12T01:06:42+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/kuakeyun/95864</t>
-  </si>
-  <si>
-    <t>中华书局出版社精选500册</t>
-  </si>
-  <si>
-    <t>中华书局出版社精选的500册古籍和学术著作，涵盖了国学、历史、文学等多个领域。这些书籍均为古典古籍，质量极高，收藏价值不菲。其中不乏《四库全书总目》、《二十四史全译》等重量级作品，由资深专家历经多年编纂而成。这些精选书籍不仅展现了中华文化的博大精深，也为读者提供了深入学习和研究的宝贵资源。</t>
-  </si>
-  <si>
-    <t>书籍,中华书局,精选</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c9f059f15dc5</t>
-  </si>
-  <si>
-    <t>4.9GB</t>
-  </si>
-  <si>
-    <t>2024-10-11T17:27:24+00:00</t>
-  </si>
-  <si>
-    <t>https://t.me/yunpanshare/68022</t>
-  </si>
-  <si>
-    <t>资源全能王 v1.3.9一站式资源搜索神器，去广告解锁会员版</t>
-  </si>
-  <si>
-    <t>资源全能王是一款高效的一站式资源搜索神器提供全面资源搜索能力，涵盖视频、音乐、文档等多种类型，帮助用户快速找到所需内容，提升信息获取效率，体验无缝资源探索之旅。</t>
-  </si>
-  <si>
-    <t>Android,搜索,解锁,资源全能王</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/95b310f767ab</t>
-  </si>
-  <si>
-    <t>442.6MB</t>
-  </si>
-  <si>
-    <t>2024-09-12T18:03:12+00:00</t>
+    <t>https://pan.quark.cn/s/a0ac97358855</t>
+  </si>
+  <si>
+    <t>38.2MB</t>
+  </si>
+  <si>
+    <t>2024-10-13T07:07:46+00:00</t>
   </si>
 </sst>
 </file>
@@ -2509,15 +2480,6 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2812,18 +2774,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M90"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="49.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="37.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="27.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2904,196 +2863,193 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>26</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="L4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" t="s">
+      <c r="M4" t="s">
         <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="L5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" t="s">
+      <c r="M5" t="s">
         <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
+      <c r="M6" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" t="s">
         <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" t="s">
         <v>59</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -3102,62 +3058,62 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" t="s">
         <v>73</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="M10" t="s">
         <v>74</v>
-      </c>
-      <c r="F10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -3166,310 +3122,307 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="L13" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="M13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L14" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M14" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H15" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M15" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L16" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="M16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" t="s">
         <v>119</v>
       </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="M17" t="s">
         <v>120</v>
-      </c>
-      <c r="F17" t="s">
-        <v>121</v>
-      </c>
-      <c r="H17" t="s">
-        <v>122</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>123</v>
-      </c>
-      <c r="L17" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
         <v>125</v>
       </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="L18" t="s">
         <v>126</v>
       </c>
-      <c r="F18" t="s">
+      <c r="M18" t="s">
         <v>127</v>
-      </c>
-      <c r="H18" t="s">
-        <v>128</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" t="s">
-        <v>130</v>
-      </c>
-      <c r="M18" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
         <v>132</v>
       </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="L19" t="s">
         <v>133</v>
       </c>
-      <c r="F19" t="s">
+      <c r="M19" t="s">
         <v>134</v>
-      </c>
-      <c r="H19" t="s">
-        <v>97</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19" t="s">
-        <v>135</v>
-      </c>
-      <c r="L19" t="s">
-        <v>64</v>
-      </c>
-      <c r="M19" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" t="s">
         <v>137</v>
       </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="H20" t="s">
         <v>138</v>
       </c>
-      <c r="F20" t="s">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
         <v>139</v>
       </c>
-      <c r="H20" t="s">
-        <v>97</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>140</v>
-      </c>
-      <c r="L20" t="s">
-        <v>64</v>
       </c>
       <c r="M20" t="s">
         <v>141</v>
@@ -3480,7 +3433,7 @@
         <v>142</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -3491,40 +3444,37 @@
       <c r="F21" t="s">
         <v>144</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
         <v>145</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>146</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>147</v>
-      </c>
-      <c r="M21" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
         <v>149</v>
       </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>150</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>151</v>
-      </c>
-      <c r="H22" t="s">
-        <v>97</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -3533,303 +3483,297 @@
         <v>152</v>
       </c>
       <c r="L22" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="M22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L23" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="M23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F24" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H24" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L24" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="M24" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F25" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H25" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L25" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M25" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F26" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L26" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="M26" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F27" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H27" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L27" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M27" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F28" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H28" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L28" t="s">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="M28" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F29" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H29" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="L29" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="M29" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F30" t="s">
-        <v>197</v>
-      </c>
-      <c r="H30" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="L30" t="s">
-        <v>130</v>
+        <v>208</v>
       </c>
       <c r="M30" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F31" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="H31" t="s">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="L31" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="M31" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -3838,62 +3782,62 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F32" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="H32" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="L32" t="s">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="M32" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="F33" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="H33" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="L33" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="M33" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -3902,126 +3846,126 @@
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="F34" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="H34" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="L34" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="M34" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="F35" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="H35" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F36" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="H36" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="L36" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="M36" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="F37" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="H37" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="L37" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="M37" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -4030,91 +3974,94 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F38" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="H38" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="L38" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="M38" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F39" t="s">
-        <v>256</v>
+        <v>263</v>
+      </c>
+      <c r="H39" t="s">
+        <v>264</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="L39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M39" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F40" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H40" t="s">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L40" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M40" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -4123,246 +4070,246 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F41" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H41" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="L41" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
       <c r="M41" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F42" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H42" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L42" t="s">
-        <v>278</v>
+        <v>195</v>
       </c>
       <c r="M42" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F43" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H43" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L43" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M43" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F44" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H44" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L44" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M44" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F45" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H45" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L45" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M45" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s">
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F46" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H46" t="s">
-        <v>304</v>
+        <v>166</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L46" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="M46" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F47" t="s">
-        <v>309</v>
+        <v>312</v>
+      </c>
+      <c r="H47" t="s">
+        <v>276</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L47" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="M47" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F48" t="s">
-        <v>314</v>
-      </c>
-      <c r="G48" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H48" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L48" t="s">
-        <v>318</v>
+        <v>195</v>
       </c>
       <c r="M48" t="s">
         <v>319</v>
@@ -4373,7 +4320,7 @@
         <v>320</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
         <v>15</v>
@@ -4394,30 +4341,30 @@
         <v>324</v>
       </c>
       <c r="L49" t="s">
-        <v>64</v>
+        <v>325</v>
       </c>
       <c r="M49" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F50" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H50" t="s">
-        <v>329</v>
+        <v>200</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -4437,7 +4384,7 @@
         <v>333</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
@@ -4448,566 +4395,557 @@
       <c r="F51" t="s">
         <v>335</v>
       </c>
-      <c r="H51" t="s">
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
         <v>336</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>337</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>338</v>
-      </c>
-      <c r="M51" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
+        <v>339</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
         <v>340</v>
       </c>
-      <c r="B52" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>341</v>
       </c>
-      <c r="F52" t="s">
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
         <v>342</v>
       </c>
-      <c r="H52" t="s">
+      <c r="L52" t="s">
         <v>343</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52" t="s">
+      <c r="M52" t="s">
         <v>344</v>
-      </c>
-      <c r="L52" t="s">
-        <v>345</v>
-      </c>
-      <c r="M52" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
+        <v>345</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>346</v>
+      </c>
+      <c r="F53" t="s">
+        <v>322</v>
+      </c>
+      <c r="H53" t="s">
+        <v>323</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>324</v>
+      </c>
+      <c r="L53" t="s">
         <v>347</v>
       </c>
-      <c r="B53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="M53" t="s">
         <v>348</v>
-      </c>
-      <c r="F53" t="s">
-        <v>349</v>
-      </c>
-      <c r="H53" t="s">
-        <v>350</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53" t="s">
-        <v>351</v>
-      </c>
-      <c r="L53" t="s">
-        <v>352</v>
-      </c>
-      <c r="M53" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
+        <v>349</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>350</v>
+      </c>
+      <c r="F54" t="s">
+        <v>351</v>
+      </c>
+      <c r="H54" t="s">
+        <v>352</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>353</v>
+      </c>
+      <c r="L54" t="s">
         <v>354</v>
       </c>
-      <c r="B54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="M54" t="s">
         <v>355</v>
-      </c>
-      <c r="F54" t="s">
-        <v>356</v>
-      </c>
-      <c r="H54" t="s">
-        <v>357</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54" t="s">
-        <v>358</v>
-      </c>
-      <c r="L54" t="s">
-        <v>359</v>
-      </c>
-      <c r="M54" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
+        <v>356</v>
+      </c>
+      <c r="B55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>357</v>
+      </c>
+      <c r="F55" t="s">
+        <v>358</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>359</v>
+      </c>
+      <c r="L55" t="s">
+        <v>360</v>
+      </c>
+      <c r="M55" t="s">
         <v>361</v>
-      </c>
-      <c r="B55" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" t="s">
-        <v>362</v>
-      </c>
-      <c r="F55" t="s">
-        <v>363</v>
-      </c>
-      <c r="H55" t="s">
-        <v>364</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55" t="s">
-        <v>365</v>
-      </c>
-      <c r="L55" t="s">
-        <v>366</v>
-      </c>
-      <c r="M55" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F56" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H56" t="s">
-        <v>371</v>
+        <v>166</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="L56" t="s">
-        <v>373</v>
+        <v>195</v>
       </c>
       <c r="M56" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
         <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F57" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H57" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="L57" t="s">
-        <v>64</v>
+        <v>289</v>
       </c>
       <c r="M57" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F58" t="s">
-        <v>383</v>
-      </c>
-      <c r="H58" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="L58" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="M58" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F59" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H59" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="L59" t="s">
-        <v>393</v>
+        <v>195</v>
       </c>
       <c r="M59" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="F60" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="H60" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="L60" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="M60" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="F61" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="H61" t="s">
-        <v>405</v>
+        <v>276</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="L61" t="s">
-        <v>407</v>
+        <v>195</v>
       </c>
       <c r="M61" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C62" t="s">
         <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="F62" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="H62" t="s">
-        <v>412</v>
+        <v>276</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="L62" t="s">
-        <v>414</v>
+        <v>195</v>
       </c>
       <c r="M62" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="F63" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="H63" t="s">
-        <v>419</v>
+        <v>276</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="L63" t="s">
-        <v>421</v>
+        <v>195</v>
       </c>
       <c r="M63" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C64" t="s">
         <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="F64" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="H64" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="L64" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="M64" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="F65" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="H65" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="L65" t="s">
-        <v>50</v>
+        <v>419</v>
       </c>
       <c r="M65" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
         <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="F66" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="H66" t="s">
-        <v>438</v>
+        <v>220</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="L66" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="M66" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="F67" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="H67" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>446</v>
+        <v>431</v>
+      </c>
+      <c r="L67" t="s">
+        <v>168</v>
       </c>
       <c r="M67" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="F68" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="H68" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="L68" t="s">
-        <v>64</v>
+        <v>438</v>
       </c>
       <c r="M68" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -5016,30 +4954,27 @@
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="F69" t="s">
-        <v>456</v>
-      </c>
-      <c r="H69" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="L69" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="M69" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="B70" t="s">
         <v>14</v>
@@ -5048,59 +4983,62 @@
         <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="F70" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="H70" t="s">
-        <v>464</v>
+        <v>220</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="L70" t="s">
-        <v>466</v>
+        <v>354</v>
       </c>
       <c r="M70" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="F71" t="s">
-        <v>470</v>
+        <v>453</v>
+      </c>
+      <c r="H71" t="s">
+        <v>382</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="L71" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="M71" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
@@ -5109,155 +5047,158 @@
         <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="F72" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="H72" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="L72" t="s">
-        <v>478</v>
+        <v>195</v>
       </c>
       <c r="M72" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C73" t="s">
         <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="F73" t="s">
-        <v>482</v>
+        <v>464</v>
+      </c>
+      <c r="H73" t="s">
+        <v>430</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="L73" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="M73" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="F74" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="H74" t="s">
-        <v>488</v>
+        <v>276</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="L74" t="s">
-        <v>490</v>
+        <v>195</v>
       </c>
       <c r="M74" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C75" t="s">
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="F75" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="H75" t="s">
-        <v>495</v>
+        <v>276</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="L75" t="s">
-        <v>497</v>
+        <v>195</v>
       </c>
       <c r="M75" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C76" t="s">
         <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="F76" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="H76" t="s">
-        <v>502</v>
+        <v>276</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="L76" t="s">
-        <v>504</v>
+        <v>195</v>
       </c>
       <c r="M76" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="B77" t="s">
         <v>14</v>
@@ -5266,94 +5207,94 @@
         <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="F77" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="H77" t="s">
-        <v>509</v>
+        <v>276</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="L77" t="s">
-        <v>511</v>
+        <v>195</v>
       </c>
       <c r="M77" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="F78" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="H78" t="s">
-        <v>516</v>
+        <v>276</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>517</v>
+        <v>490</v>
       </c>
       <c r="L78" t="s">
-        <v>518</v>
+        <v>195</v>
       </c>
       <c r="M78" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C79" t="s">
         <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="F79" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="H79" t="s">
-        <v>523</v>
+        <v>200</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
       <c r="L79" t="s">
-        <v>400</v>
+        <v>496</v>
       </c>
       <c r="M79" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="B80" t="s">
         <v>14</v>
@@ -5362,354 +5303,470 @@
         <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="F80" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="H80" t="s">
-        <v>529</v>
+        <v>276</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="L80" t="s">
-        <v>531</v>
+        <v>195</v>
       </c>
       <c r="M80" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C81" t="s">
         <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="F81" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="H81" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="L81" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="M81" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
         <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="F82" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="H82" t="s">
-        <v>542</v>
+        <v>276</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>543</v>
+        <v>512</v>
       </c>
       <c r="L82" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="M82" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
         <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>546</v>
+        <v>515</v>
       </c>
       <c r="F83" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="H83" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>549</v>
+        <v>518</v>
       </c>
       <c r="L83" t="s">
-        <v>550</v>
+        <v>325</v>
       </c>
       <c r="M83" t="s">
-        <v>551</v>
+        <v>519</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C84" t="s">
         <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>553</v>
+        <v>521</v>
       </c>
       <c r="F84" t="s">
-        <v>554</v>
-      </c>
-      <c r="H84" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
       <c r="L84" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
       <c r="M84" t="s">
-        <v>558</v>
+        <v>525</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>559</v>
+        <v>526</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C85" t="s">
         <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>560</v>
+        <v>527</v>
       </c>
       <c r="F85" t="s">
-        <v>561</v>
+        <v>528</v>
       </c>
       <c r="H85" t="s">
-        <v>562</v>
+        <v>276</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
       <c r="L85" t="s">
-        <v>564</v>
+        <v>195</v>
       </c>
       <c r="M85" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C86" t="s">
         <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>567</v>
+        <v>532</v>
       </c>
       <c r="F86" t="s">
-        <v>568</v>
-      </c>
-      <c r="H86" t="s">
-        <v>569</v>
+        <v>533</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>570</v>
+        <v>534</v>
       </c>
       <c r="L86" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="M86" t="s">
-        <v>572</v>
+        <v>536</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C87" t="s">
         <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="F87" t="s">
-        <v>575</v>
-      </c>
-      <c r="H87" t="s">
-        <v>576</v>
+        <v>539</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>577</v>
+        <v>540</v>
       </c>
       <c r="L87" t="s">
-        <v>578</v>
+        <v>541</v>
       </c>
       <c r="M87" t="s">
-        <v>579</v>
+        <v>542</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>580</v>
+        <v>543</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
         <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>581</v>
+        <v>544</v>
       </c>
       <c r="F88" t="s">
-        <v>582</v>
+        <v>545</v>
+      </c>
+      <c r="H88" t="s">
+        <v>546</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>583</v>
+        <v>547</v>
       </c>
       <c r="L88" t="s">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="M88" t="s">
-        <v>584</v>
+        <v>548</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>585</v>
+        <v>549</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
         <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>586</v>
+        <v>550</v>
       </c>
       <c r="F89" t="s">
-        <v>587</v>
+        <v>551</v>
       </c>
       <c r="H89" t="s">
-        <v>588</v>
+        <v>18</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>589</v>
+        <v>552</v>
       </c>
       <c r="L89" t="s">
-        <v>590</v>
+        <v>553</v>
       </c>
       <c r="M89" t="s">
-        <v>591</v>
+        <v>554</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>592</v>
+        <v>555</v>
       </c>
       <c r="B90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
+        <v>556</v>
+      </c>
+      <c r="F90" t="s">
+        <v>557</v>
+      </c>
+      <c r="H90" t="s">
+        <v>558</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>559</v>
+      </c>
+      <c r="L90" t="s">
+        <v>560</v>
+      </c>
+      <c r="M90" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" t="s">
+        <v>562</v>
+      </c>
+      <c r="B91" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>563</v>
+      </c>
+      <c r="F91" t="s">
+        <v>564</v>
+      </c>
+      <c r="H91" t="s">
+        <v>276</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>565</v>
+      </c>
+      <c r="L91" t="s">
+        <v>195</v>
+      </c>
+      <c r="M91" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" t="s">
+        <v>567</v>
+      </c>
+      <c r="B92" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" t="s">
+        <v>568</v>
+      </c>
+      <c r="F92" t="s">
+        <v>569</v>
+      </c>
+      <c r="H92" t="s">
+        <v>166</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>570</v>
+      </c>
+      <c r="L92" t="s">
+        <v>195</v>
+      </c>
+      <c r="M92" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" t="s">
+        <v>572</v>
+      </c>
+      <c r="B93" t="s">
         <v>14</v>
       </c>
-      <c r="C90" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" t="s">
-        <v>593</v>
-      </c>
-      <c r="F90" t="s">
-        <v>594</v>
-      </c>
-      <c r="H90" t="s">
-        <v>595</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90" t="s">
-        <v>596</v>
-      </c>
-      <c r="L90" t="s">
-        <v>597</v>
-      </c>
-      <c r="M90" t="s">
-        <v>598</v>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" t="s">
+        <v>573</v>
+      </c>
+      <c r="F93" t="s">
+        <v>574</v>
+      </c>
+      <c r="H93" t="s">
+        <v>575</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>576</v>
+      </c>
+      <c r="L93" t="s">
+        <v>577</v>
+      </c>
+      <c r="M93" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" t="s">
+        <v>579</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>580</v>
+      </c>
+      <c r="F94" t="s">
+        <v>581</v>
+      </c>
+      <c r="G94" t="s">
+        <v>582</v>
+      </c>
+      <c r="H94" t="s">
+        <v>582</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>583</v>
+      </c>
+      <c r="L94" t="s">
+        <v>584</v>
+      </c>
+      <c r="M94" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:M90" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A2:M90">
-      <sortCondition ref="D2:D96"/>
-    </sortState>
-    <extLst/>
-  </autoFilter>
-  <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
